--- a/out/test.xlsx
+++ b/out/test.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2910">
+  <fills count="3214">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC3B294"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF564A39"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,6 +632,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC5B292"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF554737"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -890,6 +902,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC0AD8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF514435"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1154,6 +1172,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC1B192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4D3F35"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1430,6 +1454,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC5B294"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4F4033"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1724,6 +1754,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC4B293"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF504033"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2000,6 +2036,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC4B093"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF504133"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2288,6 +2330,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCDB89B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4F3E2F"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2558,6 +2606,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC8B896"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4E3B2E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2834,6 +2888,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCDB699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4B392E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3104,6 +3164,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB69D81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF413327"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3398,6 +3464,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB9A386"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF463729"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3662,6 +3734,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBFAA8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF48382C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3950,6 +4028,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB29A78"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF433428"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4232,6 +4316,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB59877"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3F3227"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4496,6 +4586,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB8987A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3F3124"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4778,6 +4874,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC1A17B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3E2E23"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5030,6 +5132,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC2A079"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3D2A20"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5300,6 +5408,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC29E78"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF120301"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5558,6 +5672,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC8A47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF382414"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5810,6 +5930,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCEA57C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF2C170E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6074,6 +6200,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC89D70"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF220C07"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6344,6 +6476,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCAA16E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1C0C06"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6596,6 +6734,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD6B082"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF32190F"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6854,6 +6998,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE2BC91"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF320F09"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7106,6 +7256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE3BE90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF2F0C07"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7364,6 +7520,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDBB88B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF230705"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7640,6 +7802,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDAB78B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF130303"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7916,6 +8084,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD3B18A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0D0503"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8186,6 +8360,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD6B68C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF170405"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8450,6 +8630,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCFB088"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1A0506"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8702,6 +8888,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC7A781"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF110202"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8972,6 +9164,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC0A481"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF040101"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9254,6 +9452,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBBA07D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF010103"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9512,6 +9716,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB69876"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF020005"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9782,6 +9992,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBEA480"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF010003"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10058,6 +10274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB99E79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0E0304"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10322,6 +10544,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB29370"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0A0101"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10568,6 +10796,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAC8A65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000101"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10844,6 +11078,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA4835F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000009"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11126,6 +11366,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB39778"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0F0402"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11408,6 +11654,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB49B7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF090407"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11678,6 +11930,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAB9475"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4D3319"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11960,6 +12218,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA89072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF270803"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -12248,6 +12512,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA68C6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4C210F"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -12512,6 +12782,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAB9173"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF55280A"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -12782,6 +13058,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAC7658"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF774727"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13058,6 +13340,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBC744C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF8C5B31"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13328,6 +13616,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCF895A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6C431F"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13586,6 +13880,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9A4F30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5E3E23"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13844,6 +14144,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA3542B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF58381B"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14078,6 +14384,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA3512E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF593311"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14318,6 +14630,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF903F19"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF764A26"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14582,6 +14900,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8B3C17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6A3819"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14816,6 +15140,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA1552D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF250605"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -15068,6 +15398,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6C2519"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000100"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -15314,6 +15650,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF510C08"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF060004"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -15584,6 +15926,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF551008"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF340E07"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -15836,6 +16184,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5B110D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF200A08"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -16094,6 +16448,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF550E09"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF290A0A"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -16364,6 +16724,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF661908"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF37130B"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -16652,6 +17018,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF832E13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF612E16"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -16940,6 +17312,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8E3F20"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7F4C26"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -17210,6 +17588,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6F2D13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA27041"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -17487,6 +17871,1446 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF250304"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF602B13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9F6A3B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF340801"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B5B33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF512414"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF310303"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45130C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF360601"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF53150A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF71331A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D4216"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF914A2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9D5131"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B3212"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B3411"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C542F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD633D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAB603B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C5230"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF944A2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF975130"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA25E43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF320000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF170004"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F0101"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F140C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF732F15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF753B18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE6F40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF541D0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E260F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B4D26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB37447"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD6F3E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA66939"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91552A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B4F2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F5330"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF86431A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6F351A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF391009"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF130002"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF120003"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A0B09"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF160002"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF712716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF813D26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF875227"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF310400"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF956236"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D180D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF481012"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF340703"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A110E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48110B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF64210F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E5835"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA75F35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9D502E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA65C36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF984F26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF853C12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA25A32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB67045"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB26D44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9A5631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A4425"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF975434"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A0001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F0D08"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF662914"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF753A11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF531D0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D230D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA86A3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9F6037"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93532B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA96B3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E3716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF521E11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F1308"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF330C08"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF190006"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF280204"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D0004"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF100005"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D0502"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B2014"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F3219"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF300000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB56C37"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89542A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF562512"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF936234"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E0C08"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF240507"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF49130B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B0E0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF380C0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF430703"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E5532"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBB714B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB66D46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB16540"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB36843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA85C38"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD613D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA86032"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBA7848"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCD915B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC08855"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF834322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A240F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A0406"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2D0204"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF511106"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF793719"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92572C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7C4121"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF531A0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA46835"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D4F23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D4014"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF955B32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A1608"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF531F0E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF612C15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF531E10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A0D03"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF391008"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F0D04"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400E0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF150002"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C100D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF43100C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF954E30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF874118"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E4026"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF581306"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD09149"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF855023"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D4B25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84512B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F0501"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F0606"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A2015"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF430E02"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF440B07"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF692815"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF784F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC47E54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC17950"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC88157"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB86F47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB76D46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB16642"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA75B3B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8613B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC78A58"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD89F6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCB8C60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF631E0B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF260203"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF440E0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63200E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF905026"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D5429"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF622810"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA06437"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9A5E27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F5324"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF884E2C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D2610"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400C0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B3618"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF662D0E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66301A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF864924"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF713315"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4C1A0A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF59210E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2C0602"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3E110E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF480B07"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B1B0B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF641E10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC17E47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF581000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9D531E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAB76B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF82501F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85552A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69351D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF52200F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D0D08"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF541C0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF723316"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D0E05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7653D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC68356"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC37C51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8855B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCA855B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC68256"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCA855A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBD764F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E5333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA05636"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96502D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7E3D21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF67220E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF511510"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF220002"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F1308"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D3B16"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF884D22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C2510"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA56D3D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97562A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8F4F23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF965B28"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6C3113"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF451008"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A2511"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF874F23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B6434"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF985C2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E3812"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B2D13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF794020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D4322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF602B17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F160B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF420905"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF884623"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC88A56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7D3714"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B4E20"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD79653"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3D196"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17503,7 +19327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2909">
+  <cellXfs count="3213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -20413,6 +22237,310 @@
     <xf numFmtId="0" fontId="0" fillId="2907" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2908" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2909" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2910" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2911" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2912" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2913" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2914" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2915" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2916" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2917" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2918" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2919" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2920" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2921" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2922" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2923" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2924" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2925" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2926" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2927" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2928" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2929" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2930" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2931" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2932" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2933" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2934" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2935" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2936" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2937" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2938" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2939" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2940" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2941" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2942" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2943" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2944" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2945" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2946" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2947" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2948" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2949" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2950" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2951" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2952" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2953" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2954" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2955" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2956" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2957" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2958" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2959" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2960" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2961" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2962" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2963" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2964" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2965" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2966" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2967" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2968" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2969" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2970" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2971" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2972" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2973" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2974" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2975" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2976" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2977" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2978" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2979" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2980" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2981" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2982" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2983" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2984" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2985" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2986" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2987" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2988" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2989" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2990" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2991" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2992" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2993" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2994" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2995" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2996" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2997" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2998" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2999" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3000" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3001" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3002" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3003" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3004" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3005" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3006" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3007" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3008" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3009" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3010" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3011" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3012" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3013" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3014" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3015" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3016" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3017" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3018" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3019" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3020" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3021" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3022" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3023" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3024" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3025" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3026" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3027" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3028" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3029" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3030" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3031" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3032" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3033" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3034" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3035" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3036" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3037" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3038" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3039" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3040" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3041" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3042" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3043" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3044" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3045" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3046" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3047" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3048" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3049" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3050" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3051" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3052" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3053" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3054" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3055" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3056" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3057" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3058" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3059" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3060" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3061" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3062" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3063" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3064" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3065" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3066" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3067" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3068" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3069" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3070" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3071" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3072" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3073" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3074" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3075" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3076" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3077" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3078" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3079" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3080" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3081" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3082" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3083" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3084" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3085" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3086" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3087" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3088" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3089" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3090" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3091" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3092" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3093" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3094" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3095" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3096" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3097" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3098" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3099" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3100" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3101" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3102" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3103" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3104" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3105" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3106" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3107" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3108" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3109" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3110" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3111" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3112" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3113" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3114" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3115" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3116" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3117" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3118" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3119" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3120" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3121" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3122" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3123" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3124" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3125" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3126" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3127" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3128" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3129" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3130" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3131" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3132" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3133" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3134" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3135" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3136" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3137" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3138" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3139" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3140" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3141" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3142" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3143" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3144" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3145" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3146" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3147" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3148" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3149" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3150" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3151" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3152" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3153" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3154" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3155" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3156" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3157" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3158" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3159" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3160" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3161" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3162" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3163" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3164" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3165" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3166" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3167" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3168" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3169" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3170" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3171" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3172" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3173" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3174" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3175" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3176" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3177" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3178" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3179" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3180" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3181" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3182" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3183" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3184" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3185" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3186" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3187" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3188" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3189" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3190" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3191" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3192" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3193" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3194" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3195" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3196" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3197" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3198" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3199" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3200" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3201" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3202" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3203" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3204" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3205" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3206" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3207" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3208" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3209" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3210" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3211" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3212" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3213" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -20693,16 +22821,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW65"/>
+  <dimension ref="A1:AX70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="49" width="0.7109375" customWidth="1"/>
+    <col min="1" max="50" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -20752,3270 +22882,3595 @@
       <c r="AU1" s="46"/>
       <c r="AV1" s="47"/>
       <c r="AW1" s="48"/>
+      <c r="AX1" s="49"/>
     </row>
-    <row r="2" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="90"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="92"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="97"/>
+    <row r="2" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="92"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="99"/>
     </row>
-    <row r="3" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="120"/>
-      <c r="Y3" s="121"/>
+    <row r="3" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
       <c r="Z3" s="34"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="91"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="92"/>
       <c r="AJ3" s="34"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="133"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="138"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="140"/>
-      <c r="AW3" s="141"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="132"/>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="137"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="141"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="144"/>
     </row>
-    <row r="4" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="146"/>
+    <row r="4" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="145"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="152"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="155"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="162"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="164"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="166"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="169"/>
-      <c r="AG4" s="170"/>
-      <c r="AH4" s="171"/>
-      <c r="AI4" s="172"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="162"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="164"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="169"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="172"/>
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="174"/>
+      <c r="AI4" s="175"/>
       <c r="AJ4" s="34"/>
-      <c r="AK4" s="173"/>
-      <c r="AL4" s="174"/>
-      <c r="AM4" s="175"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="177"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="179"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="182"/>
-      <c r="AU4" s="183"/>
-      <c r="AV4" s="184"/>
-      <c r="AW4" s="185"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="177"/>
+      <c r="AM4" s="178"/>
+      <c r="AN4" s="179"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="181"/>
+      <c r="AQ4" s="182"/>
+      <c r="AR4" s="183"/>
+      <c r="AS4" s="184"/>
+      <c r="AT4" s="185"/>
+      <c r="AU4" s="186"/>
+      <c r="AV4" s="187"/>
+      <c r="AW4" s="188"/>
+      <c r="AX4" s="189"/>
     </row>
-    <row r="5" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="195"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="199"/>
       <c r="M5" s="18"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="199"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="202"/>
-      <c r="U5" s="203"/>
-      <c r="V5" s="204"/>
-      <c r="W5" s="205"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="208"/>
-      <c r="AA5" s="209"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="212"/>
-      <c r="AE5" s="213"/>
-      <c r="AF5" s="214"/>
-      <c r="AG5" s="215"/>
-      <c r="AH5" s="216"/>
-      <c r="AI5" s="217"/>
-      <c r="AJ5" s="218"/>
-      <c r="AK5" s="219"/>
-      <c r="AL5" s="220"/>
-      <c r="AM5" s="221"/>
-      <c r="AN5" s="222"/>
-      <c r="AO5" s="223"/>
-      <c r="AP5" s="224"/>
-      <c r="AQ5" s="225"/>
-      <c r="AR5" s="226"/>
-      <c r="AS5" s="227"/>
-      <c r="AT5" s="228"/>
-      <c r="AU5" s="229"/>
-      <c r="AV5" s="230"/>
-      <c r="AW5" s="231"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="204"/>
+      <c r="S5" s="205"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="208"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="210"/>
+      <c r="Y5" s="211"/>
+      <c r="Z5" s="212"/>
+      <c r="AA5" s="213"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="215"/>
+      <c r="AD5" s="216"/>
+      <c r="AE5" s="217"/>
+      <c r="AF5" s="218"/>
+      <c r="AG5" s="219"/>
+      <c r="AH5" s="220"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="222"/>
+      <c r="AK5" s="223"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="225"/>
+      <c r="AN5" s="226"/>
+      <c r="AO5" s="227"/>
+      <c r="AP5" s="228"/>
+      <c r="AQ5" s="229"/>
+      <c r="AR5" s="230"/>
+      <c r="AS5" s="231"/>
+      <c r="AT5" s="232"/>
+      <c r="AU5" s="233"/>
+      <c r="AV5" s="234"/>
+      <c r="AW5" s="235"/>
+      <c r="AX5" s="236"/>
     </row>
-    <row r="6" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="232"/>
-      <c r="B6" s="233"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="240"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="244"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
-      <c r="P6" s="247"/>
-      <c r="Q6" s="248"/>
-      <c r="R6" s="249"/>
-      <c r="S6" s="250"/>
-      <c r="T6" s="251"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="253"/>
-      <c r="W6" s="254"/>
-      <c r="X6" s="255"/>
-      <c r="Y6" s="256"/>
-      <c r="Z6" s="257"/>
-      <c r="AA6" s="258"/>
-      <c r="AB6" s="259"/>
-      <c r="AC6" s="260"/>
-      <c r="AD6" s="261"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="264"/>
-      <c r="AH6" s="265"/>
-      <c r="AI6" s="266"/>
-      <c r="AJ6" s="267"/>
-      <c r="AK6" s="268"/>
-      <c r="AL6" s="269"/>
-      <c r="AM6" s="270"/>
-      <c r="AN6" s="271"/>
-      <c r="AO6" s="272"/>
-      <c r="AP6" s="273"/>
-      <c r="AQ6" s="274"/>
-      <c r="AR6" s="275"/>
-      <c r="AS6" s="276"/>
-      <c r="AT6" s="277"/>
-      <c r="AU6" s="278"/>
-      <c r="AV6" s="279"/>
-      <c r="AW6" s="280"/>
+    <row r="6" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="237"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="243"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="247"/>
+      <c r="L6" s="248"/>
+      <c r="M6" s="249"/>
+      <c r="N6" s="250"/>
+      <c r="O6" s="251"/>
+      <c r="P6" s="252"/>
+      <c r="Q6" s="253"/>
+      <c r="R6" s="254"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="256"/>
+      <c r="U6" s="257"/>
+      <c r="V6" s="258"/>
+      <c r="W6" s="259"/>
+      <c r="X6" s="260"/>
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="262"/>
+      <c r="AA6" s="263"/>
+      <c r="AB6" s="264"/>
+      <c r="AC6" s="265"/>
+      <c r="AD6" s="266"/>
+      <c r="AE6" s="267"/>
+      <c r="AF6" s="268"/>
+      <c r="AG6" s="269"/>
+      <c r="AH6" s="270"/>
+      <c r="AI6" s="271"/>
+      <c r="AJ6" s="272"/>
+      <c r="AK6" s="273"/>
+      <c r="AL6" s="274"/>
+      <c r="AM6" s="275"/>
+      <c r="AN6" s="276"/>
+      <c r="AO6" s="277"/>
+      <c r="AP6" s="278"/>
+      <c r="AQ6" s="279"/>
+      <c r="AR6" s="280"/>
+      <c r="AS6" s="281"/>
+      <c r="AT6" s="282"/>
+      <c r="AU6" s="283"/>
+      <c r="AV6" s="284"/>
+      <c r="AW6" s="285"/>
+      <c r="AX6" s="286"/>
     </row>
-    <row r="7" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="281"/>
-      <c r="B7" s="282"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="289"/>
-      <c r="J7" s="290"/>
+    <row r="7" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="287"/>
+      <c r="B7" s="288"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="296"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="291"/>
-      <c r="N7" s="292"/>
-      <c r="O7" s="293"/>
-      <c r="P7" s="294"/>
-      <c r="Q7" s="295"/>
-      <c r="R7" s="296"/>
-      <c r="S7" s="297"/>
-      <c r="T7" s="254"/>
-      <c r="U7" s="298"/>
-      <c r="V7" s="299"/>
-      <c r="W7" s="300"/>
-      <c r="X7" s="301"/>
-      <c r="Y7" s="302"/>
-      <c r="Z7" s="303"/>
-      <c r="AA7" s="304"/>
-      <c r="AB7" s="305"/>
-      <c r="AC7" s="306"/>
-      <c r="AD7" s="307"/>
-      <c r="AE7" s="308"/>
-      <c r="AF7" s="309"/>
-      <c r="AG7" s="310"/>
-      <c r="AH7" s="311"/>
-      <c r="AI7" s="312"/>
-      <c r="AJ7" s="313"/>
-      <c r="AK7" s="314"/>
-      <c r="AL7" s="315"/>
-      <c r="AM7" s="316"/>
-      <c r="AN7" s="317"/>
-      <c r="AO7" s="318"/>
-      <c r="AP7" s="319"/>
-      <c r="AQ7" s="320"/>
-      <c r="AR7" s="321"/>
-      <c r="AS7" s="322"/>
-      <c r="AT7" s="323"/>
-      <c r="AU7" s="324"/>
-      <c r="AV7" s="325"/>
-      <c r="AW7" s="326"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="297"/>
+      <c r="N7" s="298"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="301"/>
+      <c r="R7" s="302"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="259"/>
+      <c r="U7" s="304"/>
+      <c r="V7" s="305"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="307"/>
+      <c r="Y7" s="308"/>
+      <c r="Z7" s="309"/>
+      <c r="AA7" s="310"/>
+      <c r="AB7" s="311"/>
+      <c r="AC7" s="312"/>
+      <c r="AD7" s="313"/>
+      <c r="AE7" s="314"/>
+      <c r="AF7" s="315"/>
+      <c r="AG7" s="316"/>
+      <c r="AH7" s="317"/>
+      <c r="AI7" s="318"/>
+      <c r="AJ7" s="319"/>
+      <c r="AK7" s="320"/>
+      <c r="AL7" s="321"/>
+      <c r="AM7" s="322"/>
+      <c r="AN7" s="323"/>
+      <c r="AO7" s="324"/>
+      <c r="AP7" s="325"/>
+      <c r="AQ7" s="326"/>
+      <c r="AR7" s="327"/>
+      <c r="AS7" s="328"/>
+      <c r="AT7" s="329"/>
+      <c r="AU7" s="330"/>
+      <c r="AV7" s="331"/>
+      <c r="AW7" s="332"/>
+      <c r="AX7" s="333"/>
     </row>
-    <row r="8" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="327"/>
-      <c r="B8" s="328"/>
-      <c r="C8" s="329"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="331"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="333"/>
-      <c r="I8" s="334"/>
-      <c r="J8" s="335"/>
-      <c r="K8" s="336"/>
-      <c r="L8" s="337"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="340"/>
-      <c r="P8" s="341"/>
-      <c r="Q8" s="342"/>
-      <c r="R8" s="343"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="345"/>
-      <c r="U8" s="346"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="348"/>
-      <c r="X8" s="349"/>
-      <c r="Y8" s="350"/>
-      <c r="Z8" s="351"/>
-      <c r="AA8" s="352"/>
-      <c r="AB8" s="353"/>
-      <c r="AC8" s="354"/>
-      <c r="AD8" s="355"/>
-      <c r="AE8" s="356"/>
-      <c r="AF8" s="357"/>
-      <c r="AG8" s="358"/>
-      <c r="AH8" s="359"/>
-      <c r="AI8" s="360"/>
-      <c r="AJ8" s="361"/>
-      <c r="AK8" s="362"/>
-      <c r="AL8" s="363"/>
-      <c r="AM8" s="364"/>
-      <c r="AN8" s="365"/>
-      <c r="AO8" s="366"/>
-      <c r="AP8" s="367"/>
-      <c r="AQ8" s="368"/>
-      <c r="AR8" s="369"/>
-      <c r="AS8" s="370"/>
-      <c r="AT8" s="371"/>
-      <c r="AU8" s="372"/>
-      <c r="AV8" s="373"/>
-      <c r="AW8" s="374"/>
+    <row r="8" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="334"/>
+      <c r="B8" s="335"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="338"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="295"/>
+      <c r="H8" s="340"/>
+      <c r="I8" s="341"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="343"/>
+      <c r="L8" s="344"/>
+      <c r="M8" s="345"/>
+      <c r="N8" s="346"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="348"/>
+      <c r="Q8" s="349"/>
+      <c r="R8" s="350"/>
+      <c r="S8" s="351"/>
+      <c r="T8" s="352"/>
+      <c r="U8" s="353"/>
+      <c r="V8" s="354"/>
+      <c r="W8" s="355"/>
+      <c r="X8" s="356"/>
+      <c r="Y8" s="357"/>
+      <c r="Z8" s="358"/>
+      <c r="AA8" s="359"/>
+      <c r="AB8" s="360"/>
+      <c r="AC8" s="361"/>
+      <c r="AD8" s="362"/>
+      <c r="AE8" s="363"/>
+      <c r="AF8" s="364"/>
+      <c r="AG8" s="365"/>
+      <c r="AH8" s="366"/>
+      <c r="AI8" s="367"/>
+      <c r="AJ8" s="368"/>
+      <c r="AK8" s="369"/>
+      <c r="AL8" s="370"/>
+      <c r="AM8" s="371"/>
+      <c r="AN8" s="372"/>
+      <c r="AO8" s="373"/>
+      <c r="AP8" s="374"/>
+      <c r="AQ8" s="375"/>
+      <c r="AR8" s="376"/>
+      <c r="AS8" s="377"/>
+      <c r="AT8" s="378"/>
+      <c r="AU8" s="379"/>
+      <c r="AV8" s="380"/>
+      <c r="AW8" s="381"/>
+      <c r="AX8" s="382"/>
     </row>
-    <row r="9" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="375"/>
-      <c r="B9" s="376"/>
-      <c r="C9" s="377"/>
-      <c r="D9" s="378"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="333"/>
+    <row r="9" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="383"/>
+      <c r="B9" s="384"/>
+      <c r="C9" s="385"/>
+      <c r="D9" s="386"/>
+      <c r="E9" s="387"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="388"/>
+      <c r="H9" s="340"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="381"/>
-      <c r="K9" s="382"/>
-      <c r="L9" s="383"/>
-      <c r="M9" s="384"/>
-      <c r="N9" s="385"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="390"/>
+      <c r="L9" s="391"/>
+      <c r="M9" s="392"/>
+      <c r="N9" s="393"/>
       <c r="O9" s="34"/>
-      <c r="P9" s="386"/>
-      <c r="Q9" s="387"/>
-      <c r="R9" s="388"/>
-      <c r="S9" s="389"/>
-      <c r="T9" s="390"/>
-      <c r="U9" s="391"/>
-      <c r="V9" s="392"/>
-      <c r="W9" s="393"/>
-      <c r="X9" s="394"/>
-      <c r="Y9" s="395"/>
-      <c r="Z9" s="396"/>
-      <c r="AA9" s="397"/>
-      <c r="AB9" s="398"/>
-      <c r="AC9" s="399"/>
-      <c r="AD9" s="400"/>
-      <c r="AE9" s="401"/>
-      <c r="AF9" s="402"/>
-      <c r="AG9" s="403"/>
-      <c r="AH9" s="404"/>
-      <c r="AI9" s="405"/>
-      <c r="AJ9" s="406"/>
-      <c r="AK9" s="407"/>
-      <c r="AL9" s="408"/>
-      <c r="AM9" s="409"/>
-      <c r="AN9" s="410"/>
-      <c r="AO9" s="411"/>
-      <c r="AP9" s="412"/>
-      <c r="AQ9" s="413"/>
-      <c r="AR9" s="414"/>
-      <c r="AS9" s="415"/>
-      <c r="AT9" s="416"/>
-      <c r="AU9" s="417"/>
-      <c r="AV9" s="418"/>
-      <c r="AW9" s="419"/>
+      <c r="P9" s="394"/>
+      <c r="Q9" s="395"/>
+      <c r="R9" s="396"/>
+      <c r="S9" s="397"/>
+      <c r="T9" s="398"/>
+      <c r="U9" s="399"/>
+      <c r="V9" s="400"/>
+      <c r="W9" s="401"/>
+      <c r="X9" s="402"/>
+      <c r="Y9" s="403"/>
+      <c r="Z9" s="404"/>
+      <c r="AA9" s="405"/>
+      <c r="AB9" s="406"/>
+      <c r="AC9" s="407"/>
+      <c r="AD9" s="408"/>
+      <c r="AE9" s="409"/>
+      <c r="AF9" s="410"/>
+      <c r="AG9" s="411"/>
+      <c r="AH9" s="412"/>
+      <c r="AI9" s="413"/>
+      <c r="AJ9" s="414"/>
+      <c r="AK9" s="415"/>
+      <c r="AL9" s="416"/>
+      <c r="AM9" s="417"/>
+      <c r="AN9" s="418"/>
+      <c r="AO9" s="419"/>
+      <c r="AP9" s="420"/>
+      <c r="AQ9" s="421"/>
+      <c r="AR9" s="422"/>
+      <c r="AS9" s="423"/>
+      <c r="AT9" s="424"/>
+      <c r="AU9" s="425"/>
+      <c r="AV9" s="426"/>
+      <c r="AW9" s="427"/>
+      <c r="AX9" s="428"/>
     </row>
-    <row r="10" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="420"/>
-      <c r="B10" s="421"/>
-      <c r="C10" s="422"/>
-      <c r="D10" s="423"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="424"/>
-      <c r="G10" s="425"/>
-      <c r="H10" s="426"/>
-      <c r="I10" s="427"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="428"/>
-      <c r="L10" s="429"/>
-      <c r="M10" s="430"/>
-      <c r="N10" s="431"/>
+    <row r="10" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="429"/>
+      <c r="B10" s="430"/>
+      <c r="C10" s="431"/>
+      <c r="D10" s="432"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="434"/>
+      <c r="H10" s="435"/>
+      <c r="I10" s="436"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="437"/>
+      <c r="L10" s="438"/>
+      <c r="M10" s="439"/>
+      <c r="N10" s="440"/>
       <c r="O10" s="34"/>
-      <c r="P10" s="432"/>
-      <c r="Q10" s="433"/>
-      <c r="R10" s="434"/>
-      <c r="S10" s="435"/>
-      <c r="T10" s="436"/>
-      <c r="U10" s="437"/>
-      <c r="V10" s="438"/>
-      <c r="W10" s="439"/>
-      <c r="X10" s="440"/>
-      <c r="Y10" s="441"/>
-      <c r="Z10" s="442"/>
-      <c r="AA10" s="443"/>
-      <c r="AB10" s="444"/>
-      <c r="AC10" s="445"/>
-      <c r="AD10" s="446"/>
-      <c r="AE10" s="447"/>
-      <c r="AF10" s="448"/>
-      <c r="AG10" s="449"/>
-      <c r="AH10" s="450"/>
-      <c r="AI10" s="451"/>
-      <c r="AJ10" s="452"/>
-      <c r="AK10" s="453"/>
-      <c r="AL10" s="454"/>
-      <c r="AM10" s="455"/>
-      <c r="AN10" s="456"/>
-      <c r="AO10" s="457"/>
-      <c r="AP10" s="458"/>
-      <c r="AQ10" s="459"/>
-      <c r="AR10" s="460"/>
-      <c r="AS10" s="461"/>
-      <c r="AT10" s="462"/>
-      <c r="AU10" s="463"/>
-      <c r="AV10" s="464"/>
-      <c r="AW10" s="465"/>
+      <c r="P10" s="441"/>
+      <c r="Q10" s="442"/>
+      <c r="R10" s="443"/>
+      <c r="S10" s="444"/>
+      <c r="T10" s="445"/>
+      <c r="U10" s="446"/>
+      <c r="V10" s="447"/>
+      <c r="W10" s="448"/>
+      <c r="X10" s="449"/>
+      <c r="Y10" s="450"/>
+      <c r="Z10" s="451"/>
+      <c r="AA10" s="452"/>
+      <c r="AB10" s="453"/>
+      <c r="AC10" s="454"/>
+      <c r="AD10" s="455"/>
+      <c r="AE10" s="456"/>
+      <c r="AF10" s="457"/>
+      <c r="AG10" s="458"/>
+      <c r="AH10" s="459"/>
+      <c r="AI10" s="460"/>
+      <c r="AJ10" s="461"/>
+      <c r="AK10" s="462"/>
+      <c r="AL10" s="463"/>
+      <c r="AM10" s="464"/>
+      <c r="AN10" s="465"/>
+      <c r="AO10" s="466"/>
+      <c r="AP10" s="467"/>
+      <c r="AQ10" s="468"/>
+      <c r="AR10" s="469"/>
+      <c r="AS10" s="470"/>
+      <c r="AT10" s="471"/>
+      <c r="AU10" s="472"/>
+      <c r="AV10" s="473"/>
+      <c r="AW10" s="474"/>
+      <c r="AX10" s="475"/>
     </row>
-    <row r="11" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="466"/>
-      <c r="B11" s="467"/>
-      <c r="C11" s="468"/>
-      <c r="D11" s="469"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="470"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="471"/>
-      <c r="I11" s="472"/>
-      <c r="J11" s="473"/>
-      <c r="K11" s="474"/>
-      <c r="L11" s="475"/>
-      <c r="M11" s="476"/>
+    <row r="11" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="476"/>
+      <c r="B11" s="477"/>
+      <c r="C11" s="478"/>
+      <c r="D11" s="479"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="480"/>
+      <c r="G11" s="296"/>
+      <c r="H11" s="481"/>
+      <c r="I11" s="482"/>
+      <c r="J11" s="483"/>
+      <c r="K11" s="484"/>
+      <c r="L11" s="485"/>
+      <c r="M11" s="486"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="477"/>
-      <c r="P11" s="478"/>
-      <c r="Q11" s="479"/>
-      <c r="R11" s="480"/>
-      <c r="S11" s="481"/>
-      <c r="T11" s="482"/>
-      <c r="U11" s="483"/>
-      <c r="V11" s="484"/>
-      <c r="W11" s="485"/>
-      <c r="X11" s="486"/>
-      <c r="Y11" s="487"/>
-      <c r="Z11" s="488"/>
-      <c r="AA11" s="489"/>
-      <c r="AB11" s="490"/>
-      <c r="AC11" s="445"/>
-      <c r="AD11" s="491"/>
-      <c r="AE11" s="492"/>
-      <c r="AF11" s="493"/>
-      <c r="AG11" s="494"/>
-      <c r="AH11" s="495"/>
-      <c r="AI11" s="496"/>
-      <c r="AJ11" s="497"/>
-      <c r="AK11" s="498"/>
-      <c r="AL11" s="499"/>
-      <c r="AM11" s="500"/>
-      <c r="AN11" s="501"/>
-      <c r="AO11" s="502"/>
-      <c r="AP11" s="503"/>
-      <c r="AQ11" s="504"/>
-      <c r="AR11" s="505"/>
-      <c r="AS11" s="506"/>
-      <c r="AT11" s="507"/>
-      <c r="AU11" s="508"/>
-      <c r="AV11" s="509"/>
-      <c r="AW11" s="510"/>
+      <c r="O11" s="487"/>
+      <c r="P11" s="488"/>
+      <c r="Q11" s="489"/>
+      <c r="R11" s="490"/>
+      <c r="S11" s="491"/>
+      <c r="T11" s="492"/>
+      <c r="U11" s="493"/>
+      <c r="V11" s="494"/>
+      <c r="W11" s="495"/>
+      <c r="X11" s="496"/>
+      <c r="Y11" s="497"/>
+      <c r="Z11" s="498"/>
+      <c r="AA11" s="499"/>
+      <c r="AB11" s="500"/>
+      <c r="AC11" s="454"/>
+      <c r="AD11" s="501"/>
+      <c r="AE11" s="502"/>
+      <c r="AF11" s="503"/>
+      <c r="AG11" s="504"/>
+      <c r="AH11" s="505"/>
+      <c r="AI11" s="506"/>
+      <c r="AJ11" s="507"/>
+      <c r="AK11" s="508"/>
+      <c r="AL11" s="509"/>
+      <c r="AM11" s="510"/>
+      <c r="AN11" s="511"/>
+      <c r="AO11" s="512"/>
+      <c r="AP11" s="513"/>
+      <c r="AQ11" s="514"/>
+      <c r="AR11" s="515"/>
+      <c r="AS11" s="516"/>
+      <c r="AT11" s="517"/>
+      <c r="AU11" s="518"/>
+      <c r="AV11" s="519"/>
+      <c r="AW11" s="520"/>
+      <c r="AX11" s="521"/>
     </row>
-    <row r="12" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="511"/>
-      <c r="B12" s="512"/>
-      <c r="C12" s="513"/>
-      <c r="D12" s="514"/>
-      <c r="E12" s="515"/>
-      <c r="F12" s="516"/>
-      <c r="G12" s="517"/>
-      <c r="H12" s="518"/>
-      <c r="I12" s="519"/>
-      <c r="J12" s="520"/>
-      <c r="K12" s="521"/>
-      <c r="L12" s="522"/>
-      <c r="M12" s="523"/>
-      <c r="N12" s="524"/>
-      <c r="O12" s="525"/>
-      <c r="P12" s="526"/>
-      <c r="Q12" s="527"/>
-      <c r="R12" s="528"/>
-      <c r="S12" s="529"/>
-      <c r="T12" s="530"/>
-      <c r="U12" s="531"/>
-      <c r="V12" s="532"/>
-      <c r="W12" s="533"/>
-      <c r="X12" s="534"/>
-      <c r="Y12" s="535"/>
-      <c r="Z12" s="536"/>
-      <c r="AA12" s="537"/>
-      <c r="AB12" s="538"/>
-      <c r="AC12" s="539"/>
-      <c r="AD12" s="540"/>
-      <c r="AE12" s="541"/>
-      <c r="AF12" s="542"/>
-      <c r="AG12" s="543"/>
-      <c r="AH12" s="544"/>
-      <c r="AI12" s="545"/>
-      <c r="AJ12" s="546"/>
-      <c r="AK12" s="547"/>
-      <c r="AL12" s="548"/>
-      <c r="AM12" s="549"/>
-      <c r="AN12" s="550"/>
-      <c r="AO12" s="551"/>
-      <c r="AP12" s="552"/>
-      <c r="AQ12" s="553"/>
-      <c r="AR12" s="554"/>
-      <c r="AS12" s="555"/>
-      <c r="AT12" s="556"/>
-      <c r="AU12" s="557"/>
-      <c r="AV12" s="558"/>
-      <c r="AW12" s="559"/>
+    <row r="12" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="522"/>
+      <c r="B12" s="523"/>
+      <c r="C12" s="524"/>
+      <c r="D12" s="525"/>
+      <c r="E12" s="526"/>
+      <c r="F12" s="527"/>
+      <c r="G12" s="528"/>
+      <c r="H12" s="529"/>
+      <c r="I12" s="530"/>
+      <c r="J12" s="531"/>
+      <c r="K12" s="532"/>
+      <c r="L12" s="533"/>
+      <c r="M12" s="534"/>
+      <c r="N12" s="535"/>
+      <c r="O12" s="536"/>
+      <c r="P12" s="537"/>
+      <c r="Q12" s="538"/>
+      <c r="R12" s="539"/>
+      <c r="S12" s="540"/>
+      <c r="T12" s="541"/>
+      <c r="U12" s="542"/>
+      <c r="V12" s="543"/>
+      <c r="W12" s="544"/>
+      <c r="X12" s="545"/>
+      <c r="Y12" s="546"/>
+      <c r="Z12" s="547"/>
+      <c r="AA12" s="548"/>
+      <c r="AB12" s="549"/>
+      <c r="AC12" s="550"/>
+      <c r="AD12" s="551"/>
+      <c r="AE12" s="552"/>
+      <c r="AF12" s="553"/>
+      <c r="AG12" s="554"/>
+      <c r="AH12" s="555"/>
+      <c r="AI12" s="556"/>
+      <c r="AJ12" s="557"/>
+      <c r="AK12" s="558"/>
+      <c r="AL12" s="559"/>
+      <c r="AM12" s="560"/>
+      <c r="AN12" s="561"/>
+      <c r="AO12" s="562"/>
+      <c r="AP12" s="563"/>
+      <c r="AQ12" s="564"/>
+      <c r="AR12" s="565"/>
+      <c r="AS12" s="566"/>
+      <c r="AT12" s="567"/>
+      <c r="AU12" s="568"/>
+      <c r="AV12" s="569"/>
+      <c r="AW12" s="570"/>
+      <c r="AX12" s="571"/>
     </row>
-    <row r="13" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="560"/>
-      <c r="B13" s="561"/>
-      <c r="C13" s="562"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="563"/>
-      <c r="F13" s="564"/>
-      <c r="G13" s="565"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="566"/>
-      <c r="J13" s="567"/>
-      <c r="K13" s="568"/>
-      <c r="L13" s="569"/>
+    <row r="13" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="572"/>
+      <c r="B13" s="573"/>
+      <c r="C13" s="574"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="575"/>
+      <c r="F13" s="576"/>
+      <c r="G13" s="577"/>
+      <c r="H13" s="257"/>
+      <c r="I13" s="578"/>
+      <c r="J13" s="579"/>
+      <c r="K13" s="580"/>
+      <c r="L13" s="581"/>
       <c r="M13" s="34"/>
-      <c r="N13" s="570"/>
-      <c r="O13" s="571"/>
-      <c r="P13" s="572"/>
-      <c r="Q13" s="573"/>
-      <c r="R13" s="574"/>
-      <c r="S13" s="575"/>
-      <c r="T13" s="576"/>
-      <c r="U13" s="577"/>
-      <c r="V13" s="578"/>
-      <c r="W13" s="579"/>
-      <c r="X13" s="580"/>
-      <c r="Y13" s="581"/>
-      <c r="Z13" s="582"/>
-      <c r="AA13" s="583"/>
-      <c r="AB13" s="584"/>
-      <c r="AC13" s="585"/>
-      <c r="AD13" s="586"/>
-      <c r="AE13" s="587"/>
-      <c r="AF13" s="588"/>
-      <c r="AG13" s="589"/>
-      <c r="AH13" s="590"/>
-      <c r="AI13" s="591"/>
-      <c r="AJ13" s="592"/>
-      <c r="AK13" s="593"/>
-      <c r="AL13" s="547"/>
-      <c r="AM13" s="594"/>
-      <c r="AN13" s="595"/>
-      <c r="AO13" s="596"/>
-      <c r="AP13" s="597"/>
-      <c r="AQ13" s="598"/>
-      <c r="AR13" s="599"/>
-      <c r="AS13" s="600"/>
-      <c r="AT13" s="270"/>
-      <c r="AU13" s="601"/>
-      <c r="AV13" s="602"/>
-      <c r="AW13" s="603"/>
+      <c r="N13" s="582"/>
+      <c r="O13" s="583"/>
+      <c r="P13" s="584"/>
+      <c r="Q13" s="585"/>
+      <c r="R13" s="586"/>
+      <c r="S13" s="587"/>
+      <c r="T13" s="588"/>
+      <c r="U13" s="589"/>
+      <c r="V13" s="590"/>
+      <c r="W13" s="591"/>
+      <c r="X13" s="592"/>
+      <c r="Y13" s="593"/>
+      <c r="Z13" s="594"/>
+      <c r="AA13" s="595"/>
+      <c r="AB13" s="596"/>
+      <c r="AC13" s="597"/>
+      <c r="AD13" s="598"/>
+      <c r="AE13" s="599"/>
+      <c r="AF13" s="600"/>
+      <c r="AG13" s="601"/>
+      <c r="AH13" s="602"/>
+      <c r="AI13" s="603"/>
+      <c r="AJ13" s="604"/>
+      <c r="AK13" s="605"/>
+      <c r="AL13" s="558"/>
+      <c r="AM13" s="606"/>
+      <c r="AN13" s="607"/>
+      <c r="AO13" s="608"/>
+      <c r="AP13" s="609"/>
+      <c r="AQ13" s="610"/>
+      <c r="AR13" s="611"/>
+      <c r="AS13" s="612"/>
+      <c r="AT13" s="275"/>
+      <c r="AU13" s="613"/>
+      <c r="AV13" s="614"/>
+      <c r="AW13" s="615"/>
+      <c r="AX13" s="616"/>
     </row>
-    <row r="14" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="604"/>
-      <c r="B14" s="605"/>
-      <c r="C14" s="606"/>
-      <c r="D14" s="607"/>
-      <c r="E14" s="608"/>
+    <row r="14" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="617"/>
+      <c r="B14" s="618"/>
+      <c r="C14" s="619"/>
+      <c r="D14" s="620"/>
+      <c r="E14" s="621"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="609"/>
-      <c r="H14" s="610"/>
-      <c r="I14" s="611"/>
-      <c r="J14" s="612"/>
-      <c r="K14" s="613"/>
-      <c r="L14" s="614"/>
-      <c r="M14" s="615"/>
-      <c r="N14" s="616"/>
-      <c r="O14" s="617"/>
-      <c r="P14" s="618"/>
-      <c r="Q14" s="619"/>
-      <c r="R14" s="620"/>
-      <c r="S14" s="621"/>
-      <c r="T14" s="622"/>
-      <c r="U14" s="623"/>
-      <c r="V14" s="624"/>
-      <c r="W14" s="625"/>
-      <c r="X14" s="626"/>
-      <c r="Y14" s="627"/>
-      <c r="Z14" s="628"/>
-      <c r="AA14" s="629"/>
-      <c r="AB14" s="630"/>
-      <c r="AC14" s="631"/>
-      <c r="AD14" s="632"/>
-      <c r="AE14" s="633"/>
-      <c r="AF14" s="634"/>
-      <c r="AG14" s="635"/>
-      <c r="AH14" s="636"/>
-      <c r="AI14" s="637"/>
-      <c r="AJ14" s="638"/>
-      <c r="AK14" s="639"/>
-      <c r="AL14" s="640"/>
-      <c r="AM14" s="641"/>
-      <c r="AN14" s="642"/>
-      <c r="AO14" s="643"/>
-      <c r="AP14" s="644"/>
-      <c r="AQ14" s="645"/>
-      <c r="AR14" s="646"/>
-      <c r="AS14" s="647"/>
-      <c r="AT14" s="648"/>
-      <c r="AU14" s="649"/>
-      <c r="AV14" s="650"/>
-      <c r="AW14" s="651"/>
+      <c r="G14" s="622"/>
+      <c r="H14" s="623"/>
+      <c r="I14" s="624"/>
+      <c r="J14" s="625"/>
+      <c r="K14" s="626"/>
+      <c r="L14" s="627"/>
+      <c r="M14" s="628"/>
+      <c r="N14" s="629"/>
+      <c r="O14" s="630"/>
+      <c r="P14" s="631"/>
+      <c r="Q14" s="632"/>
+      <c r="R14" s="633"/>
+      <c r="S14" s="634"/>
+      <c r="T14" s="635"/>
+      <c r="U14" s="636"/>
+      <c r="V14" s="637"/>
+      <c r="W14" s="638"/>
+      <c r="X14" s="639"/>
+      <c r="Y14" s="640"/>
+      <c r="Z14" s="641"/>
+      <c r="AA14" s="642"/>
+      <c r="AB14" s="643"/>
+      <c r="AC14" s="644"/>
+      <c r="AD14" s="645"/>
+      <c r="AE14" s="646"/>
+      <c r="AF14" s="647"/>
+      <c r="AG14" s="648"/>
+      <c r="AH14" s="649"/>
+      <c r="AI14" s="650"/>
+      <c r="AJ14" s="651"/>
+      <c r="AK14" s="652"/>
+      <c r="AL14" s="653"/>
+      <c r="AM14" s="654"/>
+      <c r="AN14" s="655"/>
+      <c r="AO14" s="656"/>
+      <c r="AP14" s="657"/>
+      <c r="AQ14" s="658"/>
+      <c r="AR14" s="659"/>
+      <c r="AS14" s="660"/>
+      <c r="AT14" s="661"/>
+      <c r="AU14" s="662"/>
+      <c r="AV14" s="663"/>
+      <c r="AW14" s="664"/>
+      <c r="AX14" s="665"/>
     </row>
-    <row r="15" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="652"/>
-      <c r="B15" s="653"/>
-      <c r="C15" s="654"/>
-      <c r="D15" s="655"/>
-      <c r="E15" s="656"/>
-      <c r="F15" s="657"/>
-      <c r="G15" s="658"/>
-      <c r="H15" s="659"/>
-      <c r="I15" s="660"/>
-      <c r="J15" s="661"/>
-      <c r="K15" s="662"/>
+    <row r="15" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="666"/>
+      <c r="B15" s="667"/>
+      <c r="C15" s="668"/>
+      <c r="D15" s="669"/>
+      <c r="E15" s="670"/>
+      <c r="F15" s="671"/>
+      <c r="G15" s="672"/>
+      <c r="H15" s="673"/>
+      <c r="I15" s="674"/>
+      <c r="J15" s="675"/>
+      <c r="K15" s="676"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="663"/>
-      <c r="N15" s="664"/>
-      <c r="O15" s="665"/>
-      <c r="P15" s="666"/>
-      <c r="Q15" s="667"/>
-      <c r="R15" s="668"/>
-      <c r="S15" s="669"/>
-      <c r="T15" s="670"/>
-      <c r="U15" s="671"/>
-      <c r="V15" s="672"/>
-      <c r="W15" s="673"/>
-      <c r="X15" s="674"/>
-      <c r="Y15" s="675"/>
-      <c r="Z15" s="676"/>
-      <c r="AA15" s="677"/>
-      <c r="AB15" s="678"/>
-      <c r="AC15" s="679"/>
-      <c r="AD15" s="680"/>
-      <c r="AE15" s="681"/>
-      <c r="AF15" s="682"/>
-      <c r="AG15" s="683"/>
-      <c r="AH15" s="684"/>
-      <c r="AI15" s="685"/>
-      <c r="AJ15" s="686"/>
-      <c r="AK15" s="687"/>
-      <c r="AL15" s="688"/>
-      <c r="AM15" s="689"/>
-      <c r="AN15" s="643"/>
-      <c r="AO15" s="690"/>
-      <c r="AP15" s="691"/>
-      <c r="AQ15" s="692"/>
-      <c r="AR15" s="693"/>
-      <c r="AS15" s="694"/>
-      <c r="AT15" s="695"/>
-      <c r="AU15" s="696"/>
-      <c r="AV15" s="697"/>
-      <c r="AW15" s="698"/>
+      <c r="M15" s="677"/>
+      <c r="N15" s="678"/>
+      <c r="O15" s="679"/>
+      <c r="P15" s="680"/>
+      <c r="Q15" s="681"/>
+      <c r="R15" s="682"/>
+      <c r="S15" s="683"/>
+      <c r="T15" s="684"/>
+      <c r="U15" s="685"/>
+      <c r="V15" s="686"/>
+      <c r="W15" s="687"/>
+      <c r="X15" s="688"/>
+      <c r="Y15" s="689"/>
+      <c r="Z15" s="690"/>
+      <c r="AA15" s="691"/>
+      <c r="AB15" s="692"/>
+      <c r="AC15" s="693"/>
+      <c r="AD15" s="694"/>
+      <c r="AE15" s="695"/>
+      <c r="AF15" s="696"/>
+      <c r="AG15" s="697"/>
+      <c r="AH15" s="698"/>
+      <c r="AI15" s="699"/>
+      <c r="AJ15" s="700"/>
+      <c r="AK15" s="701"/>
+      <c r="AL15" s="702"/>
+      <c r="AM15" s="703"/>
+      <c r="AN15" s="656"/>
+      <c r="AO15" s="704"/>
+      <c r="AP15" s="705"/>
+      <c r="AQ15" s="706"/>
+      <c r="AR15" s="707"/>
+      <c r="AS15" s="708"/>
+      <c r="AT15" s="709"/>
+      <c r="AU15" s="710"/>
+      <c r="AV15" s="711"/>
+      <c r="AW15" s="712"/>
+      <c r="AX15" s="713"/>
     </row>
-    <row r="16" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="699"/>
-      <c r="B16" s="700"/>
-      <c r="C16" s="701"/>
-      <c r="D16" s="702"/>
-      <c r="E16" s="703"/>
-      <c r="F16" s="704"/>
-      <c r="G16" s="705"/>
-      <c r="H16" s="706"/>
-      <c r="I16" s="707"/>
-      <c r="J16" s="708"/>
-      <c r="K16" s="709"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="710"/>
-      <c r="N16" s="711"/>
-      <c r="O16" s="712"/>
-      <c r="P16" s="713"/>
-      <c r="Q16" s="714"/>
-      <c r="R16" s="715"/>
-      <c r="S16" s="716"/>
-      <c r="T16" s="717"/>
-      <c r="U16" s="718"/>
-      <c r="V16" s="719"/>
-      <c r="W16" s="720"/>
-      <c r="X16" s="721"/>
-      <c r="Y16" s="722"/>
-      <c r="Z16" s="723"/>
-      <c r="AA16" s="724"/>
-      <c r="AB16" s="725"/>
-      <c r="AC16" s="726"/>
-      <c r="AD16" s="727"/>
-      <c r="AE16" s="587"/>
-      <c r="AF16" s="728"/>
-      <c r="AG16" s="590"/>
-      <c r="AH16" s="684"/>
-      <c r="AI16" s="729"/>
-      <c r="AJ16" s="730"/>
-      <c r="AK16" s="688"/>
-      <c r="AL16" s="731"/>
-      <c r="AM16" s="732"/>
-      <c r="AN16" s="733"/>
-      <c r="AO16" s="734"/>
-      <c r="AP16" s="735"/>
-      <c r="AQ16" s="736"/>
-      <c r="AR16" s="737"/>
-      <c r="AS16" s="738"/>
-      <c r="AT16" s="739"/>
-      <c r="AU16" s="740"/>
-      <c r="AV16" s="741"/>
-      <c r="AW16" s="742"/>
+    <row r="16" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="714"/>
+      <c r="B16" s="715"/>
+      <c r="C16" s="716"/>
+      <c r="D16" s="717"/>
+      <c r="E16" s="718"/>
+      <c r="F16" s="719"/>
+      <c r="G16" s="720"/>
+      <c r="H16" s="721"/>
+      <c r="I16" s="722"/>
+      <c r="J16" s="723"/>
+      <c r="K16" s="724"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="725"/>
+      <c r="N16" s="726"/>
+      <c r="O16" s="727"/>
+      <c r="P16" s="728"/>
+      <c r="Q16" s="729"/>
+      <c r="R16" s="730"/>
+      <c r="S16" s="731"/>
+      <c r="T16" s="732"/>
+      <c r="U16" s="733"/>
+      <c r="V16" s="734"/>
+      <c r="W16" s="735"/>
+      <c r="X16" s="736"/>
+      <c r="Y16" s="737"/>
+      <c r="Z16" s="738"/>
+      <c r="AA16" s="739"/>
+      <c r="AB16" s="740"/>
+      <c r="AC16" s="741"/>
+      <c r="AD16" s="742"/>
+      <c r="AE16" s="599"/>
+      <c r="AF16" s="743"/>
+      <c r="AG16" s="602"/>
+      <c r="AH16" s="698"/>
+      <c r="AI16" s="744"/>
+      <c r="AJ16" s="745"/>
+      <c r="AK16" s="702"/>
+      <c r="AL16" s="746"/>
+      <c r="AM16" s="747"/>
+      <c r="AN16" s="748"/>
+      <c r="AO16" s="749"/>
+      <c r="AP16" s="750"/>
+      <c r="AQ16" s="751"/>
+      <c r="AR16" s="752"/>
+      <c r="AS16" s="753"/>
+      <c r="AT16" s="754"/>
+      <c r="AU16" s="755"/>
+      <c r="AV16" s="756"/>
+      <c r="AW16" s="757"/>
+      <c r="AX16" s="758"/>
     </row>
-    <row r="17" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="743"/>
-      <c r="B17" s="744"/>
-      <c r="C17" s="745"/>
-      <c r="D17" s="746"/>
-      <c r="E17" s="747"/>
-      <c r="F17" s="748"/>
-      <c r="G17" s="749"/>
-      <c r="H17" s="750"/>
-      <c r="I17" s="751"/>
-      <c r="J17" s="752"/>
+    <row r="17" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="759"/>
+      <c r="B17" s="760"/>
+      <c r="C17" s="761"/>
+      <c r="D17" s="762"/>
+      <c r="E17" s="763"/>
+      <c r="F17" s="764"/>
+      <c r="G17" s="765"/>
+      <c r="H17" s="766"/>
+      <c r="I17" s="767"/>
+      <c r="J17" s="768"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="753"/>
-      <c r="M17" s="754"/>
-      <c r="N17" s="755"/>
-      <c r="O17" s="756"/>
-      <c r="P17" s="757"/>
-      <c r="Q17" s="758"/>
-      <c r="R17" s="759"/>
-      <c r="S17" s="760"/>
-      <c r="T17" s="761"/>
-      <c r="U17" s="762"/>
-      <c r="V17" s="763"/>
-      <c r="W17" s="764"/>
-      <c r="X17" s="765"/>
-      <c r="Y17" s="766"/>
-      <c r="Z17" s="767"/>
-      <c r="AA17" s="768"/>
-      <c r="AB17" s="769"/>
-      <c r="AC17" s="770"/>
-      <c r="AD17" s="771"/>
-      <c r="AE17" s="772"/>
-      <c r="AF17" s="773"/>
-      <c r="AG17" s="774"/>
-      <c r="AH17" s="775"/>
-      <c r="AI17" s="776"/>
-      <c r="AJ17" s="777"/>
-      <c r="AK17" s="778"/>
-      <c r="AL17" s="778"/>
-      <c r="AM17" s="779"/>
-      <c r="AN17" s="780"/>
-      <c r="AO17" s="781"/>
-      <c r="AP17" s="782"/>
-      <c r="AQ17" s="783"/>
-      <c r="AR17" s="784"/>
-      <c r="AS17" s="785"/>
-      <c r="AT17" s="786"/>
-      <c r="AU17" s="787"/>
-      <c r="AV17" s="788"/>
-      <c r="AW17" s="789"/>
+      <c r="L17" s="769"/>
+      <c r="M17" s="770"/>
+      <c r="N17" s="771"/>
+      <c r="O17" s="772"/>
+      <c r="P17" s="773"/>
+      <c r="Q17" s="774"/>
+      <c r="R17" s="775"/>
+      <c r="S17" s="776"/>
+      <c r="T17" s="777"/>
+      <c r="U17" s="778"/>
+      <c r="V17" s="779"/>
+      <c r="W17" s="780"/>
+      <c r="X17" s="781"/>
+      <c r="Y17" s="782"/>
+      <c r="Z17" s="783"/>
+      <c r="AA17" s="784"/>
+      <c r="AB17" s="785"/>
+      <c r="AC17" s="786"/>
+      <c r="AD17" s="787"/>
+      <c r="AE17" s="788"/>
+      <c r="AF17" s="789"/>
+      <c r="AG17" s="790"/>
+      <c r="AH17" s="791"/>
+      <c r="AI17" s="792"/>
+      <c r="AJ17" s="793"/>
+      <c r="AK17" s="794"/>
+      <c r="AL17" s="794"/>
+      <c r="AM17" s="795"/>
+      <c r="AN17" s="796"/>
+      <c r="AO17" s="797"/>
+      <c r="AP17" s="798"/>
+      <c r="AQ17" s="799"/>
+      <c r="AR17" s="800"/>
+      <c r="AS17" s="801"/>
+      <c r="AT17" s="802"/>
+      <c r="AU17" s="803"/>
+      <c r="AV17" s="804"/>
+      <c r="AW17" s="805"/>
+      <c r="AX17" s="806"/>
     </row>
-    <row r="18" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="790"/>
-      <c r="B18" s="791"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="564"/>
-      <c r="E18" s="792"/>
-      <c r="F18" s="793"/>
-      <c r="G18" s="794"/>
-      <c r="H18" s="795"/>
-      <c r="I18" s="796"/>
-      <c r="J18" s="797"/>
+    <row r="18" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="807"/>
+      <c r="B18" s="808"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="576"/>
+      <c r="E18" s="809"/>
+      <c r="F18" s="810"/>
+      <c r="G18" s="811"/>
+      <c r="H18" s="812"/>
+      <c r="I18" s="813"/>
+      <c r="J18" s="814"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="798"/>
-      <c r="M18" s="799"/>
-      <c r="N18" s="800"/>
-      <c r="O18" s="801"/>
-      <c r="P18" s="802"/>
-      <c r="Q18" s="803"/>
-      <c r="R18" s="804"/>
-      <c r="S18" s="805"/>
-      <c r="T18" s="806"/>
-      <c r="U18" s="807"/>
-      <c r="V18" s="808"/>
-      <c r="W18" s="809"/>
-      <c r="X18" s="810"/>
-      <c r="Y18" s="811"/>
-      <c r="Z18" s="812"/>
-      <c r="AA18" s="813"/>
-      <c r="AB18" s="814"/>
-      <c r="AC18" s="815"/>
-      <c r="AD18" s="816"/>
-      <c r="AE18" s="817"/>
-      <c r="AF18" s="818"/>
-      <c r="AG18" s="819"/>
-      <c r="AH18" s="820"/>
-      <c r="AI18" s="636"/>
-      <c r="AJ18" s="821"/>
-      <c r="AK18" s="822"/>
-      <c r="AL18" s="731"/>
-      <c r="AM18" s="640"/>
-      <c r="AN18" s="686"/>
-      <c r="AO18" s="823"/>
-      <c r="AP18" s="824"/>
-      <c r="AQ18" s="825"/>
-      <c r="AR18" s="826"/>
-      <c r="AS18" s="827"/>
-      <c r="AT18" s="828"/>
-      <c r="AU18" s="829"/>
-      <c r="AV18" s="830"/>
-      <c r="AW18" s="831"/>
+      <c r="L18" s="815"/>
+      <c r="M18" s="816"/>
+      <c r="N18" s="817"/>
+      <c r="O18" s="818"/>
+      <c r="P18" s="819"/>
+      <c r="Q18" s="820"/>
+      <c r="R18" s="821"/>
+      <c r="S18" s="822"/>
+      <c r="T18" s="823"/>
+      <c r="U18" s="824"/>
+      <c r="V18" s="825"/>
+      <c r="W18" s="826"/>
+      <c r="X18" s="827"/>
+      <c r="Y18" s="828"/>
+      <c r="Z18" s="829"/>
+      <c r="AA18" s="830"/>
+      <c r="AB18" s="831"/>
+      <c r="AC18" s="832"/>
+      <c r="AD18" s="833"/>
+      <c r="AE18" s="834"/>
+      <c r="AF18" s="835"/>
+      <c r="AG18" s="836"/>
+      <c r="AH18" s="837"/>
+      <c r="AI18" s="649"/>
+      <c r="AJ18" s="838"/>
+      <c r="AK18" s="839"/>
+      <c r="AL18" s="746"/>
+      <c r="AM18" s="653"/>
+      <c r="AN18" s="700"/>
+      <c r="AO18" s="840"/>
+      <c r="AP18" s="841"/>
+      <c r="AQ18" s="842"/>
+      <c r="AR18" s="843"/>
+      <c r="AS18" s="844"/>
+      <c r="AT18" s="845"/>
+      <c r="AU18" s="846"/>
+      <c r="AV18" s="847"/>
+      <c r="AW18" s="848"/>
+      <c r="AX18" s="849"/>
     </row>
-    <row r="19" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="832"/>
-      <c r="B19" s="833"/>
-      <c r="C19" s="834"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="835"/>
-      <c r="F19" s="836"/>
-      <c r="G19" s="837"/>
-      <c r="H19" s="838"/>
-      <c r="I19" s="839"/>
-      <c r="J19" s="840"/>
-      <c r="K19" s="229"/>
-      <c r="L19" s="841"/>
-      <c r="M19" s="842"/>
-      <c r="N19" s="843"/>
-      <c r="O19" s="844"/>
-      <c r="P19" s="845"/>
-      <c r="Q19" s="846"/>
-      <c r="R19" s="847"/>
-      <c r="S19" s="848"/>
-      <c r="T19" s="849"/>
-      <c r="U19" s="850"/>
-      <c r="V19" s="851"/>
-      <c r="W19" s="852"/>
-      <c r="X19" s="853"/>
-      <c r="Y19" s="854"/>
-      <c r="Z19" s="855"/>
-      <c r="AA19" s="856"/>
-      <c r="AB19" s="857"/>
-      <c r="AC19" s="858"/>
-      <c r="AD19" s="859"/>
-      <c r="AE19" s="860"/>
-      <c r="AF19" s="861"/>
-      <c r="AG19" s="493"/>
-      <c r="AH19" s="862"/>
-      <c r="AI19" s="863"/>
-      <c r="AJ19" s="864"/>
-      <c r="AK19" s="865"/>
-      <c r="AL19" s="866"/>
-      <c r="AM19" s="867"/>
-      <c r="AN19" s="868"/>
-      <c r="AO19" s="596"/>
-      <c r="AP19" s="869"/>
-      <c r="AQ19" s="870"/>
-      <c r="AR19" s="871"/>
-      <c r="AS19" s="872"/>
-      <c r="AT19" s="873"/>
-      <c r="AU19" s="874"/>
-      <c r="AV19" s="875"/>
-      <c r="AW19" s="876"/>
+    <row r="19" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="850"/>
+      <c r="B19" s="851"/>
+      <c r="C19" s="852"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="853"/>
+      <c r="F19" s="854"/>
+      <c r="G19" s="855"/>
+      <c r="H19" s="856"/>
+      <c r="I19" s="857"/>
+      <c r="J19" s="858"/>
+      <c r="K19" s="233"/>
+      <c r="L19" s="859"/>
+      <c r="M19" s="860"/>
+      <c r="N19" s="861"/>
+      <c r="O19" s="862"/>
+      <c r="P19" s="863"/>
+      <c r="Q19" s="864"/>
+      <c r="R19" s="865"/>
+      <c r="S19" s="866"/>
+      <c r="T19" s="867"/>
+      <c r="U19" s="868"/>
+      <c r="V19" s="869"/>
+      <c r="W19" s="870"/>
+      <c r="X19" s="871"/>
+      <c r="Y19" s="872"/>
+      <c r="Z19" s="873"/>
+      <c r="AA19" s="874"/>
+      <c r="AB19" s="875"/>
+      <c r="AC19" s="876"/>
+      <c r="AD19" s="877"/>
+      <c r="AE19" s="878"/>
+      <c r="AF19" s="879"/>
+      <c r="AG19" s="503"/>
+      <c r="AH19" s="880"/>
+      <c r="AI19" s="881"/>
+      <c r="AJ19" s="882"/>
+      <c r="AK19" s="883"/>
+      <c r="AL19" s="884"/>
+      <c r="AM19" s="885"/>
+      <c r="AN19" s="886"/>
+      <c r="AO19" s="608"/>
+      <c r="AP19" s="887"/>
+      <c r="AQ19" s="888"/>
+      <c r="AR19" s="889"/>
+      <c r="AS19" s="890"/>
+      <c r="AT19" s="891"/>
+      <c r="AU19" s="892"/>
+      <c r="AV19" s="893"/>
+      <c r="AW19" s="894"/>
+      <c r="AX19" s="895"/>
     </row>
-    <row r="20" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="744"/>
-      <c r="B20" s="84"/>
+    <row r="20" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="760"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="877"/>
-      <c r="E20" s="878"/>
-      <c r="F20" s="879"/>
-      <c r="G20" s="880"/>
-      <c r="H20" s="881"/>
-      <c r="I20" s="882"/>
-      <c r="J20" s="834"/>
-      <c r="K20" s="883"/>
-      <c r="L20" s="884"/>
-      <c r="M20" s="885"/>
-      <c r="N20" s="886"/>
-      <c r="O20" s="887"/>
-      <c r="P20" s="888"/>
-      <c r="Q20" s="889"/>
-      <c r="R20" s="890"/>
-      <c r="S20" s="891"/>
-      <c r="T20" s="892"/>
-      <c r="U20" s="893"/>
-      <c r="V20" s="894"/>
-      <c r="W20" s="895"/>
-      <c r="X20" s="896"/>
-      <c r="Y20" s="897"/>
-      <c r="Z20" s="898"/>
-      <c r="AA20" s="899"/>
-      <c r="AB20" s="900"/>
-      <c r="AC20" s="585"/>
-      <c r="AD20" s="901"/>
-      <c r="AE20" s="902"/>
-      <c r="AF20" s="903"/>
-      <c r="AG20" s="904"/>
-      <c r="AH20" s="905"/>
-      <c r="AI20" s="906"/>
-      <c r="AJ20" s="907"/>
-      <c r="AK20" s="908"/>
-      <c r="AL20" s="909"/>
-      <c r="AM20" s="910"/>
-      <c r="AN20" s="910"/>
-      <c r="AO20" s="911"/>
-      <c r="AP20" s="912"/>
-      <c r="AQ20" s="913"/>
-      <c r="AR20" s="914"/>
-      <c r="AS20" s="915"/>
-      <c r="AT20" s="916"/>
-      <c r="AU20" s="917"/>
-      <c r="AV20" s="918"/>
-      <c r="AW20" s="919"/>
+      <c r="D20" s="896"/>
+      <c r="E20" s="897"/>
+      <c r="F20" s="898"/>
+      <c r="G20" s="899"/>
+      <c r="H20" s="900"/>
+      <c r="I20" s="901"/>
+      <c r="J20" s="852"/>
+      <c r="K20" s="902"/>
+      <c r="L20" s="903"/>
+      <c r="M20" s="904"/>
+      <c r="N20" s="905"/>
+      <c r="O20" s="906"/>
+      <c r="P20" s="907"/>
+      <c r="Q20" s="908"/>
+      <c r="R20" s="909"/>
+      <c r="S20" s="910"/>
+      <c r="T20" s="911"/>
+      <c r="U20" s="912"/>
+      <c r="V20" s="913"/>
+      <c r="W20" s="914"/>
+      <c r="X20" s="915"/>
+      <c r="Y20" s="916"/>
+      <c r="Z20" s="917"/>
+      <c r="AA20" s="918"/>
+      <c r="AB20" s="919"/>
+      <c r="AC20" s="597"/>
+      <c r="AD20" s="920"/>
+      <c r="AE20" s="921"/>
+      <c r="AF20" s="922"/>
+      <c r="AG20" s="923"/>
+      <c r="AH20" s="924"/>
+      <c r="AI20" s="925"/>
+      <c r="AJ20" s="926"/>
+      <c r="AK20" s="927"/>
+      <c r="AL20" s="928"/>
+      <c r="AM20" s="929"/>
+      <c r="AN20" s="929"/>
+      <c r="AO20" s="930"/>
+      <c r="AP20" s="931"/>
+      <c r="AQ20" s="932"/>
+      <c r="AR20" s="933"/>
+      <c r="AS20" s="934"/>
+      <c r="AT20" s="935"/>
+      <c r="AU20" s="936"/>
+      <c r="AV20" s="937"/>
+      <c r="AW20" s="938"/>
+      <c r="AX20" s="939"/>
     </row>
-    <row r="21" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="920"/>
-      <c r="B21" s="229"/>
-      <c r="C21" s="921"/>
-      <c r="D21" s="922"/>
-      <c r="E21" s="923"/>
-      <c r="F21" s="924"/>
-      <c r="G21" s="925"/>
-      <c r="H21" s="792"/>
+    <row r="21" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="940"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="941"/>
+      <c r="D21" s="942"/>
+      <c r="E21" s="943"/>
+      <c r="F21" s="944"/>
+      <c r="G21" s="945"/>
+      <c r="H21" s="809"/>
       <c r="I21" s="39"/>
       <c r="J21" s="43"/>
-      <c r="K21" s="926"/>
-      <c r="L21" s="927"/>
-      <c r="M21" s="928"/>
-      <c r="N21" s="577"/>
-      <c r="O21" s="929"/>
-      <c r="P21" s="930"/>
-      <c r="Q21" s="931"/>
-      <c r="R21" s="932"/>
-      <c r="S21" s="933"/>
-      <c r="T21" s="934"/>
-      <c r="U21" s="935"/>
-      <c r="V21" s="936"/>
-      <c r="W21" s="937"/>
-      <c r="X21" s="938"/>
-      <c r="Y21" s="939"/>
-      <c r="Z21" s="940"/>
-      <c r="AA21" s="941"/>
-      <c r="AB21" s="942"/>
-      <c r="AC21" s="943"/>
-      <c r="AD21" s="944"/>
-      <c r="AE21" s="945"/>
-      <c r="AF21" s="946"/>
-      <c r="AG21" s="946"/>
-      <c r="AH21" s="947"/>
-      <c r="AI21" s="948"/>
-      <c r="AJ21" s="949"/>
-      <c r="AK21" s="950"/>
-      <c r="AL21" s="951"/>
-      <c r="AM21" s="952"/>
-      <c r="AN21" s="597"/>
-      <c r="AO21" s="953"/>
-      <c r="AP21" s="954"/>
-      <c r="AQ21" s="955"/>
-      <c r="AR21" s="956"/>
-      <c r="AS21" s="957"/>
-      <c r="AT21" s="958"/>
-      <c r="AU21" s="959"/>
-      <c r="AV21" s="960"/>
-      <c r="AW21" s="961"/>
+      <c r="K21" s="946"/>
+      <c r="L21" s="947"/>
+      <c r="M21" s="948"/>
+      <c r="N21" s="589"/>
+      <c r="O21" s="949"/>
+      <c r="P21" s="950"/>
+      <c r="Q21" s="951"/>
+      <c r="R21" s="952"/>
+      <c r="S21" s="953"/>
+      <c r="T21" s="954"/>
+      <c r="U21" s="955"/>
+      <c r="V21" s="956"/>
+      <c r="W21" s="957"/>
+      <c r="X21" s="958"/>
+      <c r="Y21" s="959"/>
+      <c r="Z21" s="960"/>
+      <c r="AA21" s="961"/>
+      <c r="AB21" s="962"/>
+      <c r="AC21" s="963"/>
+      <c r="AD21" s="964"/>
+      <c r="AE21" s="965"/>
+      <c r="AF21" s="966"/>
+      <c r="AG21" s="966"/>
+      <c r="AH21" s="967"/>
+      <c r="AI21" s="968"/>
+      <c r="AJ21" s="969"/>
+      <c r="AK21" s="970"/>
+      <c r="AL21" s="971"/>
+      <c r="AM21" s="972"/>
+      <c r="AN21" s="609"/>
+      <c r="AO21" s="973"/>
+      <c r="AP21" s="974"/>
+      <c r="AQ21" s="975"/>
+      <c r="AR21" s="976"/>
+      <c r="AS21" s="977"/>
+      <c r="AT21" s="978"/>
+      <c r="AU21" s="979"/>
+      <c r="AV21" s="980"/>
+      <c r="AW21" s="981"/>
+      <c r="AX21" s="982"/>
     </row>
-    <row r="22" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="962"/>
-      <c r="B22" s="702"/>
-      <c r="C22" s="963"/>
-      <c r="D22" s="964"/>
-      <c r="E22" s="965"/>
-      <c r="F22" s="966"/>
-      <c r="G22" s="967"/>
+    <row r="22" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="983"/>
+      <c r="B22" s="717"/>
+      <c r="C22" s="984"/>
+      <c r="D22" s="985"/>
+      <c r="E22" s="986"/>
+      <c r="F22" s="987"/>
+      <c r="G22" s="988"/>
       <c r="H22" s="26"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="968"/>
-      <c r="K22" s="969"/>
-      <c r="L22" s="970"/>
-      <c r="M22" s="971"/>
-      <c r="N22" s="972"/>
-      <c r="O22" s="973"/>
-      <c r="P22" s="974"/>
-      <c r="Q22" s="975"/>
-      <c r="R22" s="976"/>
-      <c r="S22" s="977"/>
-      <c r="T22" s="978"/>
-      <c r="U22" s="979"/>
-      <c r="V22" s="980"/>
-      <c r="W22" s="981"/>
-      <c r="X22" s="982"/>
-      <c r="Y22" s="983"/>
-      <c r="Z22" s="984"/>
-      <c r="AA22" s="985"/>
-      <c r="AB22" s="986"/>
-      <c r="AC22" s="987"/>
-      <c r="AD22" s="988"/>
-      <c r="AE22" s="989"/>
-      <c r="AF22" s="989"/>
-      <c r="AG22" s="990"/>
-      <c r="AH22" s="991"/>
-      <c r="AI22" s="992"/>
-      <c r="AJ22" s="993"/>
-      <c r="AK22" s="994"/>
-      <c r="AL22" s="995"/>
-      <c r="AM22" s="996"/>
-      <c r="AN22" s="997"/>
-      <c r="AO22" s="998"/>
-      <c r="AP22" s="999"/>
-      <c r="AQ22" s="1000"/>
-      <c r="AR22" s="1001"/>
-      <c r="AS22" s="1002"/>
-      <c r="AT22" s="254"/>
-      <c r="AU22" s="1003"/>
-      <c r="AV22" s="1004"/>
-      <c r="AW22" s="1005"/>
+      <c r="J22" s="989"/>
+      <c r="K22" s="990"/>
+      <c r="L22" s="991"/>
+      <c r="M22" s="992"/>
+      <c r="N22" s="993"/>
+      <c r="O22" s="994"/>
+      <c r="P22" s="995"/>
+      <c r="Q22" s="996"/>
+      <c r="R22" s="997"/>
+      <c r="S22" s="998"/>
+      <c r="T22" s="999"/>
+      <c r="U22" s="1000"/>
+      <c r="V22" s="1001"/>
+      <c r="W22" s="1002"/>
+      <c r="X22" s="1003"/>
+      <c r="Y22" s="1004"/>
+      <c r="Z22" s="1005"/>
+      <c r="AA22" s="1006"/>
+      <c r="AB22" s="1007"/>
+      <c r="AC22" s="1008"/>
+      <c r="AD22" s="1009"/>
+      <c r="AE22" s="1010"/>
+      <c r="AF22" s="1010"/>
+      <c r="AG22" s="1011"/>
+      <c r="AH22" s="1012"/>
+      <c r="AI22" s="1013"/>
+      <c r="AJ22" s="1014"/>
+      <c r="AK22" s="1015"/>
+      <c r="AL22" s="1016"/>
+      <c r="AM22" s="1017"/>
+      <c r="AN22" s="1018"/>
+      <c r="AO22" s="1019"/>
+      <c r="AP22" s="1020"/>
+      <c r="AQ22" s="1021"/>
+      <c r="AR22" s="1022"/>
+      <c r="AS22" s="1023"/>
+      <c r="AT22" s="259"/>
+      <c r="AU22" s="1024"/>
+      <c r="AV22" s="1025"/>
+      <c r="AW22" s="1026"/>
+      <c r="AX22" s="1027"/>
     </row>
-    <row r="23" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1006"/>
+    <row r="23" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1028"/>
       <c r="B23" s="42"/>
-      <c r="C23" s="1007"/>
-      <c r="D23" s="1008"/>
-      <c r="E23" s="1009"/>
-      <c r="F23" s="1010"/>
-      <c r="G23" s="1011"/>
-      <c r="H23" s="1012"/>
-      <c r="I23" s="1013"/>
-      <c r="J23" s="1014"/>
-      <c r="K23" s="1015"/>
-      <c r="L23" s="1016"/>
-      <c r="M23" s="1017"/>
-      <c r="N23" s="1018"/>
-      <c r="O23" s="1019"/>
-      <c r="P23" s="1020"/>
-      <c r="Q23" s="1021"/>
-      <c r="R23" s="1022"/>
-      <c r="S23" s="1023"/>
-      <c r="T23" s="1024"/>
-      <c r="U23" s="1025"/>
-      <c r="V23" s="1026"/>
-      <c r="W23" s="1027"/>
-      <c r="X23" s="1028"/>
-      <c r="Y23" s="1029"/>
-      <c r="Z23" s="1030"/>
-      <c r="AA23" s="1031"/>
-      <c r="AB23" s="1032"/>
-      <c r="AC23" s="1033"/>
-      <c r="AD23" s="1034"/>
-      <c r="AE23" s="1035"/>
-      <c r="AF23" s="1036"/>
-      <c r="AG23" s="1037"/>
-      <c r="AH23" s="947"/>
-      <c r="AI23" s="494"/>
-      <c r="AJ23" s="1038"/>
-      <c r="AK23" s="1039"/>
-      <c r="AL23" s="1040"/>
-      <c r="AM23" s="1041"/>
-      <c r="AN23" s="1042"/>
-      <c r="AO23" s="1043"/>
-      <c r="AP23" s="1044"/>
-      <c r="AQ23" s="1045"/>
-      <c r="AR23" s="1046"/>
-      <c r="AS23" s="1047"/>
-      <c r="AT23" s="1013"/>
-      <c r="AU23" s="1048"/>
-      <c r="AV23" s="1049"/>
-      <c r="AW23" s="1050"/>
+      <c r="C23" s="1029"/>
+      <c r="D23" s="1030"/>
+      <c r="E23" s="1031"/>
+      <c r="F23" s="1032"/>
+      <c r="G23" s="1033"/>
+      <c r="H23" s="1034"/>
+      <c r="I23" s="1035"/>
+      <c r="J23" s="1036"/>
+      <c r="K23" s="1037"/>
+      <c r="L23" s="1038"/>
+      <c r="M23" s="1039"/>
+      <c r="N23" s="1040"/>
+      <c r="O23" s="1041"/>
+      <c r="P23" s="1042"/>
+      <c r="Q23" s="1043"/>
+      <c r="R23" s="1044"/>
+      <c r="S23" s="1045"/>
+      <c r="T23" s="1046"/>
+      <c r="U23" s="1047"/>
+      <c r="V23" s="1048"/>
+      <c r="W23" s="1049"/>
+      <c r="X23" s="1050"/>
+      <c r="Y23" s="1051"/>
+      <c r="Z23" s="1052"/>
+      <c r="AA23" s="1053"/>
+      <c r="AB23" s="1054"/>
+      <c r="AC23" s="1055"/>
+      <c r="AD23" s="1056"/>
+      <c r="AE23" s="1057"/>
+      <c r="AF23" s="1058"/>
+      <c r="AG23" s="1059"/>
+      <c r="AH23" s="967"/>
+      <c r="AI23" s="504"/>
+      <c r="AJ23" s="1060"/>
+      <c r="AK23" s="1061"/>
+      <c r="AL23" s="1062"/>
+      <c r="AM23" s="1063"/>
+      <c r="AN23" s="1064"/>
+      <c r="AO23" s="1065"/>
+      <c r="AP23" s="1066"/>
+      <c r="AQ23" s="1067"/>
+      <c r="AR23" s="1068"/>
+      <c r="AS23" s="1069"/>
+      <c r="AT23" s="1035"/>
+      <c r="AU23" s="1070"/>
+      <c r="AV23" s="1071"/>
+      <c r="AW23" s="1072"/>
+      <c r="AX23" s="1073"/>
     </row>
-    <row r="24" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1051"/>
-      <c r="B24" s="1052"/>
-      <c r="C24" s="1053"/>
-      <c r="D24" s="1054"/>
-      <c r="E24" s="1055"/>
-      <c r="F24" s="1056"/>
-      <c r="G24" s="1057"/>
-      <c r="H24" s="341"/>
-      <c r="I24" s="1058"/>
-      <c r="J24" s="1059"/>
-      <c r="K24" s="1060"/>
-      <c r="L24" s="1061"/>
-      <c r="M24" s="1062"/>
-      <c r="N24" s="1063"/>
-      <c r="O24" s="1064"/>
-      <c r="P24" s="1020"/>
-      <c r="Q24" s="1065"/>
-      <c r="R24" s="1066"/>
-      <c r="S24" s="1067"/>
-      <c r="T24" s="1068"/>
-      <c r="U24" s="1069"/>
-      <c r="V24" s="1070"/>
-      <c r="W24" s="1071"/>
-      <c r="X24" s="1072"/>
-      <c r="Y24" s="1073"/>
-      <c r="Z24" s="1074"/>
-      <c r="AA24" s="1075"/>
-      <c r="AB24" s="1076"/>
-      <c r="AC24" s="1077"/>
-      <c r="AD24" s="1078"/>
-      <c r="AE24" s="1079"/>
-      <c r="AF24" s="1080"/>
-      <c r="AG24" s="492"/>
-      <c r="AH24" s="989"/>
-      <c r="AI24" s="494"/>
-      <c r="AJ24" s="1081"/>
-      <c r="AK24" s="1082"/>
-      <c r="AL24" s="1083"/>
-      <c r="AM24" s="952"/>
-      <c r="AN24" s="1084"/>
-      <c r="AO24" s="1085"/>
-      <c r="AP24" s="1086"/>
-      <c r="AQ24" s="1087"/>
-      <c r="AR24" s="1088"/>
-      <c r="AS24" s="1089"/>
-      <c r="AT24" s="874"/>
-      <c r="AU24" s="1090"/>
-      <c r="AV24" s="1091"/>
-      <c r="AW24" s="1092"/>
+    <row r="24" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1074"/>
+      <c r="B24" s="1075"/>
+      <c r="C24" s="1076"/>
+      <c r="D24" s="1077"/>
+      <c r="E24" s="1078"/>
+      <c r="F24" s="1079"/>
+      <c r="G24" s="1080"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="1081"/>
+      <c r="J24" s="1082"/>
+      <c r="K24" s="1083"/>
+      <c r="L24" s="1084"/>
+      <c r="M24" s="1085"/>
+      <c r="N24" s="1086"/>
+      <c r="O24" s="1087"/>
+      <c r="P24" s="1042"/>
+      <c r="Q24" s="1088"/>
+      <c r="R24" s="1089"/>
+      <c r="S24" s="1090"/>
+      <c r="T24" s="1091"/>
+      <c r="U24" s="1092"/>
+      <c r="V24" s="1093"/>
+      <c r="W24" s="1094"/>
+      <c r="X24" s="1095"/>
+      <c r="Y24" s="1096"/>
+      <c r="Z24" s="1097"/>
+      <c r="AA24" s="1098"/>
+      <c r="AB24" s="1099"/>
+      <c r="AC24" s="1100"/>
+      <c r="AD24" s="1101"/>
+      <c r="AE24" s="1102"/>
+      <c r="AF24" s="1103"/>
+      <c r="AG24" s="502"/>
+      <c r="AH24" s="1010"/>
+      <c r="AI24" s="504"/>
+      <c r="AJ24" s="1104"/>
+      <c r="AK24" s="1105"/>
+      <c r="AL24" s="1106"/>
+      <c r="AM24" s="972"/>
+      <c r="AN24" s="1107"/>
+      <c r="AO24" s="1108"/>
+      <c r="AP24" s="1109"/>
+      <c r="AQ24" s="1110"/>
+      <c r="AR24" s="1111"/>
+      <c r="AS24" s="1112"/>
+      <c r="AT24" s="892"/>
+      <c r="AU24" s="1113"/>
+      <c r="AV24" s="1114"/>
+      <c r="AW24" s="1115"/>
+      <c r="AX24" s="1116"/>
     </row>
-    <row r="25" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1093"/>
-      <c r="B25" s="1094"/>
-      <c r="C25" s="1095"/>
-      <c r="D25" s="708"/>
-      <c r="E25" s="1096"/>
-      <c r="F25" s="1097"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="1098"/>
-      <c r="I25" s="1099"/>
-      <c r="J25" s="1100"/>
-      <c r="K25" s="1101"/>
-      <c r="L25" s="1102"/>
-      <c r="M25" s="1103"/>
-      <c r="N25" s="1104"/>
-      <c r="O25" s="1105"/>
-      <c r="P25" s="1106"/>
-      <c r="Q25" s="1107"/>
-      <c r="R25" s="1108"/>
-      <c r="S25" s="1109"/>
-      <c r="T25" s="1110"/>
-      <c r="U25" s="1111"/>
-      <c r="V25" s="1112"/>
-      <c r="W25" s="262"/>
-      <c r="X25" s="1113"/>
-      <c r="Y25" s="1114"/>
-      <c r="Z25" s="1115"/>
-      <c r="AA25" s="1116"/>
-      <c r="AB25" s="1117"/>
-      <c r="AC25" s="1118"/>
-      <c r="AD25" s="1119"/>
-      <c r="AE25" s="1120"/>
-      <c r="AF25" s="588"/>
-      <c r="AG25" s="1121"/>
-      <c r="AH25" s="1122"/>
-      <c r="AI25" s="587"/>
-      <c r="AJ25" s="1123"/>
-      <c r="AK25" s="1124"/>
-      <c r="AL25" s="1125"/>
-      <c r="AM25" s="1126"/>
-      <c r="AN25" s="1127"/>
-      <c r="AO25" s="1128"/>
-      <c r="AP25" s="1129"/>
-      <c r="AQ25" s="1130"/>
-      <c r="AR25" s="1131"/>
-      <c r="AS25" s="958"/>
-      <c r="AT25" s="1132"/>
-      <c r="AU25" s="1133"/>
-      <c r="AV25" s="1134"/>
-      <c r="AW25" s="1135"/>
+    <row r="25" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1117"/>
+      <c r="B25" s="1118"/>
+      <c r="C25" s="1119"/>
+      <c r="D25" s="723"/>
+      <c r="E25" s="1120"/>
+      <c r="F25" s="1121"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="1122"/>
+      <c r="I25" s="1123"/>
+      <c r="J25" s="1124"/>
+      <c r="K25" s="1125"/>
+      <c r="L25" s="1126"/>
+      <c r="M25" s="1127"/>
+      <c r="N25" s="1128"/>
+      <c r="O25" s="1129"/>
+      <c r="P25" s="1130"/>
+      <c r="Q25" s="1131"/>
+      <c r="R25" s="1132"/>
+      <c r="S25" s="1133"/>
+      <c r="T25" s="1134"/>
+      <c r="U25" s="1135"/>
+      <c r="V25" s="1136"/>
+      <c r="W25" s="267"/>
+      <c r="X25" s="1137"/>
+      <c r="Y25" s="1138"/>
+      <c r="Z25" s="1139"/>
+      <c r="AA25" s="1140"/>
+      <c r="AB25" s="1141"/>
+      <c r="AC25" s="1142"/>
+      <c r="AD25" s="1143"/>
+      <c r="AE25" s="1144"/>
+      <c r="AF25" s="600"/>
+      <c r="AG25" s="1145"/>
+      <c r="AH25" s="1146"/>
+      <c r="AI25" s="599"/>
+      <c r="AJ25" s="1147"/>
+      <c r="AK25" s="1148"/>
+      <c r="AL25" s="1149"/>
+      <c r="AM25" s="1150"/>
+      <c r="AN25" s="1151"/>
+      <c r="AO25" s="1152"/>
+      <c r="AP25" s="1153"/>
+      <c r="AQ25" s="1154"/>
+      <c r="AR25" s="1155"/>
+      <c r="AS25" s="978"/>
+      <c r="AT25" s="1156"/>
+      <c r="AU25" s="1157"/>
+      <c r="AV25" s="1158"/>
+      <c r="AW25" s="1159"/>
+      <c r="AX25" s="1160"/>
     </row>
-    <row r="26" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1136"/>
-      <c r="B26" s="1137"/>
-      <c r="C26" s="1138"/>
-      <c r="D26" s="1139"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="958"/>
-      <c r="G26" s="1140"/>
-      <c r="H26" s="1141"/>
-      <c r="I26" s="1142"/>
-      <c r="J26" s="1143"/>
-      <c r="K26" s="1144"/>
-      <c r="L26" s="1145"/>
-      <c r="M26" s="1146"/>
-      <c r="N26" s="1147"/>
-      <c r="O26" s="1148"/>
-      <c r="P26" s="1149"/>
-      <c r="Q26" s="1150"/>
-      <c r="R26" s="1151"/>
-      <c r="S26" s="1152"/>
-      <c r="T26" s="1153"/>
-      <c r="U26" s="1154"/>
-      <c r="V26" s="1155"/>
-      <c r="W26" s="1156"/>
-      <c r="X26" s="1157"/>
-      <c r="Y26" s="1158"/>
-      <c r="Z26" s="1159"/>
-      <c r="AA26" s="1160"/>
-      <c r="AB26" s="1161"/>
-      <c r="AC26" s="1162"/>
-      <c r="AD26" s="1163"/>
-      <c r="AE26" s="1164"/>
-      <c r="AF26" s="1034"/>
-      <c r="AG26" s="1165"/>
-      <c r="AH26" s="1166"/>
-      <c r="AI26" s="492"/>
-      <c r="AJ26" s="1167"/>
-      <c r="AK26" s="1168"/>
-      <c r="AL26" s="948"/>
-      <c r="AM26" s="1169"/>
-      <c r="AN26" s="1170"/>
-      <c r="AO26" s="1171"/>
-      <c r="AP26" s="1172"/>
-      <c r="AQ26" s="1173"/>
-      <c r="AR26" s="253"/>
-      <c r="AS26" s="1174"/>
-      <c r="AT26" s="873"/>
-      <c r="AU26" s="1175"/>
-      <c r="AV26" s="1176"/>
-      <c r="AW26" s="1177"/>
+    <row r="26" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1161"/>
+      <c r="B26" s="1162"/>
+      <c r="C26" s="1163"/>
+      <c r="D26" s="1164"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="978"/>
+      <c r="G26" s="1165"/>
+      <c r="H26" s="1166"/>
+      <c r="I26" s="1167"/>
+      <c r="J26" s="1168"/>
+      <c r="K26" s="1169"/>
+      <c r="L26" s="1170"/>
+      <c r="M26" s="1171"/>
+      <c r="N26" s="1172"/>
+      <c r="O26" s="1173"/>
+      <c r="P26" s="1174"/>
+      <c r="Q26" s="1175"/>
+      <c r="R26" s="1176"/>
+      <c r="S26" s="1177"/>
+      <c r="T26" s="1178"/>
+      <c r="U26" s="1179"/>
+      <c r="V26" s="1180"/>
+      <c r="W26" s="1181"/>
+      <c r="X26" s="1182"/>
+      <c r="Y26" s="1183"/>
+      <c r="Z26" s="1184"/>
+      <c r="AA26" s="1185"/>
+      <c r="AB26" s="1186"/>
+      <c r="AC26" s="1187"/>
+      <c r="AD26" s="1188"/>
+      <c r="AE26" s="1189"/>
+      <c r="AF26" s="1056"/>
+      <c r="AG26" s="1190"/>
+      <c r="AH26" s="1191"/>
+      <c r="AI26" s="502"/>
+      <c r="AJ26" s="1192"/>
+      <c r="AK26" s="1193"/>
+      <c r="AL26" s="968"/>
+      <c r="AM26" s="1194"/>
+      <c r="AN26" s="1195"/>
+      <c r="AO26" s="1196"/>
+      <c r="AP26" s="1197"/>
+      <c r="AQ26" s="1198"/>
+      <c r="AR26" s="258"/>
+      <c r="AS26" s="1199"/>
+      <c r="AT26" s="891"/>
+      <c r="AU26" s="1200"/>
+      <c r="AV26" s="1201"/>
+      <c r="AW26" s="1202"/>
+      <c r="AX26" s="1203"/>
     </row>
-    <row r="27" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1178"/>
-      <c r="B27" s="1179"/>
-      <c r="C27" s="1180"/>
-      <c r="D27" s="1181"/>
-      <c r="E27" s="1182"/>
-      <c r="F27" s="1183"/>
-      <c r="G27" s="1184"/>
-      <c r="H27" s="1185"/>
-      <c r="I27" s="1186"/>
-      <c r="J27" s="1187"/>
-      <c r="K27" s="1019"/>
-      <c r="L27" s="1188"/>
-      <c r="M27" s="1189"/>
-      <c r="N27" s="1190"/>
-      <c r="O27" s="1191"/>
-      <c r="P27" s="1192"/>
-      <c r="Q27" s="1193"/>
-      <c r="R27" s="1194"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="1195"/>
+    <row r="27" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1204"/>
+      <c r="B27" s="1205"/>
+      <c r="C27" s="1206"/>
+      <c r="D27" s="1207"/>
+      <c r="E27" s="1208"/>
+      <c r="F27" s="1209"/>
+      <c r="G27" s="1210"/>
+      <c r="H27" s="1211"/>
+      <c r="I27" s="1212"/>
+      <c r="J27" s="1213"/>
+      <c r="K27" s="1041"/>
+      <c r="L27" s="1214"/>
+      <c r="M27" s="1215"/>
+      <c r="N27" s="1216"/>
+      <c r="O27" s="1217"/>
+      <c r="P27" s="1218"/>
+      <c r="Q27" s="1219"/>
+      <c r="R27" s="1220"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="1221"/>
       <c r="U27" s="34"/>
       <c r="V27" s="34"/>
-      <c r="W27" s="1196"/>
-      <c r="X27" s="1197"/>
-      <c r="Y27" s="1198"/>
-      <c r="Z27" s="1199"/>
-      <c r="AA27" s="1200"/>
-      <c r="AB27" s="1201"/>
-      <c r="AC27" s="1202"/>
-      <c r="AD27" s="1203"/>
-      <c r="AE27" s="1204"/>
-      <c r="AF27" s="943"/>
-      <c r="AG27" s="1205"/>
-      <c r="AH27" s="1206"/>
-      <c r="AI27" s="1207"/>
-      <c r="AJ27" s="1208"/>
-      <c r="AK27" s="1209"/>
-      <c r="AL27" s="1210"/>
-      <c r="AM27" s="1211"/>
-      <c r="AN27" s="1212"/>
-      <c r="AO27" s="1213"/>
-      <c r="AP27" s="1214"/>
-      <c r="AQ27" s="1215"/>
+      <c r="W27" s="1222"/>
+      <c r="X27" s="1223"/>
+      <c r="Y27" s="1224"/>
+      <c r="Z27" s="1225"/>
+      <c r="AA27" s="1226"/>
+      <c r="AB27" s="1227"/>
+      <c r="AC27" s="1228"/>
+      <c r="AD27" s="1229"/>
+      <c r="AE27" s="1230"/>
+      <c r="AF27" s="963"/>
+      <c r="AG27" s="1231"/>
+      <c r="AH27" s="1232"/>
+      <c r="AI27" s="1233"/>
+      <c r="AJ27" s="1234"/>
+      <c r="AK27" s="1235"/>
+      <c r="AL27" s="1236"/>
+      <c r="AM27" s="1237"/>
+      <c r="AN27" s="1238"/>
+      <c r="AO27" s="1239"/>
+      <c r="AP27" s="1240"/>
+      <c r="AQ27" s="1241"/>
       <c r="AR27" s="34"/>
-      <c r="AS27" s="1216"/>
-      <c r="AT27" s="1217"/>
-      <c r="AU27" s="1218"/>
-      <c r="AV27" s="1219"/>
-      <c r="AW27" s="1220"/>
+      <c r="AS27" s="1242"/>
+      <c r="AT27" s="1243"/>
+      <c r="AU27" s="1244"/>
+      <c r="AV27" s="1245"/>
+      <c r="AW27" s="1246"/>
+      <c r="AX27" s="1247"/>
     </row>
-    <row r="28" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1221"/>
-      <c r="B28" s="1222"/>
-      <c r="C28" s="1223"/>
-      <c r="D28" s="1224"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="1225"/>
-      <c r="G28" s="1226"/>
-      <c r="H28" s="1227"/>
-      <c r="I28" s="1228"/>
-      <c r="J28" s="1229"/>
-      <c r="K28" s="1230"/>
-      <c r="L28" s="1231"/>
-      <c r="M28" s="1232"/>
-      <c r="N28" s="1233"/>
-      <c r="O28" s="1234"/>
-      <c r="P28" s="1235"/>
-      <c r="Q28" s="1236"/>
-      <c r="R28" s="1237"/>
-      <c r="S28" s="1238"/>
-      <c r="T28" s="1239"/>
-      <c r="U28" s="1240"/>
-      <c r="V28" s="1241"/>
-      <c r="W28" s="1242"/>
-      <c r="X28" s="1243"/>
-      <c r="Y28" s="1244"/>
-      <c r="Z28" s="1245"/>
-      <c r="AA28" s="1246"/>
-      <c r="AB28" s="1247"/>
-      <c r="AC28" s="1248"/>
-      <c r="AD28" s="1249"/>
-      <c r="AE28" s="1074"/>
-      <c r="AF28" s="1250"/>
-      <c r="AG28" s="1251"/>
-      <c r="AH28" s="1252"/>
-      <c r="AI28" s="1253"/>
-      <c r="AJ28" s="1254"/>
-      <c r="AK28" s="1255"/>
-      <c r="AL28" s="1256"/>
-      <c r="AM28" s="1257"/>
-      <c r="AN28" s="1258"/>
-      <c r="AO28" s="1259"/>
-      <c r="AP28" s="1260"/>
-      <c r="AQ28" s="1261"/>
+    <row r="28" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1248"/>
+      <c r="B28" s="1249"/>
+      <c r="C28" s="1250"/>
+      <c r="D28" s="1251"/>
+      <c r="E28" s="259"/>
+      <c r="F28" s="1252"/>
+      <c r="G28" s="1253"/>
+      <c r="H28" s="1254"/>
+      <c r="I28" s="1255"/>
+      <c r="J28" s="1256"/>
+      <c r="K28" s="1257"/>
+      <c r="L28" s="1258"/>
+      <c r="M28" s="1259"/>
+      <c r="N28" s="1260"/>
+      <c r="O28" s="1261"/>
+      <c r="P28" s="1262"/>
+      <c r="Q28" s="1263"/>
+      <c r="R28" s="1264"/>
+      <c r="S28" s="1265"/>
+      <c r="T28" s="1266"/>
+      <c r="U28" s="1267"/>
+      <c r="V28" s="1268"/>
+      <c r="W28" s="1269"/>
+      <c r="X28" s="1270"/>
+      <c r="Y28" s="1271"/>
+      <c r="Z28" s="1272"/>
+      <c r="AA28" s="1273"/>
+      <c r="AB28" s="1274"/>
+      <c r="AC28" s="1275"/>
+      <c r="AD28" s="1276"/>
+      <c r="AE28" s="1097"/>
+      <c r="AF28" s="1277"/>
+      <c r="AG28" s="1278"/>
+      <c r="AH28" s="1279"/>
+      <c r="AI28" s="1280"/>
+      <c r="AJ28" s="1281"/>
+      <c r="AK28" s="1282"/>
+      <c r="AL28" s="1283"/>
+      <c r="AM28" s="1284"/>
+      <c r="AN28" s="1285"/>
+      <c r="AO28" s="1286"/>
+      <c r="AP28" s="1287"/>
+      <c r="AQ28" s="1288"/>
       <c r="AR28" s="34"/>
-      <c r="AS28" s="1262"/>
-      <c r="AT28" s="1263"/>
-      <c r="AU28" s="1264"/>
-      <c r="AV28" s="1265"/>
-      <c r="AW28" s="1266"/>
+      <c r="AS28" s="1289"/>
+      <c r="AT28" s="1290"/>
+      <c r="AU28" s="1291"/>
+      <c r="AV28" s="1292"/>
+      <c r="AW28" s="1293"/>
+      <c r="AX28" s="1294"/>
     </row>
-    <row r="29" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1267"/>
-      <c r="B29" s="564"/>
-      <c r="C29" s="1268"/>
-      <c r="D29" s="1269"/>
-      <c r="E29" s="1270"/>
-      <c r="F29" s="1271"/>
-      <c r="G29" s="1272"/>
-      <c r="H29" s="1273"/>
-      <c r="I29" s="1274"/>
-      <c r="J29" s="1275"/>
-      <c r="K29" s="1276"/>
-      <c r="L29" s="1096"/>
-      <c r="M29" s="1277"/>
-      <c r="N29" s="1278"/>
-      <c r="O29" s="1279"/>
-      <c r="P29" s="1280"/>
-      <c r="Q29" s="1281"/>
-      <c r="R29" s="1282"/>
-      <c r="S29" s="1283"/>
-      <c r="T29" s="1284"/>
-      <c r="U29" s="1285"/>
-      <c r="V29" s="1286"/>
-      <c r="W29" s="1287"/>
-      <c r="X29" s="1288"/>
-      <c r="Y29" s="1289"/>
-      <c r="Z29" s="1290"/>
-      <c r="AA29" s="1291"/>
-      <c r="AB29" s="1292"/>
-      <c r="AC29" s="1293"/>
-      <c r="AD29" s="1294"/>
-      <c r="AE29" s="1295"/>
-      <c r="AF29" s="1296"/>
-      <c r="AG29" s="1297"/>
-      <c r="AH29" s="1298"/>
-      <c r="AI29" s="1299"/>
-      <c r="AJ29" s="1300"/>
-      <c r="AK29" s="1301"/>
-      <c r="AL29" s="1302"/>
-      <c r="AM29" s="1303"/>
-      <c r="AN29" s="1304"/>
-      <c r="AO29" s="1305"/>
-      <c r="AP29" s="1306"/>
-      <c r="AQ29" s="1307"/>
-      <c r="AR29" s="252"/>
-      <c r="AS29" s="1308"/>
-      <c r="AT29" s="1309"/>
-      <c r="AU29" s="1310"/>
-      <c r="AV29" s="1311"/>
-      <c r="AW29" s="1312"/>
+    <row r="29" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1295"/>
+      <c r="B29" s="576"/>
+      <c r="C29" s="1296"/>
+      <c r="D29" s="1297"/>
+      <c r="E29" s="1298"/>
+      <c r="F29" s="1299"/>
+      <c r="G29" s="1300"/>
+      <c r="H29" s="1301"/>
+      <c r="I29" s="1302"/>
+      <c r="J29" s="1303"/>
+      <c r="K29" s="1304"/>
+      <c r="L29" s="1120"/>
+      <c r="M29" s="1305"/>
+      <c r="N29" s="1306"/>
+      <c r="O29" s="1307"/>
+      <c r="P29" s="1308"/>
+      <c r="Q29" s="1309"/>
+      <c r="R29" s="1310"/>
+      <c r="S29" s="1311"/>
+      <c r="T29" s="1312"/>
+      <c r="U29" s="1313"/>
+      <c r="V29" s="1314"/>
+      <c r="W29" s="1315"/>
+      <c r="X29" s="1316"/>
+      <c r="Y29" s="1317"/>
+      <c r="Z29" s="1318"/>
+      <c r="AA29" s="1319"/>
+      <c r="AB29" s="1320"/>
+      <c r="AC29" s="1321"/>
+      <c r="AD29" s="1322"/>
+      <c r="AE29" s="1323"/>
+      <c r="AF29" s="1324"/>
+      <c r="AG29" s="1325"/>
+      <c r="AH29" s="1326"/>
+      <c r="AI29" s="1327"/>
+      <c r="AJ29" s="1328"/>
+      <c r="AK29" s="1329"/>
+      <c r="AL29" s="1330"/>
+      <c r="AM29" s="1331"/>
+      <c r="AN29" s="1332"/>
+      <c r="AO29" s="1333"/>
+      <c r="AP29" s="1334"/>
+      <c r="AQ29" s="1335"/>
+      <c r="AR29" s="257"/>
+      <c r="AS29" s="1336"/>
+      <c r="AT29" s="1337"/>
+      <c r="AU29" s="1338"/>
+      <c r="AV29" s="1339"/>
+      <c r="AW29" s="1340"/>
+      <c r="AX29" s="1341"/>
     </row>
-    <row r="30" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1313"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="1314"/>
-      <c r="D30" s="1315"/>
-      <c r="E30" s="1316"/>
-      <c r="F30" s="1317"/>
-      <c r="G30" s="1318"/>
-      <c r="H30" s="1319"/>
-      <c r="I30" s="1320"/>
-      <c r="J30" s="1321"/>
-      <c r="K30" s="746"/>
-      <c r="L30" s="1322"/>
-      <c r="M30" s="1323"/>
-      <c r="N30" s="1324"/>
-      <c r="O30" s="1325"/>
-      <c r="P30" s="1326"/>
-      <c r="Q30" s="1327"/>
-      <c r="R30" s="1328"/>
-      <c r="S30" s="1329"/>
-      <c r="T30" s="1330"/>
-      <c r="U30" s="1331"/>
-      <c r="V30" s="1332"/>
-      <c r="W30" s="1333"/>
-      <c r="X30" s="1334"/>
-      <c r="Y30" s="1335"/>
-      <c r="Z30" s="1336"/>
-      <c r="AA30" s="1337"/>
-      <c r="AB30" s="1338"/>
-      <c r="AC30" s="1339"/>
-      <c r="AD30" s="1340"/>
-      <c r="AE30" s="1341"/>
-      <c r="AF30" s="1342"/>
-      <c r="AG30" s="1343"/>
-      <c r="AH30" s="1344"/>
-      <c r="AI30" s="1345"/>
+    <row r="30" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1342"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="1343"/>
+      <c r="D30" s="1344"/>
+      <c r="E30" s="1345"/>
+      <c r="F30" s="1346"/>
+      <c r="G30" s="1347"/>
+      <c r="H30" s="1348"/>
+      <c r="I30" s="1349"/>
+      <c r="J30" s="1350"/>
+      <c r="K30" s="762"/>
+      <c r="L30" s="1351"/>
+      <c r="M30" s="1352"/>
+      <c r="N30" s="1353"/>
+      <c r="O30" s="1354"/>
+      <c r="P30" s="1355"/>
+      <c r="Q30" s="1356"/>
+      <c r="R30" s="1357"/>
+      <c r="S30" s="1358"/>
+      <c r="T30" s="1359"/>
+      <c r="U30" s="1360"/>
+      <c r="V30" s="1361"/>
+      <c r="W30" s="1362"/>
+      <c r="X30" s="1363"/>
+      <c r="Y30" s="1364"/>
+      <c r="Z30" s="1365"/>
+      <c r="AA30" s="1366"/>
+      <c r="AB30" s="1367"/>
+      <c r="AC30" s="1368"/>
+      <c r="AD30" s="1369"/>
+      <c r="AE30" s="1370"/>
+      <c r="AF30" s="1371"/>
+      <c r="AG30" s="1372"/>
+      <c r="AH30" s="1373"/>
+      <c r="AI30" s="1374"/>
       <c r="AJ30" s="34"/>
-      <c r="AK30" s="1346"/>
-      <c r="AL30" s="1347"/>
-      <c r="AM30" s="1348"/>
-      <c r="AN30" s="1349"/>
-      <c r="AO30" s="1350"/>
-      <c r="AP30" s="1351"/>
-      <c r="AQ30" s="1352"/>
-      <c r="AR30" s="1353"/>
-      <c r="AS30" s="88"/>
-      <c r="AT30" s="1354"/>
-      <c r="AU30" s="1355"/>
-      <c r="AV30" s="1356"/>
-      <c r="AW30" s="1357"/>
+      <c r="AK30" s="1375"/>
+      <c r="AL30" s="1376"/>
+      <c r="AM30" s="1377"/>
+      <c r="AN30" s="1378"/>
+      <c r="AO30" s="1379"/>
+      <c r="AP30" s="1380"/>
+      <c r="AQ30" s="1381"/>
+      <c r="AR30" s="1382"/>
+      <c r="AS30" s="89"/>
+      <c r="AT30" s="1383"/>
+      <c r="AU30" s="1384"/>
+      <c r="AV30" s="1385"/>
+      <c r="AW30" s="1386"/>
+      <c r="AX30" s="1387"/>
     </row>
-    <row r="31" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1358"/>
-      <c r="B31" s="382"/>
-      <c r="C31" s="1359"/>
-      <c r="D31" s="1360"/>
-      <c r="E31" s="1361"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="1362"/>
-      <c r="H31" s="1363"/>
-      <c r="I31" s="608"/>
-      <c r="J31" s="1364"/>
+    <row r="31" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1388"/>
+      <c r="B31" s="390"/>
+      <c r="C31" s="1389"/>
+      <c r="D31" s="1390"/>
+      <c r="E31" s="1391"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="1392"/>
+      <c r="H31" s="1393"/>
+      <c r="I31" s="621"/>
+      <c r="J31" s="1394"/>
       <c r="K31" s="20"/>
-      <c r="L31" s="1365"/>
-      <c r="M31" s="1366"/>
-      <c r="N31" s="1367"/>
-      <c r="O31" s="1368"/>
-      <c r="P31" s="1369"/>
-      <c r="Q31" s="1370"/>
-      <c r="R31" s="1371"/>
-      <c r="S31" s="1372"/>
-      <c r="T31" s="1373"/>
-      <c r="U31" s="1374"/>
-      <c r="V31" s="1375"/>
-      <c r="W31" s="1376"/>
-      <c r="X31" s="1377"/>
-      <c r="Y31" s="1378"/>
-      <c r="Z31" s="1379"/>
-      <c r="AA31" s="1380"/>
-      <c r="AB31" s="1381"/>
-      <c r="AC31" s="1382"/>
-      <c r="AD31" s="1383"/>
-      <c r="AE31" s="1384"/>
-      <c r="AF31" s="1385"/>
-      <c r="AG31" s="1386"/>
-      <c r="AH31" s="1387"/>
-      <c r="AI31" s="1388"/>
-      <c r="AJ31" s="1389"/>
-      <c r="AK31" s="1390"/>
-      <c r="AL31" s="1391"/>
-      <c r="AM31" s="1392"/>
-      <c r="AN31" s="1393"/>
-      <c r="AO31" s="1394"/>
-      <c r="AP31" s="1395"/>
-      <c r="AQ31" s="1396"/>
-      <c r="AR31" s="1397"/>
-      <c r="AS31" s="336"/>
-      <c r="AT31" s="1398"/>
-      <c r="AU31" s="1399"/>
-      <c r="AV31" s="1400"/>
-      <c r="AW31" s="1401"/>
+      <c r="L31" s="1395"/>
+      <c r="M31" s="1396"/>
+      <c r="N31" s="1397"/>
+      <c r="O31" s="1398"/>
+      <c r="P31" s="1399"/>
+      <c r="Q31" s="1400"/>
+      <c r="R31" s="1401"/>
+      <c r="S31" s="1402"/>
+      <c r="T31" s="1403"/>
+      <c r="U31" s="1404"/>
+      <c r="V31" s="1405"/>
+      <c r="W31" s="1406"/>
+      <c r="X31" s="1407"/>
+      <c r="Y31" s="1408"/>
+      <c r="Z31" s="1409"/>
+      <c r="AA31" s="1410"/>
+      <c r="AB31" s="1411"/>
+      <c r="AC31" s="1412"/>
+      <c r="AD31" s="1413"/>
+      <c r="AE31" s="1414"/>
+      <c r="AF31" s="1415"/>
+      <c r="AG31" s="1416"/>
+      <c r="AH31" s="1417"/>
+      <c r="AI31" s="1418"/>
+      <c r="AJ31" s="1419"/>
+      <c r="AK31" s="1420"/>
+      <c r="AL31" s="1421"/>
+      <c r="AM31" s="1422"/>
+      <c r="AN31" s="1423"/>
+      <c r="AO31" s="1424"/>
+      <c r="AP31" s="1425"/>
+      <c r="AQ31" s="1426"/>
+      <c r="AR31" s="1427"/>
+      <c r="AS31" s="343"/>
+      <c r="AT31" s="1428"/>
+      <c r="AU31" s="1429"/>
+      <c r="AV31" s="1430"/>
+      <c r="AW31" s="1431"/>
+      <c r="AX31" s="1432"/>
     </row>
-    <row r="32" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1402"/>
-      <c r="B32" s="708"/>
-      <c r="C32" s="1403"/>
-      <c r="D32" s="1404"/>
-      <c r="E32" s="1403"/>
-      <c r="F32" s="1405"/>
-      <c r="G32" s="1406"/>
-      <c r="H32" s="1407"/>
-      <c r="I32" s="921"/>
-      <c r="J32" s="1364"/>
+    <row r="32" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1433"/>
+      <c r="B32" s="723"/>
+      <c r="C32" s="1434"/>
+      <c r="D32" s="1435"/>
+      <c r="E32" s="1434"/>
+      <c r="F32" s="1436"/>
+      <c r="G32" s="1437"/>
+      <c r="H32" s="1438"/>
+      <c r="I32" s="941"/>
+      <c r="J32" s="1394"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="1408"/>
-      <c r="M32" s="1409"/>
-      <c r="N32" s="1410"/>
-      <c r="O32" s="1411"/>
-      <c r="P32" s="1412"/>
-      <c r="Q32" s="1413"/>
-      <c r="R32" s="1414"/>
-      <c r="S32" s="1415"/>
-      <c r="T32" s="1416"/>
-      <c r="U32" s="1417"/>
-      <c r="V32" s="1418"/>
-      <c r="W32" s="1419"/>
-      <c r="X32" s="1420"/>
-      <c r="Y32" s="1249"/>
-      <c r="Z32" s="1421"/>
-      <c r="AA32" s="1422"/>
-      <c r="AB32" s="1423"/>
-      <c r="AC32" s="1424"/>
-      <c r="AD32" s="1425"/>
-      <c r="AE32" s="1426"/>
-      <c r="AF32" s="1427"/>
-      <c r="AG32" s="1428"/>
-      <c r="AH32" s="1429"/>
-      <c r="AI32" s="1430"/>
-      <c r="AJ32" s="1431"/>
-      <c r="AK32" s="1432"/>
-      <c r="AL32" s="1433"/>
-      <c r="AM32" s="1434"/>
-      <c r="AN32" s="1435"/>
-      <c r="AO32" s="1436"/>
-      <c r="AP32" s="1437"/>
-      <c r="AQ32" s="1438"/>
-      <c r="AR32" s="1439"/>
-      <c r="AS32" s="608"/>
-      <c r="AT32" s="1440"/>
-      <c r="AU32" s="1441"/>
-      <c r="AV32" s="1442"/>
-      <c r="AW32" s="1443"/>
+      <c r="L32" s="1439"/>
+      <c r="M32" s="1440"/>
+      <c r="N32" s="1441"/>
+      <c r="O32" s="1442"/>
+      <c r="P32" s="1443"/>
+      <c r="Q32" s="1444"/>
+      <c r="R32" s="1445"/>
+      <c r="S32" s="1446"/>
+      <c r="T32" s="1447"/>
+      <c r="U32" s="1448"/>
+      <c r="V32" s="1449"/>
+      <c r="W32" s="1450"/>
+      <c r="X32" s="1451"/>
+      <c r="Y32" s="1276"/>
+      <c r="Z32" s="1452"/>
+      <c r="AA32" s="1453"/>
+      <c r="AB32" s="1454"/>
+      <c r="AC32" s="1455"/>
+      <c r="AD32" s="1456"/>
+      <c r="AE32" s="1457"/>
+      <c r="AF32" s="1458"/>
+      <c r="AG32" s="1459"/>
+      <c r="AH32" s="1460"/>
+      <c r="AI32" s="1461"/>
+      <c r="AJ32" s="1462"/>
+      <c r="AK32" s="1463"/>
+      <c r="AL32" s="1464"/>
+      <c r="AM32" s="1465"/>
+      <c r="AN32" s="1466"/>
+      <c r="AO32" s="1467"/>
+      <c r="AP32" s="1468"/>
+      <c r="AQ32" s="1469"/>
+      <c r="AR32" s="1470"/>
+      <c r="AS32" s="621"/>
+      <c r="AT32" s="1471"/>
+      <c r="AU32" s="1472"/>
+      <c r="AV32" s="1473"/>
+      <c r="AW32" s="1474"/>
+      <c r="AX32" s="1475"/>
     </row>
-    <row r="33" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1444"/>
-      <c r="B33" s="1445"/>
-      <c r="C33" s="746"/>
-      <c r="D33" s="1446"/>
-      <c r="E33" s="1447"/>
-      <c r="F33" s="1448"/>
-      <c r="G33" s="1449"/>
-      <c r="H33" s="1450"/>
-      <c r="I33" s="1451"/>
-      <c r="J33" s="122"/>
+    <row r="33" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1476"/>
+      <c r="B33" s="1477"/>
+      <c r="C33" s="762"/>
+      <c r="D33" s="1478"/>
+      <c r="E33" s="1479"/>
+      <c r="F33" s="1480"/>
+      <c r="G33" s="1481"/>
+      <c r="H33" s="1482"/>
+      <c r="I33" s="1483"/>
+      <c r="J33" s="124"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="1452"/>
-      <c r="M33" s="1453"/>
-      <c r="N33" s="1454"/>
-      <c r="O33" s="1455"/>
-      <c r="P33" s="1456"/>
-      <c r="Q33" s="1457"/>
-      <c r="R33" s="1458"/>
-      <c r="S33" s="1459"/>
-      <c r="T33" s="1460"/>
-      <c r="U33" s="1461"/>
-      <c r="V33" s="1462"/>
-      <c r="W33" s="1463"/>
-      <c r="X33" s="1464"/>
-      <c r="Y33" s="1465"/>
-      <c r="Z33" s="1466"/>
-      <c r="AA33" s="1467"/>
-      <c r="AB33" s="1468"/>
-      <c r="AC33" s="1469"/>
-      <c r="AD33" s="1470"/>
-      <c r="AE33" s="1471"/>
-      <c r="AF33" s="1472"/>
-      <c r="AG33" s="1473"/>
-      <c r="AH33" s="1474"/>
-      <c r="AI33" s="1475"/>
-      <c r="AJ33" s="1476"/>
-      <c r="AK33" s="1477"/>
-      <c r="AL33" s="1478"/>
-      <c r="AM33" s="1479"/>
-      <c r="AN33" s="1480"/>
-      <c r="AO33" s="1481"/>
-      <c r="AP33" s="1482"/>
-      <c r="AQ33" s="1483"/>
-      <c r="AR33" s="1484"/>
-      <c r="AS33" s="1013"/>
-      <c r="AT33" s="1485"/>
-      <c r="AU33" s="1486"/>
-      <c r="AV33" s="1487"/>
-      <c r="AW33" s="1488"/>
+      <c r="L33" s="1484"/>
+      <c r="M33" s="1485"/>
+      <c r="N33" s="1486"/>
+      <c r="O33" s="1487"/>
+      <c r="P33" s="1488"/>
+      <c r="Q33" s="1489"/>
+      <c r="R33" s="1490"/>
+      <c r="S33" s="1491"/>
+      <c r="T33" s="1492"/>
+      <c r="U33" s="1493"/>
+      <c r="V33" s="1494"/>
+      <c r="W33" s="1495"/>
+      <c r="X33" s="1496"/>
+      <c r="Y33" s="1497"/>
+      <c r="Z33" s="1498"/>
+      <c r="AA33" s="1499"/>
+      <c r="AB33" s="1500"/>
+      <c r="AC33" s="1501"/>
+      <c r="AD33" s="1502"/>
+      <c r="AE33" s="1503"/>
+      <c r="AF33" s="1504"/>
+      <c r="AG33" s="1505"/>
+      <c r="AH33" s="1506"/>
+      <c r="AI33" s="1507"/>
+      <c r="AJ33" s="1508"/>
+      <c r="AK33" s="1509"/>
+      <c r="AL33" s="1510"/>
+      <c r="AM33" s="1511"/>
+      <c r="AN33" s="1512"/>
+      <c r="AO33" s="1513"/>
+      <c r="AP33" s="1514"/>
+      <c r="AQ33" s="1515"/>
+      <c r="AR33" s="1516"/>
+      <c r="AS33" s="1035"/>
+      <c r="AT33" s="1517"/>
+      <c r="AU33" s="1518"/>
+      <c r="AV33" s="1519"/>
+      <c r="AW33" s="1520"/>
+      <c r="AX33" s="1521"/>
     </row>
-    <row r="34" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1489"/>
-      <c r="B34" s="1490"/>
-      <c r="C34" s="1491"/>
-      <c r="D34" s="1492"/>
-      <c r="E34" s="1493"/>
-      <c r="F34" s="1494"/>
-      <c r="G34" s="1495"/>
-      <c r="H34" s="1496"/>
-      <c r="I34" s="1497"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="1498"/>
-      <c r="M34" s="1499"/>
-      <c r="N34" s="1500"/>
-      <c r="O34" s="1501"/>
-      <c r="P34" s="1502"/>
-      <c r="Q34" s="1503"/>
-      <c r="R34" s="1504"/>
-      <c r="S34" s="1505"/>
-      <c r="T34" s="1506"/>
-      <c r="U34" s="1507"/>
-      <c r="V34" s="1508"/>
-      <c r="W34" s="1509"/>
-      <c r="X34" s="1510"/>
-      <c r="Y34" s="1511"/>
-      <c r="Z34" s="1512"/>
-      <c r="AA34" s="1513"/>
-      <c r="AB34" s="1514"/>
-      <c r="AC34" s="1515"/>
-      <c r="AD34" s="1516"/>
-      <c r="AE34" s="1517"/>
-      <c r="AF34" s="1518"/>
-      <c r="AG34" s="1519"/>
-      <c r="AH34" s="1520"/>
-      <c r="AI34" s="1521"/>
-      <c r="AJ34" s="1522"/>
-      <c r="AK34" s="1523"/>
-      <c r="AL34" s="1524"/>
-      <c r="AM34" s="1525"/>
-      <c r="AN34" s="1526"/>
-      <c r="AO34" s="1527"/>
-      <c r="AP34" s="1528"/>
-      <c r="AQ34" s="1529"/>
-      <c r="AR34" s="1530"/>
-      <c r="AS34" s="1531"/>
-      <c r="AT34" s="1532"/>
-      <c r="AU34" s="1533"/>
-      <c r="AV34" s="1534"/>
-      <c r="AW34" s="1535"/>
+    <row r="34" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1522"/>
+      <c r="B34" s="1523"/>
+      <c r="C34" s="1524"/>
+      <c r="D34" s="1525"/>
+      <c r="E34" s="1526"/>
+      <c r="F34" s="1527"/>
+      <c r="G34" s="1528"/>
+      <c r="H34" s="1529"/>
+      <c r="I34" s="1530"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="1531"/>
+      <c r="M34" s="1532"/>
+      <c r="N34" s="1533"/>
+      <c r="O34" s="1534"/>
+      <c r="P34" s="1535"/>
+      <c r="Q34" s="1536"/>
+      <c r="R34" s="1537"/>
+      <c r="S34" s="1538"/>
+      <c r="T34" s="1539"/>
+      <c r="U34" s="1540"/>
+      <c r="V34" s="1541"/>
+      <c r="W34" s="1542"/>
+      <c r="X34" s="1543"/>
+      <c r="Y34" s="1544"/>
+      <c r="Z34" s="1545"/>
+      <c r="AA34" s="1546"/>
+      <c r="AB34" s="1547"/>
+      <c r="AC34" s="1548"/>
+      <c r="AD34" s="1549"/>
+      <c r="AE34" s="1550"/>
+      <c r="AF34" s="1551"/>
+      <c r="AG34" s="1552"/>
+      <c r="AH34" s="1553"/>
+      <c r="AI34" s="1554"/>
+      <c r="AJ34" s="1555"/>
+      <c r="AK34" s="1556"/>
+      <c r="AL34" s="1557"/>
+      <c r="AM34" s="1558"/>
+      <c r="AN34" s="1559"/>
+      <c r="AO34" s="1560"/>
+      <c r="AP34" s="1561"/>
+      <c r="AQ34" s="1562"/>
+      <c r="AR34" s="1563"/>
+      <c r="AS34" s="1564"/>
+      <c r="AT34" s="1565"/>
+      <c r="AU34" s="1566"/>
+      <c r="AV34" s="1567"/>
+      <c r="AW34" s="1568"/>
+      <c r="AX34" s="1569"/>
     </row>
-    <row r="35" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1536"/>
-      <c r="B35" s="1537"/>
+    <row r="35" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1570"/>
+      <c r="B35" s="1571"/>
       <c r="C35" s="39"/>
-      <c r="D35" s="1538"/>
-      <c r="E35" s="1539"/>
-      <c r="F35" s="1540"/>
-      <c r="G35" s="747"/>
-      <c r="H35" s="1541"/>
-      <c r="I35" s="1542"/>
+      <c r="D35" s="1572"/>
+      <c r="E35" s="1573"/>
+      <c r="F35" s="1574"/>
+      <c r="G35" s="763"/>
+      <c r="H35" s="1575"/>
+      <c r="I35" s="1576"/>
       <c r="J35" s="21"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="1543"/>
-      <c r="M35" s="1544"/>
-      <c r="N35" s="1545"/>
-      <c r="O35" s="1546"/>
-      <c r="P35" s="1547"/>
-      <c r="Q35" s="1548"/>
-      <c r="R35" s="1549"/>
-      <c r="S35" s="1550"/>
-      <c r="T35" s="1551"/>
-      <c r="U35" s="1552"/>
-      <c r="V35" s="1553"/>
-      <c r="W35" s="1554"/>
-      <c r="X35" s="1340"/>
-      <c r="Y35" s="1555"/>
-      <c r="Z35" s="1556"/>
-      <c r="AA35" s="1557"/>
-      <c r="AB35" s="1558"/>
-      <c r="AC35" s="1559"/>
-      <c r="AD35" s="1560"/>
-      <c r="AE35" s="1561"/>
-      <c r="AF35" s="1562"/>
-      <c r="AG35" s="1563"/>
-      <c r="AH35" s="1564"/>
-      <c r="AI35" s="1565"/>
-      <c r="AJ35" s="858"/>
-      <c r="AK35" s="1566"/>
-      <c r="AL35" s="1567"/>
-      <c r="AM35" s="1568"/>
-      <c r="AN35" s="1569"/>
-      <c r="AO35" s="1570"/>
-      <c r="AP35" s="1571"/>
-      <c r="AQ35" s="1572"/>
-      <c r="AR35" s="1573"/>
-      <c r="AS35" s="1574"/>
-      <c r="AT35" s="1575"/>
-      <c r="AU35" s="1576"/>
-      <c r="AV35" s="1577"/>
-      <c r="AW35" s="1578"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="1577"/>
+      <c r="M35" s="1578"/>
+      <c r="N35" s="1579"/>
+      <c r="O35" s="1580"/>
+      <c r="P35" s="1581"/>
+      <c r="Q35" s="1582"/>
+      <c r="R35" s="1583"/>
+      <c r="S35" s="1584"/>
+      <c r="T35" s="1585"/>
+      <c r="U35" s="1586"/>
+      <c r="V35" s="1587"/>
+      <c r="W35" s="1588"/>
+      <c r="X35" s="1369"/>
+      <c r="Y35" s="1589"/>
+      <c r="Z35" s="1590"/>
+      <c r="AA35" s="1591"/>
+      <c r="AB35" s="1592"/>
+      <c r="AC35" s="1593"/>
+      <c r="AD35" s="1594"/>
+      <c r="AE35" s="1595"/>
+      <c r="AF35" s="1596"/>
+      <c r="AG35" s="1597"/>
+      <c r="AH35" s="1598"/>
+      <c r="AI35" s="1599"/>
+      <c r="AJ35" s="876"/>
+      <c r="AK35" s="1600"/>
+      <c r="AL35" s="1601"/>
+      <c r="AM35" s="1602"/>
+      <c r="AN35" s="1603"/>
+      <c r="AO35" s="1604"/>
+      <c r="AP35" s="1605"/>
+      <c r="AQ35" s="1606"/>
+      <c r="AR35" s="1607"/>
+      <c r="AS35" s="1608"/>
+      <c r="AT35" s="1609"/>
+      <c r="AU35" s="1610"/>
+      <c r="AV35" s="1611"/>
+      <c r="AW35" s="1612"/>
+      <c r="AX35" s="1613"/>
     </row>
-    <row r="36" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1579"/>
-      <c r="B36" s="1580"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="1581"/>
-      <c r="E36" s="1582"/>
-      <c r="F36" s="1583"/>
-      <c r="G36" s="1584"/>
-      <c r="H36" s="1180"/>
-      <c r="I36" s="1585"/>
-      <c r="J36" s="1586"/>
-      <c r="K36" s="253"/>
-      <c r="L36" s="1587"/>
-      <c r="M36" s="1439"/>
-      <c r="N36" s="1588"/>
-      <c r="O36" s="1589"/>
-      <c r="P36" s="1590"/>
-      <c r="Q36" s="1591"/>
-      <c r="R36" s="1592"/>
-      <c r="S36" s="1593"/>
-      <c r="T36" s="1594"/>
-      <c r="U36" s="1595"/>
-      <c r="V36" s="1596"/>
-      <c r="W36" s="1597"/>
-      <c r="X36" s="1598"/>
-      <c r="Y36" s="1599"/>
-      <c r="Z36" s="1600"/>
-      <c r="AA36" s="1601"/>
-      <c r="AB36" s="1602"/>
-      <c r="AC36" s="1603"/>
-      <c r="AD36" s="1604"/>
-      <c r="AE36" s="1605"/>
-      <c r="AF36" s="1606"/>
-      <c r="AG36" s="1607"/>
-      <c r="AH36" s="1608"/>
-      <c r="AI36" s="1609"/>
-      <c r="AJ36" s="1610"/>
-      <c r="AK36" s="1611"/>
-      <c r="AL36" s="1612"/>
-      <c r="AM36" s="1613"/>
-      <c r="AN36" s="1614"/>
-      <c r="AO36" s="1615"/>
-      <c r="AP36" s="1616"/>
-      <c r="AQ36" s="1617"/>
-      <c r="AR36" s="1618"/>
-      <c r="AS36" s="1619"/>
-      <c r="AT36" s="1620"/>
-      <c r="AU36" s="1621"/>
-      <c r="AV36" s="1622"/>
-      <c r="AW36" s="1623"/>
+    <row r="36" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1614"/>
+      <c r="B36" s="1615"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="1616"/>
+      <c r="E36" s="1617"/>
+      <c r="F36" s="1618"/>
+      <c r="G36" s="1619"/>
+      <c r="H36" s="1206"/>
+      <c r="I36" s="1620"/>
+      <c r="J36" s="1621"/>
+      <c r="K36" s="258"/>
+      <c r="L36" s="1622"/>
+      <c r="M36" s="1470"/>
+      <c r="N36" s="1623"/>
+      <c r="O36" s="1624"/>
+      <c r="P36" s="1625"/>
+      <c r="Q36" s="1626"/>
+      <c r="R36" s="1627"/>
+      <c r="S36" s="1628"/>
+      <c r="T36" s="1629"/>
+      <c r="U36" s="1630"/>
+      <c r="V36" s="1631"/>
+      <c r="W36" s="1632"/>
+      <c r="X36" s="1633"/>
+      <c r="Y36" s="1634"/>
+      <c r="Z36" s="1635"/>
+      <c r="AA36" s="1636"/>
+      <c r="AB36" s="1637"/>
+      <c r="AC36" s="1638"/>
+      <c r="AD36" s="1639"/>
+      <c r="AE36" s="1640"/>
+      <c r="AF36" s="1641"/>
+      <c r="AG36" s="1642"/>
+      <c r="AH36" s="1643"/>
+      <c r="AI36" s="1644"/>
+      <c r="AJ36" s="1645"/>
+      <c r="AK36" s="1646"/>
+      <c r="AL36" s="1647"/>
+      <c r="AM36" s="1648"/>
+      <c r="AN36" s="1649"/>
+      <c r="AO36" s="1650"/>
+      <c r="AP36" s="1651"/>
+      <c r="AQ36" s="1652"/>
+      <c r="AR36" s="1653"/>
+      <c r="AS36" s="1654"/>
+      <c r="AT36" s="1655"/>
+      <c r="AU36" s="1656"/>
+      <c r="AV36" s="1657"/>
+      <c r="AW36" s="1658"/>
+      <c r="AX36" s="1659"/>
     </row>
-    <row r="37" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1624"/>
-      <c r="B37" s="1625"/>
-      <c r="C37" s="1012"/>
-      <c r="D37" s="1626"/>
-      <c r="E37" s="1627"/>
-      <c r="F37" s="1628"/>
-      <c r="G37" s="1629"/>
+    <row r="37" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1660"/>
+      <c r="B37" s="1661"/>
+      <c r="C37" s="1034"/>
+      <c r="D37" s="1662"/>
+      <c r="E37" s="1663"/>
+      <c r="F37" s="1664"/>
+      <c r="G37" s="1665"/>
       <c r="H37" s="43"/>
-      <c r="I37" s="1630"/>
-      <c r="J37" s="1631"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="1632"/>
-      <c r="M37" s="1633"/>
-      <c r="N37" s="1634"/>
-      <c r="O37" s="1635"/>
-      <c r="P37" s="1636"/>
-      <c r="Q37" s="1637"/>
-      <c r="R37" s="1638"/>
-      <c r="S37" s="1639"/>
-      <c r="T37" s="1640"/>
-      <c r="U37" s="1641"/>
-      <c r="V37" s="1642"/>
-      <c r="W37" s="1643"/>
-      <c r="X37" s="1644"/>
-      <c r="Y37" s="1645"/>
-      <c r="Z37" s="1646"/>
-      <c r="AA37" s="1647"/>
-      <c r="AB37" s="1648"/>
-      <c r="AC37" s="1649"/>
-      <c r="AD37" s="1650"/>
-      <c r="AE37" s="1651"/>
-      <c r="AF37" s="1652"/>
-      <c r="AG37" s="1653"/>
-      <c r="AH37" s="1654"/>
-      <c r="AI37" s="1655"/>
-      <c r="AJ37" s="1656"/>
-      <c r="AK37" s="1657"/>
-      <c r="AL37" s="1658"/>
-      <c r="AM37" s="1659"/>
-      <c r="AN37" s="1660"/>
-      <c r="AO37" s="1661"/>
-      <c r="AP37" s="1662"/>
-      <c r="AQ37" s="1663"/>
-      <c r="AR37" s="1664"/>
-      <c r="AS37" s="1665"/>
-      <c r="AT37" s="1666"/>
-      <c r="AU37" s="1667"/>
-      <c r="AV37" s="1668"/>
-      <c r="AW37" s="1669"/>
+      <c r="I37" s="1666"/>
+      <c r="J37" s="1667"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="1668"/>
+      <c r="M37" s="1669"/>
+      <c r="N37" s="1670"/>
+      <c r="O37" s="1671"/>
+      <c r="P37" s="1672"/>
+      <c r="Q37" s="1673"/>
+      <c r="R37" s="1674"/>
+      <c r="S37" s="1675"/>
+      <c r="T37" s="1676"/>
+      <c r="U37" s="1677"/>
+      <c r="V37" s="1678"/>
+      <c r="W37" s="1679"/>
+      <c r="X37" s="1680"/>
+      <c r="Y37" s="1681"/>
+      <c r="Z37" s="1682"/>
+      <c r="AA37" s="1683"/>
+      <c r="AB37" s="1684"/>
+      <c r="AC37" s="1685"/>
+      <c r="AD37" s="1686"/>
+      <c r="AE37" s="1687"/>
+      <c r="AF37" s="1688"/>
+      <c r="AG37" s="1689"/>
+      <c r="AH37" s="1690"/>
+      <c r="AI37" s="1691"/>
+      <c r="AJ37" s="1692"/>
+      <c r="AK37" s="1693"/>
+      <c r="AL37" s="1694"/>
+      <c r="AM37" s="1695"/>
+      <c r="AN37" s="1696"/>
+      <c r="AO37" s="1697"/>
+      <c r="AP37" s="1698"/>
+      <c r="AQ37" s="1699"/>
+      <c r="AR37" s="1700"/>
+      <c r="AS37" s="1701"/>
+      <c r="AT37" s="1702"/>
+      <c r="AU37" s="1703"/>
+      <c r="AV37" s="1704"/>
+      <c r="AW37" s="1705"/>
+      <c r="AX37" s="1706"/>
     </row>
-    <row r="38" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1624"/>
-      <c r="B38" s="1670"/>
-      <c r="C38" s="1671"/>
-      <c r="D38" s="1672"/>
-      <c r="E38" s="1673"/>
-      <c r="F38" s="227"/>
-      <c r="G38" s="1674"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="1675"/>
-      <c r="J38" s="1676"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="1677"/>
-      <c r="M38" s="1678"/>
-      <c r="N38" s="1679"/>
-      <c r="O38" s="1680"/>
-      <c r="P38" s="1681"/>
-      <c r="Q38" s="1682"/>
-      <c r="R38" s="1683"/>
-      <c r="S38" s="1684"/>
-      <c r="T38" s="1685"/>
-      <c r="U38" s="1686"/>
-      <c r="V38" s="1687"/>
-      <c r="W38" s="1688"/>
-      <c r="X38" s="1689"/>
-      <c r="Y38" s="1690"/>
-      <c r="Z38" s="1691"/>
-      <c r="AA38" s="1692"/>
-      <c r="AB38" s="1693"/>
-      <c r="AC38" s="1694"/>
-      <c r="AD38" s="1695"/>
-      <c r="AE38" s="1696"/>
-      <c r="AF38" s="1697"/>
-      <c r="AG38" s="1698"/>
-      <c r="AH38" s="1473"/>
-      <c r="AI38" s="1699"/>
-      <c r="AJ38" s="1700"/>
-      <c r="AK38" s="1701"/>
-      <c r="AL38" s="1702"/>
-      <c r="AM38" s="1703"/>
-      <c r="AN38" s="1704"/>
-      <c r="AO38" s="1705"/>
-      <c r="AP38" s="1706"/>
-      <c r="AQ38" s="1707"/>
-      <c r="AR38" s="1708"/>
-      <c r="AS38" s="1709"/>
-      <c r="AT38" s="1710"/>
-      <c r="AU38" s="1711"/>
-      <c r="AV38" s="1712"/>
-      <c r="AW38" s="1713"/>
+    <row r="38" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1660"/>
+      <c r="B38" s="1707"/>
+      <c r="C38" s="1708"/>
+      <c r="D38" s="1709"/>
+      <c r="E38" s="1710"/>
+      <c r="F38" s="231"/>
+      <c r="G38" s="1711"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="1712"/>
+      <c r="J38" s="1713"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="1714"/>
+      <c r="M38" s="1715"/>
+      <c r="N38" s="1716"/>
+      <c r="O38" s="1717"/>
+      <c r="P38" s="1718"/>
+      <c r="Q38" s="1719"/>
+      <c r="R38" s="1720"/>
+      <c r="S38" s="1721"/>
+      <c r="T38" s="1722"/>
+      <c r="U38" s="1723"/>
+      <c r="V38" s="1724"/>
+      <c r="W38" s="1725"/>
+      <c r="X38" s="1726"/>
+      <c r="Y38" s="1727"/>
+      <c r="Z38" s="1728"/>
+      <c r="AA38" s="1729"/>
+      <c r="AB38" s="1730"/>
+      <c r="AC38" s="1731"/>
+      <c r="AD38" s="1732"/>
+      <c r="AE38" s="1733"/>
+      <c r="AF38" s="1734"/>
+      <c r="AG38" s="1735"/>
+      <c r="AH38" s="1505"/>
+      <c r="AI38" s="1736"/>
+      <c r="AJ38" s="1737"/>
+      <c r="AK38" s="1738"/>
+      <c r="AL38" s="1739"/>
+      <c r="AM38" s="1740"/>
+      <c r="AN38" s="1741"/>
+      <c r="AO38" s="1742"/>
+      <c r="AP38" s="1743"/>
+      <c r="AQ38" s="1744"/>
+      <c r="AR38" s="1745"/>
+      <c r="AS38" s="1746"/>
+      <c r="AT38" s="1747"/>
+      <c r="AU38" s="1748"/>
+      <c r="AV38" s="1749"/>
+      <c r="AW38" s="1750"/>
+      <c r="AX38" s="1751"/>
     </row>
-    <row r="39" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="196"/>
-      <c r="B39" s="241"/>
-      <c r="C39" s="1714"/>
-      <c r="D39" s="1715"/>
-      <c r="E39" s="1716"/>
-      <c r="F39" s="1717"/>
-      <c r="G39" s="1718"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="254"/>
-      <c r="J39" s="1719"/>
-      <c r="K39" s="608"/>
-      <c r="L39" s="1322"/>
-      <c r="M39" s="1720"/>
-      <c r="N39" s="1721"/>
-      <c r="O39" s="1722"/>
-      <c r="P39" s="1723"/>
-      <c r="Q39" s="1724"/>
-      <c r="R39" s="1725"/>
-      <c r="S39" s="1726"/>
-      <c r="T39" s="1727"/>
-      <c r="U39" s="1728"/>
-      <c r="V39" s="1372"/>
-      <c r="W39" s="1729"/>
-      <c r="X39" s="1730"/>
-      <c r="Y39" s="1731"/>
-      <c r="Z39" s="1732"/>
-      <c r="AA39" s="1733"/>
-      <c r="AB39" s="1734"/>
-      <c r="AC39" s="1735"/>
-      <c r="AD39" s="1736"/>
-      <c r="AE39" s="1737"/>
-      <c r="AF39" s="1738"/>
-      <c r="AG39" s="984"/>
-      <c r="AH39" s="1739"/>
-      <c r="AI39" s="1740"/>
-      <c r="AJ39" s="1741"/>
-      <c r="AK39" s="1742"/>
-      <c r="AL39" s="1743"/>
-      <c r="AM39" s="1744"/>
-      <c r="AN39" s="1745"/>
-      <c r="AO39" s="1746"/>
-      <c r="AP39" s="1747"/>
-      <c r="AQ39" s="1748"/>
-      <c r="AR39" s="1749"/>
-      <c r="AS39" s="1750"/>
-      <c r="AT39" s="1751"/>
-      <c r="AU39" s="1752"/>
-      <c r="AV39" s="1753"/>
-      <c r="AW39" s="1754"/>
+    <row r="39" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="200"/>
+      <c r="B39" s="246"/>
+      <c r="C39" s="1752"/>
+      <c r="D39" s="1753"/>
+      <c r="E39" s="1754"/>
+      <c r="F39" s="1755"/>
+      <c r="G39" s="1756"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="259"/>
+      <c r="J39" s="1757"/>
+      <c r="K39" s="621"/>
+      <c r="L39" s="1351"/>
+      <c r="M39" s="1758"/>
+      <c r="N39" s="1759"/>
+      <c r="O39" s="1760"/>
+      <c r="P39" s="1761"/>
+      <c r="Q39" s="1762"/>
+      <c r="R39" s="1763"/>
+      <c r="S39" s="1764"/>
+      <c r="T39" s="1765"/>
+      <c r="U39" s="1766"/>
+      <c r="V39" s="1402"/>
+      <c r="W39" s="1767"/>
+      <c r="X39" s="1768"/>
+      <c r="Y39" s="1769"/>
+      <c r="Z39" s="1770"/>
+      <c r="AA39" s="1771"/>
+      <c r="AB39" s="1772"/>
+      <c r="AC39" s="1773"/>
+      <c r="AD39" s="1774"/>
+      <c r="AE39" s="1775"/>
+      <c r="AF39" s="1776"/>
+      <c r="AG39" s="1005"/>
+      <c r="AH39" s="1777"/>
+      <c r="AI39" s="1778"/>
+      <c r="AJ39" s="1779"/>
+      <c r="AK39" s="1780"/>
+      <c r="AL39" s="1781"/>
+      <c r="AM39" s="1782"/>
+      <c r="AN39" s="1783"/>
+      <c r="AO39" s="1784"/>
+      <c r="AP39" s="1785"/>
+      <c r="AQ39" s="1786"/>
+      <c r="AR39" s="1787"/>
+      <c r="AS39" s="1788"/>
+      <c r="AT39" s="1789"/>
+      <c r="AU39" s="1790"/>
+      <c r="AV39" s="1791"/>
+      <c r="AW39" s="1792"/>
+      <c r="AX39" s="1793"/>
     </row>
-    <row r="40" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1755"/>
-      <c r="B40" s="1756"/>
-      <c r="C40" s="1757"/>
-      <c r="D40" s="1758"/>
-      <c r="E40" s="1759"/>
-      <c r="F40" s="1760"/>
-      <c r="G40" s="1761"/>
-      <c r="H40" s="1224"/>
-      <c r="I40" s="229"/>
-      <c r="J40" s="1762"/>
-      <c r="K40" s="1763"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="1764"/>
-      <c r="N40" s="1765"/>
-      <c r="O40" s="1766"/>
-      <c r="P40" s="1767"/>
-      <c r="Q40" s="1768"/>
-      <c r="R40" s="1769"/>
-      <c r="S40" s="1770"/>
-      <c r="T40" s="1771"/>
-      <c r="U40" s="1772"/>
-      <c r="V40" s="1773"/>
-      <c r="W40" s="1774"/>
-      <c r="X40" s="1775"/>
-      <c r="Y40" s="1776"/>
-      <c r="Z40" s="1777"/>
-      <c r="AA40" s="1778"/>
-      <c r="AB40" s="1779"/>
-      <c r="AC40" s="1780"/>
-      <c r="AD40" s="1781"/>
-      <c r="AE40" s="1782"/>
-      <c r="AF40" s="1783"/>
-      <c r="AG40" s="1784"/>
-      <c r="AH40" s="1785"/>
-      <c r="AI40" s="1786"/>
-      <c r="AJ40" s="1787"/>
-      <c r="AK40" s="1788"/>
-      <c r="AL40" s="1789"/>
-      <c r="AM40" s="1790"/>
-      <c r="AN40" s="1791"/>
-      <c r="AO40" s="1792"/>
-      <c r="AP40" s="1793"/>
-      <c r="AQ40" s="1794"/>
-      <c r="AR40" s="1795"/>
-      <c r="AS40" s="1796"/>
-      <c r="AT40" s="1797"/>
-      <c r="AU40" s="1798"/>
-      <c r="AV40" s="1799"/>
-      <c r="AW40" s="1800"/>
+    <row r="40" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1794"/>
+      <c r="B40" s="1795"/>
+      <c r="C40" s="1796"/>
+      <c r="D40" s="1797"/>
+      <c r="E40" s="1798"/>
+      <c r="F40" s="1799"/>
+      <c r="G40" s="1800"/>
+      <c r="H40" s="1251"/>
+      <c r="I40" s="233"/>
+      <c r="J40" s="1801"/>
+      <c r="K40" s="1802"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="1803"/>
+      <c r="N40" s="1804"/>
+      <c r="O40" s="1805"/>
+      <c r="P40" s="1806"/>
+      <c r="Q40" s="1807"/>
+      <c r="R40" s="1808"/>
+      <c r="S40" s="1809"/>
+      <c r="T40" s="1810"/>
+      <c r="U40" s="1811"/>
+      <c r="V40" s="1812"/>
+      <c r="W40" s="1813"/>
+      <c r="X40" s="1814"/>
+      <c r="Y40" s="1815"/>
+      <c r="Z40" s="1816"/>
+      <c r="AA40" s="1817"/>
+      <c r="AB40" s="1818"/>
+      <c r="AC40" s="1819"/>
+      <c r="AD40" s="1820"/>
+      <c r="AE40" s="1821"/>
+      <c r="AF40" s="1822"/>
+      <c r="AG40" s="1823"/>
+      <c r="AH40" s="1824"/>
+      <c r="AI40" s="1825"/>
+      <c r="AJ40" s="1826"/>
+      <c r="AK40" s="1827"/>
+      <c r="AL40" s="1828"/>
+      <c r="AM40" s="1829"/>
+      <c r="AN40" s="1830"/>
+      <c r="AO40" s="1831"/>
+      <c r="AP40" s="1832"/>
+      <c r="AQ40" s="1833"/>
+      <c r="AR40" s="1834"/>
+      <c r="AS40" s="1835"/>
+      <c r="AT40" s="1836"/>
+      <c r="AU40" s="1837"/>
+      <c r="AV40" s="1838"/>
+      <c r="AW40" s="1839"/>
+      <c r="AX40" s="1840"/>
     </row>
-    <row r="41" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1801"/>
-      <c r="B41" s="1802"/>
-      <c r="C41" s="1803"/>
-      <c r="D41" s="1804"/>
-      <c r="E41" s="1805"/>
-      <c r="F41" s="1806"/>
-      <c r="G41" s="1807"/>
-      <c r="H41" s="1808"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="1809"/>
-      <c r="K41" s="1810"/>
+    <row r="41" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1841"/>
+      <c r="B41" s="1842"/>
+      <c r="C41" s="1843"/>
+      <c r="D41" s="1844"/>
+      <c r="E41" s="1845"/>
+      <c r="F41" s="1846"/>
+      <c r="G41" s="1847"/>
+      <c r="H41" s="1848"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="1849"/>
+      <c r="K41" s="1850"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="1811"/>
-      <c r="N41" s="1812"/>
-      <c r="O41" s="1813"/>
-      <c r="P41" s="1814"/>
-      <c r="Q41" s="1815"/>
-      <c r="R41" s="1816"/>
-      <c r="S41" s="1817"/>
-      <c r="T41" s="1818"/>
-      <c r="U41" s="1819"/>
-      <c r="V41" s="1820"/>
-      <c r="W41" s="1821"/>
-      <c r="X41" s="1822"/>
-      <c r="Y41" s="1823"/>
-      <c r="Z41" s="1824"/>
-      <c r="AA41" s="1825"/>
-      <c r="AB41" s="1826"/>
-      <c r="AC41" s="1827"/>
-      <c r="AD41" s="1828"/>
-      <c r="AE41" s="1829"/>
-      <c r="AF41" s="1830"/>
-      <c r="AG41" s="1831"/>
-      <c r="AH41" s="1832"/>
-      <c r="AI41" s="1833"/>
-      <c r="AJ41" s="1834"/>
-      <c r="AK41" s="1835"/>
-      <c r="AL41" s="1836"/>
-      <c r="AM41" s="1837"/>
-      <c r="AN41" s="1838"/>
-      <c r="AO41" s="1839"/>
-      <c r="AP41" s="1840"/>
-      <c r="AQ41" s="1841"/>
-      <c r="AR41" s="1842"/>
-      <c r="AS41" s="1843"/>
-      <c r="AT41" s="1844"/>
-      <c r="AU41" s="1845"/>
-      <c r="AV41" s="1846"/>
-      <c r="AW41" s="1847"/>
+      <c r="M41" s="1851"/>
+      <c r="N41" s="1852"/>
+      <c r="O41" s="1853"/>
+      <c r="P41" s="1854"/>
+      <c r="Q41" s="1855"/>
+      <c r="R41" s="1856"/>
+      <c r="S41" s="1857"/>
+      <c r="T41" s="1858"/>
+      <c r="U41" s="1859"/>
+      <c r="V41" s="1860"/>
+      <c r="W41" s="1861"/>
+      <c r="X41" s="1862"/>
+      <c r="Y41" s="1863"/>
+      <c r="Z41" s="1864"/>
+      <c r="AA41" s="1865"/>
+      <c r="AB41" s="1866"/>
+      <c r="AC41" s="1867"/>
+      <c r="AD41" s="1868"/>
+      <c r="AE41" s="1869"/>
+      <c r="AF41" s="1870"/>
+      <c r="AG41" s="1871"/>
+      <c r="AH41" s="1872"/>
+      <c r="AI41" s="1873"/>
+      <c r="AJ41" s="1874"/>
+      <c r="AK41" s="1875"/>
+      <c r="AL41" s="1876"/>
+      <c r="AM41" s="1877"/>
+      <c r="AN41" s="1878"/>
+      <c r="AO41" s="1879"/>
+      <c r="AP41" s="1880"/>
+      <c r="AQ41" s="1881"/>
+      <c r="AR41" s="1882"/>
+      <c r="AS41" s="1883"/>
+      <c r="AT41" s="1884"/>
+      <c r="AU41" s="1885"/>
+      <c r="AV41" s="1886"/>
+      <c r="AW41" s="1887"/>
+      <c r="AX41" s="1888"/>
     </row>
-    <row r="42" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1537"/>
-      <c r="B42" s="1848"/>
-      <c r="C42" s="1849"/>
-      <c r="D42" s="1850"/>
-      <c r="E42" s="1851"/>
-      <c r="F42" s="1852"/>
-      <c r="G42" s="1853"/>
-      <c r="H42" s="1854"/>
-      <c r="I42" s="431"/>
-      <c r="J42" s="1855"/>
-      <c r="K42" s="1856"/>
-      <c r="L42" s="1857"/>
-      <c r="M42" s="1858"/>
-      <c r="N42" s="1859"/>
-      <c r="O42" s="1860"/>
-      <c r="P42" s="1861"/>
-      <c r="Q42" s="1862"/>
-      <c r="R42" s="1863"/>
-      <c r="S42" s="1864"/>
-      <c r="T42" s="1865"/>
-      <c r="U42" s="1866"/>
-      <c r="V42" s="1867"/>
-      <c r="W42" s="1868"/>
-      <c r="X42" s="1869"/>
-      <c r="Y42" s="1870"/>
-      <c r="Z42" s="1871"/>
-      <c r="AA42" s="1872"/>
-      <c r="AB42" s="1873"/>
-      <c r="AC42" s="1874"/>
-      <c r="AD42" s="1875"/>
-      <c r="AE42" s="1876"/>
-      <c r="AF42" s="1877"/>
-      <c r="AG42" s="1878"/>
-      <c r="AH42" s="1879"/>
-      <c r="AI42" s="1880"/>
-      <c r="AJ42" s="1881"/>
-      <c r="AK42" s="1882"/>
-      <c r="AL42" s="1883"/>
-      <c r="AM42" s="1884"/>
-      <c r="AN42" s="1885"/>
-      <c r="AO42" s="1886"/>
-      <c r="AP42" s="1887"/>
-      <c r="AQ42" s="1888"/>
-      <c r="AR42" s="1889"/>
-      <c r="AS42" s="1890"/>
-      <c r="AT42" s="1891"/>
-      <c r="AU42" s="1892"/>
-      <c r="AV42" s="1893"/>
-      <c r="AW42" s="1894"/>
+    <row r="42" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1571"/>
+      <c r="B42" s="1889"/>
+      <c r="C42" s="1890"/>
+      <c r="D42" s="1891"/>
+      <c r="E42" s="1892"/>
+      <c r="F42" s="1893"/>
+      <c r="G42" s="1894"/>
+      <c r="H42" s="1895"/>
+      <c r="I42" s="440"/>
+      <c r="J42" s="1896"/>
+      <c r="K42" s="1897"/>
+      <c r="L42" s="1898"/>
+      <c r="M42" s="1899"/>
+      <c r="N42" s="1900"/>
+      <c r="O42" s="1901"/>
+      <c r="P42" s="1902"/>
+      <c r="Q42" s="1903"/>
+      <c r="R42" s="1904"/>
+      <c r="S42" s="1905"/>
+      <c r="T42" s="1906"/>
+      <c r="U42" s="1907"/>
+      <c r="V42" s="1908"/>
+      <c r="W42" s="1909"/>
+      <c r="X42" s="1910"/>
+      <c r="Y42" s="1911"/>
+      <c r="Z42" s="1912"/>
+      <c r="AA42" s="1913"/>
+      <c r="AB42" s="1914"/>
+      <c r="AC42" s="1915"/>
+      <c r="AD42" s="1916"/>
+      <c r="AE42" s="1917"/>
+      <c r="AF42" s="1918"/>
+      <c r="AG42" s="1919"/>
+      <c r="AH42" s="1920"/>
+      <c r="AI42" s="1921"/>
+      <c r="AJ42" s="1922"/>
+      <c r="AK42" s="1923"/>
+      <c r="AL42" s="1924"/>
+      <c r="AM42" s="1925"/>
+      <c r="AN42" s="1926"/>
+      <c r="AO42" s="1927"/>
+      <c r="AP42" s="1928"/>
+      <c r="AQ42" s="1929"/>
+      <c r="AR42" s="1930"/>
+      <c r="AS42" s="1931"/>
+      <c r="AT42" s="1932"/>
+      <c r="AU42" s="1933"/>
+      <c r="AV42" s="1934"/>
+      <c r="AW42" s="1935"/>
+      <c r="AX42" s="1936"/>
     </row>
-    <row r="43" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1895"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="1896"/>
-      <c r="D43" s="1897"/>
-      <c r="E43" s="1898"/>
-      <c r="F43" s="1899"/>
-      <c r="G43" s="1900"/>
-      <c r="H43" s="1901"/>
-      <c r="I43" s="1361"/>
-      <c r="J43" s="1902"/>
-      <c r="K43" s="1903"/>
-      <c r="L43" s="608"/>
-      <c r="M43" s="336"/>
-      <c r="N43" s="1904"/>
-      <c r="O43" s="1905"/>
-      <c r="P43" s="1906"/>
-      <c r="Q43" s="1907"/>
-      <c r="R43" s="1908"/>
-      <c r="S43" s="1909"/>
-      <c r="T43" s="1910"/>
-      <c r="U43" s="1911"/>
-      <c r="V43" s="1912"/>
-      <c r="W43" s="1913"/>
-      <c r="X43" s="1914"/>
-      <c r="Y43" s="1915"/>
-      <c r="Z43" s="1916"/>
-      <c r="AA43" s="1917"/>
-      <c r="AB43" s="1918"/>
-      <c r="AC43" s="1919"/>
-      <c r="AD43" s="1920"/>
-      <c r="AE43" s="1921"/>
-      <c r="AF43" s="1922"/>
-      <c r="AG43" s="1923"/>
-      <c r="AH43" s="1924"/>
-      <c r="AI43" s="1925"/>
-      <c r="AJ43" s="1926"/>
-      <c r="AK43" s="1927"/>
-      <c r="AL43" s="1928"/>
-      <c r="AM43" s="1929"/>
-      <c r="AN43" s="1930"/>
-      <c r="AO43" s="1931"/>
-      <c r="AP43" s="1932"/>
-      <c r="AQ43" s="1933"/>
-      <c r="AR43" s="1934"/>
-      <c r="AS43" s="1935"/>
-      <c r="AT43" s="1936"/>
-      <c r="AU43" s="1937"/>
-      <c r="AV43" s="1938"/>
-      <c r="AW43" s="1939"/>
+    <row r="43" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1937"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="1938"/>
+      <c r="D43" s="1939"/>
+      <c r="E43" s="1940"/>
+      <c r="F43" s="1941"/>
+      <c r="G43" s="1942"/>
+      <c r="H43" s="1943"/>
+      <c r="I43" s="1391"/>
+      <c r="J43" s="1944"/>
+      <c r="K43" s="1945"/>
+      <c r="L43" s="621"/>
+      <c r="M43" s="343"/>
+      <c r="N43" s="1946"/>
+      <c r="O43" s="1947"/>
+      <c r="P43" s="1948"/>
+      <c r="Q43" s="1949"/>
+      <c r="R43" s="1950"/>
+      <c r="S43" s="1951"/>
+      <c r="T43" s="1952"/>
+      <c r="U43" s="1953"/>
+      <c r="V43" s="1954"/>
+      <c r="W43" s="1955"/>
+      <c r="X43" s="1956"/>
+      <c r="Y43" s="1957"/>
+      <c r="Z43" s="1958"/>
+      <c r="AA43" s="1959"/>
+      <c r="AB43" s="1960"/>
+      <c r="AC43" s="1961"/>
+      <c r="AD43" s="1962"/>
+      <c r="AE43" s="1963"/>
+      <c r="AF43" s="1964"/>
+      <c r="AG43" s="1965"/>
+      <c r="AH43" s="1966"/>
+      <c r="AI43" s="1967"/>
+      <c r="AJ43" s="1968"/>
+      <c r="AK43" s="1969"/>
+      <c r="AL43" s="1970"/>
+      <c r="AM43" s="1971"/>
+      <c r="AN43" s="1972"/>
+      <c r="AO43" s="1973"/>
+      <c r="AP43" s="1974"/>
+      <c r="AQ43" s="1975"/>
+      <c r="AR43" s="1976"/>
+      <c r="AS43" s="1977"/>
+      <c r="AT43" s="1978"/>
+      <c r="AU43" s="1979"/>
+      <c r="AV43" s="1980"/>
+      <c r="AW43" s="1981"/>
+      <c r="AX43" s="1982"/>
     </row>
-    <row r="44" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="608"/>
-      <c r="B44" s="1940"/>
-      <c r="C44" s="1941"/>
-      <c r="D44" s="1942"/>
-      <c r="E44" s="1943"/>
-      <c r="F44" s="1944"/>
-      <c r="G44" s="1945"/>
-      <c r="H44" s="1946"/>
-      <c r="I44" s="1947"/>
-      <c r="J44" s="1948"/>
-      <c r="K44" s="1949"/>
-      <c r="L44" s="229"/>
-      <c r="M44" s="1950"/>
-      <c r="N44" s="1951"/>
-      <c r="O44" s="1952"/>
-      <c r="P44" s="1953"/>
-      <c r="Q44" s="1954"/>
-      <c r="R44" s="1955"/>
-      <c r="S44" s="1956"/>
-      <c r="T44" s="1957"/>
-      <c r="U44" s="1958"/>
-      <c r="V44" s="1959"/>
-      <c r="W44" s="1960"/>
-      <c r="X44" s="1961"/>
-      <c r="Y44" s="1962"/>
-      <c r="Z44" s="1963"/>
-      <c r="AA44" s="1964"/>
-      <c r="AB44" s="1965"/>
-      <c r="AC44" s="1966"/>
-      <c r="AD44" s="1967"/>
-      <c r="AE44" s="1968"/>
-      <c r="AF44" s="1969"/>
-      <c r="AG44" s="1970"/>
-      <c r="AH44" s="1971"/>
-      <c r="AI44" s="1972"/>
-      <c r="AJ44" s="1973"/>
-      <c r="AK44" s="1974"/>
-      <c r="AL44" s="1975"/>
-      <c r="AM44" s="1976"/>
-      <c r="AN44" s="1977"/>
-      <c r="AO44" s="1978"/>
-      <c r="AP44" s="1979"/>
-      <c r="AQ44" s="1980"/>
-      <c r="AR44" s="1981"/>
-      <c r="AS44" s="1982"/>
-      <c r="AT44" s="1983"/>
-      <c r="AU44" s="1984"/>
-      <c r="AV44" s="1985"/>
-      <c r="AW44" s="1986"/>
+    <row r="44" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="621"/>
+      <c r="B44" s="1983"/>
+      <c r="C44" s="1984"/>
+      <c r="D44" s="1985"/>
+      <c r="E44" s="1986"/>
+      <c r="F44" s="1987"/>
+      <c r="G44" s="1988"/>
+      <c r="H44" s="1989"/>
+      <c r="I44" s="1990"/>
+      <c r="J44" s="1991"/>
+      <c r="K44" s="1992"/>
+      <c r="L44" s="233"/>
+      <c r="M44" s="1993"/>
+      <c r="N44" s="1994"/>
+      <c r="O44" s="1995"/>
+      <c r="P44" s="1996"/>
+      <c r="Q44" s="1997"/>
+      <c r="R44" s="1998"/>
+      <c r="S44" s="1999"/>
+      <c r="T44" s="2000"/>
+      <c r="U44" s="2001"/>
+      <c r="V44" s="2002"/>
+      <c r="W44" s="2003"/>
+      <c r="X44" s="2004"/>
+      <c r="Y44" s="2005"/>
+      <c r="Z44" s="2006"/>
+      <c r="AA44" s="2007"/>
+      <c r="AB44" s="2008"/>
+      <c r="AC44" s="2009"/>
+      <c r="AD44" s="2010"/>
+      <c r="AE44" s="2011"/>
+      <c r="AF44" s="2012"/>
+      <c r="AG44" s="2013"/>
+      <c r="AH44" s="2014"/>
+      <c r="AI44" s="2015"/>
+      <c r="AJ44" s="2016"/>
+      <c r="AK44" s="2017"/>
+      <c r="AL44" s="2018"/>
+      <c r="AM44" s="2019"/>
+      <c r="AN44" s="2020"/>
+      <c r="AO44" s="2021"/>
+      <c r="AP44" s="2022"/>
+      <c r="AQ44" s="2023"/>
+      <c r="AR44" s="2024"/>
+      <c r="AS44" s="2025"/>
+      <c r="AT44" s="2026"/>
+      <c r="AU44" s="2027"/>
+      <c r="AV44" s="2028"/>
+      <c r="AW44" s="2029"/>
+      <c r="AX44" s="2030"/>
     </row>
-    <row r="45" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1987"/>
-      <c r="B45" s="1988"/>
-      <c r="C45" s="1989"/>
-      <c r="D45" s="1990"/>
-      <c r="E45" s="1991"/>
-      <c r="F45" s="1992"/>
-      <c r="G45" s="1993"/>
-      <c r="H45" s="1994"/>
-      <c r="I45" s="1995"/>
-      <c r="J45" s="1996"/>
-      <c r="K45" s="1997"/>
-      <c r="L45" s="1998"/>
-      <c r="M45" s="1999"/>
+    <row r="45" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2031"/>
+      <c r="B45" s="2032"/>
+      <c r="C45" s="2033"/>
+      <c r="D45" s="2034"/>
+      <c r="E45" s="2035"/>
+      <c r="F45" s="2036"/>
+      <c r="G45" s="2037"/>
+      <c r="H45" s="2038"/>
+      <c r="I45" s="2039"/>
+      <c r="J45" s="2040"/>
+      <c r="K45" s="2041"/>
+      <c r="L45" s="2042"/>
+      <c r="M45" s="2043"/>
       <c r="N45" s="43"/>
-      <c r="O45" s="2000"/>
-      <c r="P45" s="2001"/>
-      <c r="Q45" s="2002"/>
-      <c r="R45" s="2003"/>
-      <c r="S45" s="2004"/>
-      <c r="T45" s="2005"/>
-      <c r="U45" s="2006"/>
-      <c r="V45" s="2007"/>
-      <c r="W45" s="2008"/>
-      <c r="X45" s="2009"/>
-      <c r="Y45" s="2010"/>
-      <c r="Z45" s="2011"/>
-      <c r="AA45" s="2012"/>
-      <c r="AB45" s="2013"/>
-      <c r="AC45" s="2014"/>
-      <c r="AD45" s="2015"/>
-      <c r="AE45" s="2016"/>
-      <c r="AF45" s="2017"/>
-      <c r="AG45" s="2018"/>
-      <c r="AH45" s="2019"/>
-      <c r="AI45" s="2020"/>
-      <c r="AJ45" s="2021"/>
-      <c r="AK45" s="2022"/>
-      <c r="AL45" s="2023"/>
-      <c r="AM45" s="2024"/>
-      <c r="AN45" s="2025"/>
-      <c r="AO45" s="2026"/>
-      <c r="AP45" s="2027"/>
-      <c r="AQ45" s="2028"/>
-      <c r="AR45" s="2029"/>
-      <c r="AS45" s="2030"/>
-      <c r="AT45" s="2031"/>
-      <c r="AU45" s="2032"/>
-      <c r="AV45" s="2033"/>
-      <c r="AW45" s="2034"/>
+      <c r="O45" s="2044"/>
+      <c r="P45" s="2045"/>
+      <c r="Q45" s="2046"/>
+      <c r="R45" s="2047"/>
+      <c r="S45" s="2048"/>
+      <c r="T45" s="2049"/>
+      <c r="U45" s="2050"/>
+      <c r="V45" s="2051"/>
+      <c r="W45" s="2052"/>
+      <c r="X45" s="2053"/>
+      <c r="Y45" s="2054"/>
+      <c r="Z45" s="2055"/>
+      <c r="AA45" s="2056"/>
+      <c r="AB45" s="2057"/>
+      <c r="AC45" s="2058"/>
+      <c r="AD45" s="2059"/>
+      <c r="AE45" s="2060"/>
+      <c r="AF45" s="2061"/>
+      <c r="AG45" s="2062"/>
+      <c r="AH45" s="2063"/>
+      <c r="AI45" s="2064"/>
+      <c r="AJ45" s="2065"/>
+      <c r="AK45" s="2066"/>
+      <c r="AL45" s="2067"/>
+      <c r="AM45" s="2068"/>
+      <c r="AN45" s="2069"/>
+      <c r="AO45" s="2070"/>
+      <c r="AP45" s="2071"/>
+      <c r="AQ45" s="2072"/>
+      <c r="AR45" s="2073"/>
+      <c r="AS45" s="2074"/>
+      <c r="AT45" s="2075"/>
+      <c r="AU45" s="2076"/>
+      <c r="AV45" s="2077"/>
+      <c r="AW45" s="2078"/>
+      <c r="AX45" s="2079"/>
     </row>
-    <row r="46" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2035"/>
-      <c r="B46" s="2036"/>
-      <c r="C46" s="2037"/>
-      <c r="D46" s="2038"/>
-      <c r="E46" s="2039"/>
-      <c r="F46" s="2040"/>
-      <c r="G46" s="2041"/>
+    <row r="46" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2080"/>
+      <c r="B46" s="2081"/>
+      <c r="C46" s="2082"/>
+      <c r="D46" s="2083"/>
+      <c r="E46" s="2084"/>
+      <c r="F46" s="2085"/>
+      <c r="G46" s="2086"/>
       <c r="H46" s="43"/>
-      <c r="I46" s="2042"/>
-      <c r="J46" s="2043"/>
-      <c r="K46" s="2044"/>
-      <c r="L46" s="1581"/>
-      <c r="M46" s="278"/>
+      <c r="I46" s="2087"/>
+      <c r="J46" s="2088"/>
+      <c r="K46" s="2089"/>
+      <c r="L46" s="1616"/>
+      <c r="M46" s="283"/>
       <c r="N46" s="19"/>
-      <c r="O46" s="1449"/>
-      <c r="P46" s="2045"/>
-      <c r="Q46" s="2046"/>
-      <c r="R46" s="2047"/>
-      <c r="S46" s="2048"/>
-      <c r="T46" s="2049"/>
-      <c r="U46" s="2050"/>
-      <c r="V46" s="2051"/>
-      <c r="W46" s="2052"/>
-      <c r="X46" s="2053"/>
-      <c r="Y46" s="2054"/>
-      <c r="Z46" s="2055"/>
-      <c r="AA46" s="2056"/>
-      <c r="AB46" s="2057"/>
-      <c r="AC46" s="2058"/>
-      <c r="AD46" s="2059"/>
-      <c r="AE46" s="2060"/>
-      <c r="AF46" s="2061"/>
-      <c r="AG46" s="2062"/>
-      <c r="AH46" s="2063"/>
-      <c r="AI46" s="2064"/>
-      <c r="AJ46" s="2065"/>
-      <c r="AK46" s="2066"/>
-      <c r="AL46" s="2067"/>
-      <c r="AM46" s="2068"/>
-      <c r="AN46" s="2069"/>
-      <c r="AO46" s="2070"/>
-      <c r="AP46" s="2071"/>
-      <c r="AQ46" s="2072"/>
-      <c r="AR46" s="2073"/>
-      <c r="AS46" s="2074"/>
-      <c r="AT46" s="2075"/>
-      <c r="AU46" s="2076"/>
-      <c r="AV46" s="2077"/>
-      <c r="AW46" s="2078"/>
+      <c r="O46" s="1481"/>
+      <c r="P46" s="2090"/>
+      <c r="Q46" s="2091"/>
+      <c r="R46" s="2092"/>
+      <c r="S46" s="2093"/>
+      <c r="T46" s="2094"/>
+      <c r="U46" s="2095"/>
+      <c r="V46" s="2096"/>
+      <c r="W46" s="2097"/>
+      <c r="X46" s="2098"/>
+      <c r="Y46" s="2099"/>
+      <c r="Z46" s="2100"/>
+      <c r="AA46" s="2101"/>
+      <c r="AB46" s="2102"/>
+      <c r="AC46" s="2103"/>
+      <c r="AD46" s="2104"/>
+      <c r="AE46" s="2105"/>
+      <c r="AF46" s="2106"/>
+      <c r="AG46" s="2107"/>
+      <c r="AH46" s="2108"/>
+      <c r="AI46" s="2109"/>
+      <c r="AJ46" s="2110"/>
+      <c r="AK46" s="2111"/>
+      <c r="AL46" s="2112"/>
+      <c r="AM46" s="2113"/>
+      <c r="AN46" s="2114"/>
+      <c r="AO46" s="2115"/>
+      <c r="AP46" s="2116"/>
+      <c r="AQ46" s="2117"/>
+      <c r="AR46" s="2118"/>
+      <c r="AS46" s="2119"/>
+      <c r="AT46" s="2120"/>
+      <c r="AU46" s="2121"/>
+      <c r="AV46" s="2122"/>
+      <c r="AW46" s="2123"/>
+      <c r="AX46" s="2124"/>
     </row>
-    <row r="47" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2079"/>
-      <c r="B47" s="2080"/>
-      <c r="C47" s="2081"/>
-      <c r="D47" s="2082"/>
-      <c r="E47" s="2083"/>
-      <c r="F47" s="2084"/>
-      <c r="G47" s="2085"/>
-      <c r="H47" s="802"/>
-      <c r="I47" s="2086"/>
-      <c r="J47" s="2087"/>
-      <c r="K47" s="2088"/>
-      <c r="L47" s="2089"/>
-      <c r="M47" s="229"/>
-      <c r="N47" s="114"/>
+    <row r="47" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2125"/>
+      <c r="B47" s="2126"/>
+      <c r="C47" s="2127"/>
+      <c r="D47" s="2128"/>
+      <c r="E47" s="2129"/>
+      <c r="F47" s="2130"/>
+      <c r="G47" s="2131"/>
+      <c r="H47" s="819"/>
+      <c r="I47" s="2132"/>
+      <c r="J47" s="2133"/>
+      <c r="K47" s="2134"/>
+      <c r="L47" s="2135"/>
+      <c r="M47" s="233"/>
+      <c r="N47" s="116"/>
       <c r="O47" s="22"/>
-      <c r="P47" s="2090"/>
-      <c r="Q47" s="2091"/>
-      <c r="R47" s="2092"/>
-      <c r="S47" s="2093"/>
-      <c r="T47" s="2094"/>
-      <c r="U47" s="2095"/>
-      <c r="V47" s="2096"/>
-      <c r="W47" s="2097"/>
-      <c r="X47" s="2098"/>
-      <c r="Y47" s="2099"/>
-      <c r="Z47" s="2100"/>
-      <c r="AA47" s="2101"/>
-      <c r="AB47" s="2102"/>
-      <c r="AC47" s="2103"/>
-      <c r="AD47" s="2104"/>
-      <c r="AE47" s="2105"/>
-      <c r="AF47" s="2106"/>
-      <c r="AG47" s="2107"/>
-      <c r="AH47" s="2108"/>
-      <c r="AI47" s="2109"/>
-      <c r="AJ47" s="2110"/>
-      <c r="AK47" s="2111"/>
-      <c r="AL47" s="2112"/>
-      <c r="AM47" s="2113"/>
-      <c r="AN47" s="2114"/>
-      <c r="AO47" s="2115"/>
-      <c r="AP47" s="2116"/>
-      <c r="AQ47" s="2117"/>
-      <c r="AR47" s="2118"/>
-      <c r="AS47" s="2119"/>
-      <c r="AT47" s="2120"/>
-      <c r="AU47" s="2121"/>
-      <c r="AV47" s="2122"/>
-      <c r="AW47" s="2123"/>
+      <c r="P47" s="2136"/>
+      <c r="Q47" s="2137"/>
+      <c r="R47" s="2138"/>
+      <c r="S47" s="2139"/>
+      <c r="T47" s="2140"/>
+      <c r="U47" s="2141"/>
+      <c r="V47" s="2142"/>
+      <c r="W47" s="2143"/>
+      <c r="X47" s="2144"/>
+      <c r="Y47" s="2145"/>
+      <c r="Z47" s="2146"/>
+      <c r="AA47" s="2147"/>
+      <c r="AB47" s="2148"/>
+      <c r="AC47" s="2149"/>
+      <c r="AD47" s="2150"/>
+      <c r="AE47" s="2151"/>
+      <c r="AF47" s="2152"/>
+      <c r="AG47" s="2153"/>
+      <c r="AH47" s="2154"/>
+      <c r="AI47" s="2155"/>
+      <c r="AJ47" s="2156"/>
+      <c r="AK47" s="2157"/>
+      <c r="AL47" s="2158"/>
+      <c r="AM47" s="2159"/>
+      <c r="AN47" s="2160"/>
+      <c r="AO47" s="2161"/>
+      <c r="AP47" s="2162"/>
+      <c r="AQ47" s="2163"/>
+      <c r="AR47" s="2164"/>
+      <c r="AS47" s="2165"/>
+      <c r="AT47" s="2166"/>
+      <c r="AU47" s="2167"/>
+      <c r="AV47" s="2168"/>
+      <c r="AW47" s="2169"/>
+      <c r="AX47" s="2170"/>
     </row>
-    <row r="48" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2124"/>
-      <c r="B48" s="2125"/>
-      <c r="C48" s="2126"/>
-      <c r="D48" s="2127"/>
-      <c r="E48" s="2128"/>
-      <c r="F48" s="2129"/>
-      <c r="G48" s="2130"/>
-      <c r="H48" s="2131"/>
-      <c r="I48" s="2132"/>
-      <c r="J48" s="2133"/>
-      <c r="K48" s="2134"/>
-      <c r="L48" s="2135"/>
-      <c r="M48" s="2136"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="2137"/>
-      <c r="P48" s="702"/>
-      <c r="Q48" s="2138"/>
-      <c r="R48" s="2139"/>
-      <c r="S48" s="2140"/>
-      <c r="T48" s="2141"/>
-      <c r="U48" s="2142"/>
-      <c r="V48" s="2143"/>
-      <c r="W48" s="2144"/>
-      <c r="X48" s="2145"/>
-      <c r="Y48" s="2146"/>
-      <c r="Z48" s="2147"/>
-      <c r="AA48" s="2148"/>
-      <c r="AB48" s="2149"/>
-      <c r="AC48" s="2150"/>
-      <c r="AD48" s="2151"/>
-      <c r="AE48" s="2152"/>
-      <c r="AF48" s="2153"/>
-      <c r="AG48" s="2154"/>
-      <c r="AH48" s="2155"/>
-      <c r="AI48" s="2156"/>
-      <c r="AJ48" s="2157"/>
-      <c r="AK48" s="2158"/>
-      <c r="AL48" s="2159"/>
-      <c r="AM48" s="2160"/>
-      <c r="AN48" s="2161"/>
-      <c r="AO48" s="2162"/>
-      <c r="AP48" s="2163"/>
-      <c r="AQ48" s="2164"/>
-      <c r="AR48" s="702"/>
-      <c r="AS48" s="2165"/>
-      <c r="AT48" s="2166"/>
-      <c r="AU48" s="2167"/>
-      <c r="AV48" s="2168"/>
-      <c r="AW48" s="2169"/>
+    <row r="48" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2171"/>
+      <c r="B48" s="2172"/>
+      <c r="C48" s="2173"/>
+      <c r="D48" s="2174"/>
+      <c r="E48" s="2175"/>
+      <c r="F48" s="2176"/>
+      <c r="G48" s="2177"/>
+      <c r="H48" s="2178"/>
+      <c r="I48" s="2179"/>
+      <c r="J48" s="2180"/>
+      <c r="K48" s="2181"/>
+      <c r="L48" s="2182"/>
+      <c r="M48" s="2183"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="2184"/>
+      <c r="P48" s="717"/>
+      <c r="Q48" s="2185"/>
+      <c r="R48" s="2186"/>
+      <c r="S48" s="2187"/>
+      <c r="T48" s="2188"/>
+      <c r="U48" s="2189"/>
+      <c r="V48" s="2190"/>
+      <c r="W48" s="2191"/>
+      <c r="X48" s="2192"/>
+      <c r="Y48" s="2193"/>
+      <c r="Z48" s="2194"/>
+      <c r="AA48" s="2195"/>
+      <c r="AB48" s="2196"/>
+      <c r="AC48" s="2197"/>
+      <c r="AD48" s="2198"/>
+      <c r="AE48" s="2199"/>
+      <c r="AF48" s="2200"/>
+      <c r="AG48" s="2201"/>
+      <c r="AH48" s="2202"/>
+      <c r="AI48" s="2203"/>
+      <c r="AJ48" s="2204"/>
+      <c r="AK48" s="2205"/>
+      <c r="AL48" s="2206"/>
+      <c r="AM48" s="2207"/>
+      <c r="AN48" s="2208"/>
+      <c r="AO48" s="2209"/>
+      <c r="AP48" s="2210"/>
+      <c r="AQ48" s="2211"/>
+      <c r="AR48" s="717"/>
+      <c r="AS48" s="2212"/>
+      <c r="AT48" s="2213"/>
+      <c r="AU48" s="2214"/>
+      <c r="AV48" s="2215"/>
+      <c r="AW48" s="2216"/>
+      <c r="AX48" s="2217"/>
     </row>
-    <row r="49" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2170"/>
-      <c r="B49" s="2171"/>
-      <c r="C49" s="2172"/>
-      <c r="D49" s="2173"/>
-      <c r="E49" s="2174"/>
-      <c r="F49" s="2175"/>
-      <c r="G49" s="1482"/>
-      <c r="H49" s="2176"/>
-      <c r="I49" s="2177"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="2178"/>
-      <c r="L49" s="2179"/>
-      <c r="M49" s="2180"/>
-      <c r="N49" s="608"/>
-      <c r="O49" s="2181"/>
-      <c r="P49" s="2182"/>
-      <c r="Q49" s="2183"/>
-      <c r="R49" s="2184"/>
-      <c r="S49" s="2185"/>
-      <c r="T49" s="2186"/>
-      <c r="U49" s="2187"/>
-      <c r="V49" s="2188"/>
-      <c r="W49" s="2189"/>
-      <c r="X49" s="2190"/>
-      <c r="Y49" s="2191"/>
-      <c r="Z49" s="2192"/>
-      <c r="AA49" s="2193"/>
-      <c r="AB49" s="2194"/>
-      <c r="AC49" s="2195"/>
-      <c r="AD49" s="2196"/>
-      <c r="AE49" s="132"/>
-      <c r="AF49" s="2197"/>
-      <c r="AG49" s="2198"/>
-      <c r="AH49" s="2199"/>
-      <c r="AI49" s="2200"/>
-      <c r="AJ49" s="2201"/>
-      <c r="AK49" s="2202"/>
-      <c r="AL49" s="2203"/>
-      <c r="AM49" s="2204"/>
-      <c r="AN49" s="2205"/>
-      <c r="AO49" s="2206"/>
-      <c r="AP49" s="2207"/>
-      <c r="AQ49" s="2208"/>
-      <c r="AR49" s="2209"/>
-      <c r="AS49" s="2210"/>
-      <c r="AT49" s="2211"/>
-      <c r="AU49" s="2212"/>
-      <c r="AV49" s="2213"/>
-      <c r="AW49" s="2214"/>
+    <row r="49" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2218"/>
+      <c r="B49" s="2219"/>
+      <c r="C49" s="2220"/>
+      <c r="D49" s="2221"/>
+      <c r="E49" s="2222"/>
+      <c r="F49" s="2223"/>
+      <c r="G49" s="1514"/>
+      <c r="H49" s="2224"/>
+      <c r="I49" s="2225"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="2226"/>
+      <c r="L49" s="2227"/>
+      <c r="M49" s="2228"/>
+      <c r="N49" s="621"/>
+      <c r="O49" s="2229"/>
+      <c r="P49" s="2230"/>
+      <c r="Q49" s="2231"/>
+      <c r="R49" s="2232"/>
+      <c r="S49" s="2233"/>
+      <c r="T49" s="2234"/>
+      <c r="U49" s="2235"/>
+      <c r="V49" s="2236"/>
+      <c r="W49" s="2237"/>
+      <c r="X49" s="2238"/>
+      <c r="Y49" s="2239"/>
+      <c r="Z49" s="2240"/>
+      <c r="AA49" s="2241"/>
+      <c r="AB49" s="2242"/>
+      <c r="AC49" s="2243"/>
+      <c r="AD49" s="2244"/>
+      <c r="AE49" s="134"/>
+      <c r="AF49" s="2245"/>
+      <c r="AG49" s="2246"/>
+      <c r="AH49" s="2247"/>
+      <c r="AI49" s="2248"/>
+      <c r="AJ49" s="2249"/>
+      <c r="AK49" s="2250"/>
+      <c r="AL49" s="2251"/>
+      <c r="AM49" s="2252"/>
+      <c r="AN49" s="2253"/>
+      <c r="AO49" s="2254"/>
+      <c r="AP49" s="2255"/>
+      <c r="AQ49" s="2256"/>
+      <c r="AR49" s="2257"/>
+      <c r="AS49" s="2258"/>
+      <c r="AT49" s="2259"/>
+      <c r="AU49" s="2260"/>
+      <c r="AV49" s="2261"/>
+      <c r="AW49" s="2262"/>
+      <c r="AX49" s="2263"/>
     </row>
-    <row r="50" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2215"/>
-      <c r="B50" s="2216"/>
-      <c r="C50" s="2217"/>
-      <c r="D50" s="2218"/>
-      <c r="E50" s="2219"/>
-      <c r="F50" s="2220"/>
-      <c r="G50" s="2221"/>
-      <c r="H50" s="2222"/>
-      <c r="I50" s="2223"/>
-      <c r="J50" s="608"/>
-      <c r="K50" s="2224"/>
-      <c r="L50" s="2225"/>
-      <c r="M50" s="2226"/>
-      <c r="N50" s="252"/>
-      <c r="O50" s="1404"/>
-      <c r="P50" s="1446"/>
-      <c r="Q50" s="1361"/>
-      <c r="R50" s="2227"/>
-      <c r="S50" s="2228"/>
-      <c r="T50" s="2229"/>
-      <c r="U50" s="2230"/>
-      <c r="V50" s="2231"/>
-      <c r="W50" s="2232"/>
-      <c r="X50" s="2233"/>
-      <c r="Y50" s="2234"/>
-      <c r="Z50" s="2235"/>
-      <c r="AA50" s="2236"/>
-      <c r="AB50" s="2237"/>
-      <c r="AC50" s="2238"/>
+    <row r="50" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2264"/>
+      <c r="B50" s="2265"/>
+      <c r="C50" s="2266"/>
+      <c r="D50" s="2267"/>
+      <c r="E50" s="2268"/>
+      <c r="F50" s="2269"/>
+      <c r="G50" s="2270"/>
+      <c r="H50" s="2271"/>
+      <c r="I50" s="2272"/>
+      <c r="J50" s="621"/>
+      <c r="K50" s="2273"/>
+      <c r="L50" s="2274"/>
+      <c r="M50" s="2275"/>
+      <c r="N50" s="257"/>
+      <c r="O50" s="1435"/>
+      <c r="P50" s="1478"/>
+      <c r="Q50" s="1391"/>
+      <c r="R50" s="2276"/>
+      <c r="S50" s="2277"/>
+      <c r="T50" s="2278"/>
+      <c r="U50" s="2279"/>
+      <c r="V50" s="2280"/>
+      <c r="W50" s="2281"/>
+      <c r="X50" s="2282"/>
+      <c r="Y50" s="2283"/>
+      <c r="Z50" s="2284"/>
+      <c r="AA50" s="2285"/>
+      <c r="AB50" s="2286"/>
+      <c r="AC50" s="2287"/>
       <c r="AD50" s="34"/>
-      <c r="AE50" s="2239"/>
-      <c r="AF50" s="2240"/>
-      <c r="AG50" s="2241"/>
-      <c r="AH50" s="2242"/>
-      <c r="AI50" s="2243"/>
-      <c r="AJ50" s="2244"/>
-      <c r="AK50" s="2245"/>
-      <c r="AL50" s="2246"/>
-      <c r="AM50" s="2247"/>
-      <c r="AN50" s="2248"/>
-      <c r="AO50" s="2249"/>
-      <c r="AP50" s="2250"/>
-      <c r="AQ50" s="2251"/>
-      <c r="AR50" s="2252"/>
-      <c r="AS50" s="2253"/>
-      <c r="AT50" s="2254"/>
-      <c r="AU50" s="2255"/>
-      <c r="AV50" s="2256"/>
-      <c r="AW50" s="2257"/>
+      <c r="AE50" s="2288"/>
+      <c r="AF50" s="2289"/>
+      <c r="AG50" s="2290"/>
+      <c r="AH50" s="2291"/>
+      <c r="AI50" s="2292"/>
+      <c r="AJ50" s="2293"/>
+      <c r="AK50" s="2294"/>
+      <c r="AL50" s="2295"/>
+      <c r="AM50" s="2296"/>
+      <c r="AN50" s="2297"/>
+      <c r="AO50" s="2298"/>
+      <c r="AP50" s="2299"/>
+      <c r="AQ50" s="2300"/>
+      <c r="AR50" s="2301"/>
+      <c r="AS50" s="2302"/>
+      <c r="AT50" s="2303"/>
+      <c r="AU50" s="2304"/>
+      <c r="AV50" s="2305"/>
+      <c r="AW50" s="2306"/>
+      <c r="AX50" s="2307"/>
     </row>
-    <row r="51" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2258"/>
-      <c r="B51" s="2259"/>
-      <c r="C51" s="2260"/>
-      <c r="D51" s="2261"/>
-      <c r="E51" s="2262"/>
-      <c r="F51" s="2263"/>
-      <c r="G51" s="2264"/>
-      <c r="H51" s="2265"/>
-      <c r="I51" s="2266"/>
-      <c r="J51" s="1403"/>
-      <c r="K51" s="2267"/>
-      <c r="L51" s="2268"/>
-      <c r="M51" s="2269"/>
-      <c r="N51" s="1139"/>
-      <c r="O51" s="1445"/>
-      <c r="P51" s="2270"/>
-      <c r="Q51" s="166"/>
-      <c r="R51" s="2271"/>
-      <c r="S51" s="2272"/>
-      <c r="T51" s="2273"/>
-      <c r="U51" s="2274"/>
-      <c r="V51" s="2275"/>
-      <c r="W51" s="2276"/>
-      <c r="X51" s="2277"/>
-      <c r="Y51" s="2278"/>
-      <c r="Z51" s="2279"/>
-      <c r="AA51" s="2280"/>
-      <c r="AB51" s="2281"/>
+    <row r="51" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2308"/>
+      <c r="B51" s="2309"/>
+      <c r="C51" s="2310"/>
+      <c r="D51" s="2311"/>
+      <c r="E51" s="2312"/>
+      <c r="F51" s="2313"/>
+      <c r="G51" s="2314"/>
+      <c r="H51" s="2315"/>
+      <c r="I51" s="2316"/>
+      <c r="J51" s="1434"/>
+      <c r="K51" s="2317"/>
+      <c r="L51" s="2318"/>
+      <c r="M51" s="2319"/>
+      <c r="N51" s="1164"/>
+      <c r="O51" s="1477"/>
+      <c r="P51" s="2320"/>
+      <c r="Q51" s="169"/>
+      <c r="R51" s="2321"/>
+      <c r="S51" s="2322"/>
+      <c r="T51" s="2323"/>
+      <c r="U51" s="2324"/>
+      <c r="V51" s="2325"/>
+      <c r="W51" s="2326"/>
+      <c r="X51" s="2327"/>
+      <c r="Y51" s="2328"/>
+      <c r="Z51" s="2329"/>
+      <c r="AA51" s="2330"/>
+      <c r="AB51" s="2331"/>
       <c r="AC51" s="34"/>
-      <c r="AD51" s="472"/>
-      <c r="AE51" s="2282"/>
-      <c r="AF51" s="2283"/>
-      <c r="AG51" s="2284"/>
-      <c r="AH51" s="2285"/>
-      <c r="AI51" s="2286"/>
-      <c r="AJ51" s="2287"/>
-      <c r="AK51" s="2288"/>
-      <c r="AL51" s="2289"/>
-      <c r="AM51" s="2290"/>
-      <c r="AN51" s="2291"/>
-      <c r="AO51" s="2292"/>
-      <c r="AP51" s="2293"/>
-      <c r="AQ51" s="2294"/>
-      <c r="AR51" s="2295"/>
-      <c r="AS51" s="2296"/>
-      <c r="AT51" s="2297"/>
-      <c r="AU51" s="2298"/>
-      <c r="AV51" s="2299"/>
-      <c r="AW51" s="2300"/>
+      <c r="AD51" s="482"/>
+      <c r="AE51" s="2332"/>
+      <c r="AF51" s="2333"/>
+      <c r="AG51" s="2334"/>
+      <c r="AH51" s="2335"/>
+      <c r="AI51" s="2336"/>
+      <c r="AJ51" s="2337"/>
+      <c r="AK51" s="2338"/>
+      <c r="AL51" s="2339"/>
+      <c r="AM51" s="2340"/>
+      <c r="AN51" s="2341"/>
+      <c r="AO51" s="2342"/>
+      <c r="AP51" s="2343"/>
+      <c r="AQ51" s="2344"/>
+      <c r="AR51" s="2345"/>
+      <c r="AS51" s="2346"/>
+      <c r="AT51" s="2347"/>
+      <c r="AU51" s="2348"/>
+      <c r="AV51" s="2349"/>
+      <c r="AW51" s="2350"/>
+      <c r="AX51" s="2351"/>
     </row>
-    <row r="52" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2301"/>
-      <c r="B52" s="2302"/>
-      <c r="C52" s="2303"/>
-      <c r="D52" s="2304"/>
-      <c r="E52" s="2305"/>
-      <c r="F52" s="2306"/>
-      <c r="G52" s="2307"/>
-      <c r="H52" s="2308"/>
-      <c r="I52" s="2309"/>
-      <c r="J52" s="1447"/>
-      <c r="K52" s="2310"/>
-      <c r="L52" s="2311"/>
-      <c r="M52" s="2312"/>
-      <c r="N52" s="2313"/>
-      <c r="O52" s="840"/>
-      <c r="P52" s="2314"/>
-      <c r="Q52" s="2315"/>
-      <c r="R52" s="2316"/>
-      <c r="S52" s="2317"/>
-      <c r="T52" s="2318"/>
-      <c r="U52" s="2319"/>
-      <c r="V52" s="2320"/>
-      <c r="W52" s="2321"/>
-      <c r="X52" s="2322"/>
-      <c r="Y52" s="2323"/>
-      <c r="Z52" s="2324"/>
-      <c r="AA52" s="2325"/>
+    <row r="52" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2352"/>
+      <c r="B52" s="2353"/>
+      <c r="C52" s="2354"/>
+      <c r="D52" s="2355"/>
+      <c r="E52" s="2356"/>
+      <c r="F52" s="2357"/>
+      <c r="G52" s="2358"/>
+      <c r="H52" s="2359"/>
+      <c r="I52" s="2360"/>
+      <c r="J52" s="1479"/>
+      <c r="K52" s="2361"/>
+      <c r="L52" s="2362"/>
+      <c r="M52" s="2363"/>
+      <c r="N52" s="2364"/>
+      <c r="O52" s="858"/>
+      <c r="P52" s="2365"/>
+      <c r="Q52" s="2366"/>
+      <c r="R52" s="2367"/>
+      <c r="S52" s="2368"/>
+      <c r="T52" s="2369"/>
+      <c r="U52" s="2370"/>
+      <c r="V52" s="2371"/>
+      <c r="W52" s="2372"/>
+      <c r="X52" s="2373"/>
+      <c r="Y52" s="2374"/>
+      <c r="Z52" s="2375"/>
+      <c r="AA52" s="2376"/>
       <c r="AB52" s="34"/>
-      <c r="AC52" s="656"/>
-      <c r="AD52" s="75"/>
-      <c r="AE52" s="2326"/>
-      <c r="AF52" s="2327"/>
-      <c r="AG52" s="2328"/>
-      <c r="AH52" s="2329"/>
-      <c r="AI52" s="2330"/>
-      <c r="AJ52" s="2331"/>
-      <c r="AK52" s="2332"/>
-      <c r="AL52" s="2333"/>
-      <c r="AM52" s="2334"/>
-      <c r="AN52" s="2335"/>
-      <c r="AO52" s="2336"/>
-      <c r="AP52" s="516"/>
+      <c r="AC52" s="670"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="2377"/>
+      <c r="AF52" s="2378"/>
+      <c r="AG52" s="2379"/>
+      <c r="AH52" s="2380"/>
+      <c r="AI52" s="2381"/>
+      <c r="AJ52" s="2382"/>
+      <c r="AK52" s="2383"/>
+      <c r="AL52" s="2384"/>
+      <c r="AM52" s="2385"/>
+      <c r="AN52" s="2386"/>
+      <c r="AO52" s="2387"/>
+      <c r="AP52" s="527"/>
       <c r="AQ52" s="34"/>
-      <c r="AR52" s="336"/>
+      <c r="AR52" s="343"/>
       <c r="AS52" s="34"/>
-      <c r="AT52" s="341"/>
-      <c r="AU52" s="2337"/>
-      <c r="AV52" s="2338"/>
-      <c r="AW52" s="2339"/>
+      <c r="AT52" s="348"/>
+      <c r="AU52" s="2388"/>
+      <c r="AV52" s="2389"/>
+      <c r="AW52" s="2390"/>
+      <c r="AX52" s="2391"/>
     </row>
-    <row r="53" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2340"/>
-      <c r="B53" s="2341"/>
-      <c r="C53" s="2342"/>
-      <c r="D53" s="2343"/>
-      <c r="E53" s="2344"/>
-      <c r="F53" s="2345"/>
-      <c r="G53" s="2346"/>
-      <c r="H53" s="2347"/>
-      <c r="I53" s="2348"/>
-      <c r="J53" s="1447"/>
-      <c r="K53" s="2349"/>
-      <c r="L53" s="2350"/>
-      <c r="M53" s="1365"/>
-      <c r="N53" s="2351"/>
-      <c r="O53" s="2352"/>
-      <c r="P53" s="252"/>
-      <c r="Q53" s="2353"/>
-      <c r="R53" s="2354"/>
-      <c r="S53" s="2355"/>
-      <c r="T53" s="2356"/>
-      <c r="U53" s="2357"/>
-      <c r="V53" s="2358"/>
-      <c r="W53" s="2359"/>
-      <c r="X53" s="2360"/>
-      <c r="Y53" s="2361"/>
-      <c r="Z53" s="2362"/>
-      <c r="AA53" s="230"/>
-      <c r="AB53" s="91"/>
-      <c r="AC53" s="2363"/>
-      <c r="AD53" s="471"/>
-      <c r="AE53" s="2364"/>
-      <c r="AF53" s="2365"/>
-      <c r="AG53" s="2366"/>
-      <c r="AH53" s="2367"/>
-      <c r="AI53" s="2368"/>
-      <c r="AJ53" s="2369"/>
-      <c r="AK53" s="2370"/>
-      <c r="AL53" s="2371"/>
-      <c r="AM53" s="2372"/>
-      <c r="AN53" s="2373"/>
-      <c r="AO53" s="2374"/>
-      <c r="AP53" s="2375"/>
-      <c r="AQ53" s="2376"/>
+    <row r="53" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2392"/>
+      <c r="B53" s="2393"/>
+      <c r="C53" s="2394"/>
+      <c r="D53" s="2395"/>
+      <c r="E53" s="2396"/>
+      <c r="F53" s="2397"/>
+      <c r="G53" s="2398"/>
+      <c r="H53" s="2399"/>
+      <c r="I53" s="2400"/>
+      <c r="J53" s="1479"/>
+      <c r="K53" s="2401"/>
+      <c r="L53" s="2402"/>
+      <c r="M53" s="1395"/>
+      <c r="N53" s="2403"/>
+      <c r="O53" s="2404"/>
+      <c r="P53" s="257"/>
+      <c r="Q53" s="2405"/>
+      <c r="R53" s="2406"/>
+      <c r="S53" s="2407"/>
+      <c r="T53" s="2408"/>
+      <c r="U53" s="2409"/>
+      <c r="V53" s="2410"/>
+      <c r="W53" s="2411"/>
+      <c r="X53" s="2412"/>
+      <c r="Y53" s="2413"/>
+      <c r="Z53" s="2414"/>
+      <c r="AA53" s="234"/>
+      <c r="AB53" s="92"/>
+      <c r="AC53" s="2415"/>
+      <c r="AD53" s="481"/>
+      <c r="AE53" s="2416"/>
+      <c r="AF53" s="2417"/>
+      <c r="AG53" s="2418"/>
+      <c r="AH53" s="2419"/>
+      <c r="AI53" s="2420"/>
+      <c r="AJ53" s="2421"/>
+      <c r="AK53" s="2422"/>
+      <c r="AL53" s="2423"/>
+      <c r="AM53" s="2424"/>
+      <c r="AN53" s="2425"/>
+      <c r="AO53" s="2426"/>
+      <c r="AP53" s="2427"/>
+      <c r="AQ53" s="2428"/>
       <c r="AR53" s="39"/>
-      <c r="AS53" s="151"/>
-      <c r="AT53" s="2377"/>
-      <c r="AU53" s="230"/>
-      <c r="AV53" s="2378"/>
-      <c r="AW53" s="2379"/>
+      <c r="AS53" s="154"/>
+      <c r="AT53" s="2429"/>
+      <c r="AU53" s="234"/>
+      <c r="AV53" s="2430"/>
+      <c r="AW53" s="2431"/>
+      <c r="AX53" s="2432"/>
     </row>
-    <row r="54" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2380"/>
-      <c r="B54" s="2381"/>
-      <c r="C54" s="2382"/>
-      <c r="D54" s="2383"/>
-      <c r="E54" s="2384"/>
-      <c r="F54" s="2385"/>
-      <c r="G54" s="2386"/>
-      <c r="H54" s="2387"/>
-      <c r="I54" s="2388"/>
-      <c r="J54" s="702"/>
-      <c r="K54" s="2389"/>
-      <c r="L54" s="2390"/>
-      <c r="M54" s="229"/>
-      <c r="N54" s="2391"/>
-      <c r="O54" s="2392"/>
-      <c r="P54" s="2393"/>
-      <c r="Q54" s="2394"/>
-      <c r="R54" s="2395"/>
-      <c r="S54" s="2396"/>
-      <c r="T54" s="2397"/>
-      <c r="U54" s="2398"/>
-      <c r="V54" s="2399"/>
-      <c r="W54" s="2400"/>
-      <c r="X54" s="2401"/>
-      <c r="Y54" s="2402"/>
-      <c r="Z54" s="2403"/>
-      <c r="AA54" s="2404"/>
-      <c r="AB54" s="2405"/>
-      <c r="AC54" s="335"/>
-      <c r="AD54" s="2387"/>
-      <c r="AE54" s="2406"/>
-      <c r="AF54" s="2407"/>
-      <c r="AG54" s="2408"/>
-      <c r="AH54" s="2409"/>
-      <c r="AI54" s="2410"/>
-      <c r="AJ54" s="2411"/>
-      <c r="AK54" s="2412"/>
-      <c r="AL54" s="2413"/>
-      <c r="AM54" s="2414"/>
-      <c r="AN54" s="2415"/>
-      <c r="AO54" s="2416"/>
-      <c r="AP54" s="2417"/>
-      <c r="AQ54" s="2418"/>
-      <c r="AR54" s="2419"/>
+    <row r="54" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2433"/>
+      <c r="B54" s="2434"/>
+      <c r="C54" s="2435"/>
+      <c r="D54" s="2436"/>
+      <c r="E54" s="2437"/>
+      <c r="F54" s="2438"/>
+      <c r="G54" s="2439"/>
+      <c r="H54" s="2440"/>
+      <c r="I54" s="2441"/>
+      <c r="J54" s="717"/>
+      <c r="K54" s="2442"/>
+      <c r="L54" s="2443"/>
+      <c r="M54" s="233"/>
+      <c r="N54" s="2444"/>
+      <c r="O54" s="2445"/>
+      <c r="P54" s="2446"/>
+      <c r="Q54" s="2447"/>
+      <c r="R54" s="2448"/>
+      <c r="S54" s="2449"/>
+      <c r="T54" s="2450"/>
+      <c r="U54" s="2451"/>
+      <c r="V54" s="2452"/>
+      <c r="W54" s="2453"/>
+      <c r="X54" s="2454"/>
+      <c r="Y54" s="2455"/>
+      <c r="Z54" s="2456"/>
+      <c r="AA54" s="2457"/>
+      <c r="AB54" s="2458"/>
+      <c r="AC54" s="342"/>
+      <c r="AD54" s="2440"/>
+      <c r="AE54" s="2459"/>
+      <c r="AF54" s="2460"/>
+      <c r="AG54" s="2461"/>
+      <c r="AH54" s="2462"/>
+      <c r="AI54" s="2463"/>
+      <c r="AJ54" s="2464"/>
+      <c r="AK54" s="2465"/>
+      <c r="AL54" s="2466"/>
+      <c r="AM54" s="2467"/>
+      <c r="AN54" s="2468"/>
+      <c r="AO54" s="2469"/>
+      <c r="AP54" s="2470"/>
+      <c r="AQ54" s="2471"/>
+      <c r="AR54" s="2472"/>
       <c r="AS54" s="43"/>
-      <c r="AT54" s="2420"/>
-      <c r="AU54" s="2421"/>
-      <c r="AV54" s="2422"/>
-      <c r="AW54" s="2423"/>
+      <c r="AT54" s="2473"/>
+      <c r="AU54" s="2474"/>
+      <c r="AV54" s="2475"/>
+      <c r="AW54" s="2476"/>
+      <c r="AX54" s="2477"/>
     </row>
-    <row r="55" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2424"/>
-      <c r="B55" s="2425"/>
-      <c r="C55" s="516"/>
-      <c r="D55" s="229"/>
-      <c r="E55" s="2426"/>
-      <c r="F55" s="252"/>
-      <c r="G55" s="2427"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="608"/>
-      <c r="K55" s="2428"/>
-      <c r="L55" s="2429"/>
-      <c r="M55" s="1361"/>
-      <c r="N55" s="2430"/>
-      <c r="O55" s="2431"/>
-      <c r="P55" s="2432"/>
-      <c r="Q55" s="2433"/>
-      <c r="R55" s="2434"/>
-      <c r="S55" s="2435"/>
-      <c r="T55" s="2436"/>
-      <c r="U55" s="2437"/>
-      <c r="V55" s="2436"/>
-      <c r="W55" s="2438"/>
-      <c r="X55" s="2439"/>
-      <c r="Y55" s="2440"/>
-      <c r="Z55" s="2441"/>
-      <c r="AA55" s="2442"/>
-      <c r="AB55" s="2443"/>
-      <c r="AC55" s="746"/>
-      <c r="AD55" s="2444"/>
-      <c r="AE55" s="702"/>
-      <c r="AF55" s="2445"/>
-      <c r="AG55" s="2446"/>
-      <c r="AH55" s="2447"/>
-      <c r="AI55" s="2448"/>
-      <c r="AJ55" s="2449"/>
-      <c r="AK55" s="2450"/>
-      <c r="AL55" s="2451"/>
-      <c r="AM55" s="2452"/>
-      <c r="AN55" s="2453"/>
-      <c r="AO55" s="2454"/>
-      <c r="AP55" s="2455"/>
-      <c r="AQ55" s="2456"/>
-      <c r="AR55" s="2457"/>
-      <c r="AS55" s="2458"/>
-      <c r="AT55" s="2459"/>
-      <c r="AU55" s="2460"/>
-      <c r="AV55" s="2461"/>
-      <c r="AW55" s="2462"/>
+    <row r="55" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2478"/>
+      <c r="B55" s="2479"/>
+      <c r="C55" s="527"/>
+      <c r="D55" s="233"/>
+      <c r="E55" s="2480"/>
+      <c r="F55" s="257"/>
+      <c r="G55" s="2481"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="621"/>
+      <c r="K55" s="2482"/>
+      <c r="L55" s="2483"/>
+      <c r="M55" s="1391"/>
+      <c r="N55" s="2484"/>
+      <c r="O55" s="2485"/>
+      <c r="P55" s="2486"/>
+      <c r="Q55" s="2487"/>
+      <c r="R55" s="2488"/>
+      <c r="S55" s="2489"/>
+      <c r="T55" s="2490"/>
+      <c r="U55" s="2491"/>
+      <c r="V55" s="2490"/>
+      <c r="W55" s="2492"/>
+      <c r="X55" s="2493"/>
+      <c r="Y55" s="2494"/>
+      <c r="Z55" s="2495"/>
+      <c r="AA55" s="2496"/>
+      <c r="AB55" s="2497"/>
+      <c r="AC55" s="762"/>
+      <c r="AD55" s="2498"/>
+      <c r="AE55" s="717"/>
+      <c r="AF55" s="2499"/>
+      <c r="AG55" s="2500"/>
+      <c r="AH55" s="2501"/>
+      <c r="AI55" s="2502"/>
+      <c r="AJ55" s="2503"/>
+      <c r="AK55" s="2504"/>
+      <c r="AL55" s="2505"/>
+      <c r="AM55" s="2506"/>
+      <c r="AN55" s="2507"/>
+      <c r="AO55" s="2508"/>
+      <c r="AP55" s="2509"/>
+      <c r="AQ55" s="2510"/>
+      <c r="AR55" s="2511"/>
+      <c r="AS55" s="2512"/>
+      <c r="AT55" s="2513"/>
+      <c r="AU55" s="2514"/>
+      <c r="AV55" s="2515"/>
+      <c r="AW55" s="2516"/>
+      <c r="AX55" s="2517"/>
     </row>
-    <row r="56" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2463"/>
-      <c r="B56" s="2464"/>
-      <c r="C56" s="834"/>
-      <c r="D56" s="252"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="2465"/>
-      <c r="G56" s="2466"/>
-      <c r="H56" s="2467"/>
-      <c r="I56" s="2468"/>
-      <c r="J56" s="336"/>
-      <c r="K56" s="2469"/>
-      <c r="L56" s="2470"/>
-      <c r="M56" s="2471"/>
-      <c r="N56" s="1047"/>
-      <c r="O56" s="2472"/>
-      <c r="P56" s="2473"/>
-      <c r="Q56" s="2474"/>
-      <c r="R56" s="2475"/>
-      <c r="S56" s="2476"/>
-      <c r="T56" s="2477"/>
-      <c r="U56" s="2478"/>
-      <c r="V56" s="2479"/>
-      <c r="W56" s="2480"/>
-      <c r="X56" s="2481"/>
-      <c r="Y56" s="2482"/>
-      <c r="Z56" s="2483"/>
-      <c r="AA56" s="2484"/>
-      <c r="AB56" s="2485"/>
-      <c r="AC56" s="2486"/>
-      <c r="AD56" s="1714"/>
-      <c r="AE56" s="278"/>
-      <c r="AF56" s="2487"/>
-      <c r="AG56" s="2488"/>
-      <c r="AH56" s="2489"/>
-      <c r="AI56" s="2490"/>
-      <c r="AJ56" s="2491"/>
-      <c r="AK56" s="2492"/>
-      <c r="AL56" s="2493"/>
-      <c r="AM56" s="2494"/>
-      <c r="AN56" s="2495"/>
-      <c r="AO56" s="2496"/>
-      <c r="AP56" s="2497"/>
-      <c r="AQ56" s="2498"/>
-      <c r="AR56" s="2499"/>
-      <c r="AS56" s="2500"/>
-      <c r="AT56" s="2501"/>
-      <c r="AU56" s="2502"/>
-      <c r="AV56" s="2503"/>
-      <c r="AW56" s="2504"/>
+    <row r="56" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2518"/>
+      <c r="B56" s="2519"/>
+      <c r="C56" s="852"/>
+      <c r="D56" s="257"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="2520"/>
+      <c r="G56" s="2521"/>
+      <c r="H56" s="2522"/>
+      <c r="I56" s="2523"/>
+      <c r="J56" s="343"/>
+      <c r="K56" s="2524"/>
+      <c r="L56" s="2525"/>
+      <c r="M56" s="2526"/>
+      <c r="N56" s="1069"/>
+      <c r="O56" s="2527"/>
+      <c r="P56" s="2528"/>
+      <c r="Q56" s="2529"/>
+      <c r="R56" s="2530"/>
+      <c r="S56" s="2531"/>
+      <c r="T56" s="2532"/>
+      <c r="U56" s="2533"/>
+      <c r="V56" s="2534"/>
+      <c r="W56" s="2535"/>
+      <c r="X56" s="2536"/>
+      <c r="Y56" s="2537"/>
+      <c r="Z56" s="2538"/>
+      <c r="AA56" s="2539"/>
+      <c r="AB56" s="2540"/>
+      <c r="AC56" s="2541"/>
+      <c r="AD56" s="1752"/>
+      <c r="AE56" s="283"/>
+      <c r="AF56" s="2542"/>
+      <c r="AG56" s="2543"/>
+      <c r="AH56" s="2544"/>
+      <c r="AI56" s="2545"/>
+      <c r="AJ56" s="2546"/>
+      <c r="AK56" s="2547"/>
+      <c r="AL56" s="2548"/>
+      <c r="AM56" s="2549"/>
+      <c r="AN56" s="2550"/>
+      <c r="AO56" s="2551"/>
+      <c r="AP56" s="2552"/>
+      <c r="AQ56" s="2553"/>
+      <c r="AR56" s="2554"/>
+      <c r="AS56" s="2555"/>
+      <c r="AT56" s="2556"/>
+      <c r="AU56" s="2557"/>
+      <c r="AV56" s="2558"/>
+      <c r="AW56" s="2559"/>
+      <c r="AX56" s="2560"/>
     </row>
-    <row r="57" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1714"/>
-      <c r="B57" s="2505"/>
-      <c r="C57" s="2506"/>
-      <c r="D57" s="2507"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="2508"/>
-      <c r="G57" s="2509"/>
-      <c r="H57" s="2510"/>
-      <c r="I57" s="2511"/>
-      <c r="J57" s="1008"/>
-      <c r="K57" s="2512"/>
-      <c r="L57" s="2513"/>
-      <c r="M57" s="246"/>
-      <c r="N57" s="2514"/>
-      <c r="O57" s="2515"/>
-      <c r="P57" s="2516"/>
-      <c r="Q57" s="2517"/>
-      <c r="R57" s="2518"/>
-      <c r="S57" s="2519"/>
-      <c r="T57" s="2520"/>
-      <c r="U57" s="2521"/>
-      <c r="V57" s="2522"/>
-      <c r="W57" s="2523"/>
-      <c r="X57" s="2524"/>
-      <c r="Y57" s="2525"/>
-      <c r="Z57" s="2526"/>
-      <c r="AA57" s="2527"/>
-      <c r="AB57" s="2528"/>
-      <c r="AC57" s="2529"/>
-      <c r="AD57" s="229"/>
-      <c r="AE57" s="2530"/>
-      <c r="AF57" s="802"/>
-      <c r="AG57" s="2531"/>
-      <c r="AH57" s="2532"/>
-      <c r="AI57" s="2533"/>
-      <c r="AJ57" s="2534"/>
-      <c r="AK57" s="2535"/>
-      <c r="AL57" s="2536"/>
-      <c r="AM57" s="2537"/>
-      <c r="AN57" s="2538"/>
-      <c r="AO57" s="2539"/>
-      <c r="AP57" s="2540"/>
-      <c r="AQ57" s="2541"/>
-      <c r="AR57" s="1365"/>
-      <c r="AS57" s="166"/>
-      <c r="AT57" s="2542"/>
-      <c r="AU57" s="2543"/>
-      <c r="AV57" s="2544"/>
-      <c r="AW57" s="2545"/>
+    <row r="57" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1752"/>
+      <c r="B57" s="2561"/>
+      <c r="C57" s="2562"/>
+      <c r="D57" s="2563"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="2564"/>
+      <c r="G57" s="2565"/>
+      <c r="H57" s="2566"/>
+      <c r="I57" s="2567"/>
+      <c r="J57" s="1030"/>
+      <c r="K57" s="2568"/>
+      <c r="L57" s="2569"/>
+      <c r="M57" s="251"/>
+      <c r="N57" s="2570"/>
+      <c r="O57" s="2571"/>
+      <c r="P57" s="2572"/>
+      <c r="Q57" s="2573"/>
+      <c r="R57" s="2574"/>
+      <c r="S57" s="2575"/>
+      <c r="T57" s="2576"/>
+      <c r="U57" s="2577"/>
+      <c r="V57" s="2578"/>
+      <c r="W57" s="2579"/>
+      <c r="X57" s="2580"/>
+      <c r="Y57" s="2581"/>
+      <c r="Z57" s="2582"/>
+      <c r="AA57" s="2583"/>
+      <c r="AB57" s="2584"/>
+      <c r="AC57" s="2585"/>
+      <c r="AD57" s="233"/>
+      <c r="AE57" s="2586"/>
+      <c r="AF57" s="819"/>
+      <c r="AG57" s="2587"/>
+      <c r="AH57" s="2588"/>
+      <c r="AI57" s="2589"/>
+      <c r="AJ57" s="2590"/>
+      <c r="AK57" s="2591"/>
+      <c r="AL57" s="2592"/>
+      <c r="AM57" s="2593"/>
+      <c r="AN57" s="2594"/>
+      <c r="AO57" s="2595"/>
+      <c r="AP57" s="2596"/>
+      <c r="AQ57" s="2597"/>
+      <c r="AR57" s="1395"/>
+      <c r="AS57" s="169"/>
+      <c r="AT57" s="2598"/>
+      <c r="AU57" s="2599"/>
+      <c r="AV57" s="2600"/>
+      <c r="AW57" s="2601"/>
+      <c r="AX57" s="2602"/>
     </row>
-    <row r="58" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2546"/>
-      <c r="B58" s="2547"/>
-      <c r="C58" s="2548"/>
-      <c r="D58" s="1403"/>
-      <c r="E58" s="2549"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="2550"/>
-      <c r="H58" s="2551"/>
-      <c r="I58" s="2552"/>
-      <c r="J58" s="2553"/>
-      <c r="K58" s="2554"/>
-      <c r="L58" s="2555"/>
-      <c r="M58" s="2556"/>
-      <c r="N58" s="2557"/>
-      <c r="O58" s="2558"/>
-      <c r="P58" s="2559"/>
-      <c r="Q58" s="2560"/>
-      <c r="R58" s="2561"/>
-      <c r="S58" s="2562"/>
-      <c r="T58" s="2563"/>
-      <c r="U58" s="2564"/>
-      <c r="V58" s="2565"/>
-      <c r="W58" s="2566"/>
-      <c r="X58" s="2567"/>
-      <c r="Y58" s="2568"/>
-      <c r="Z58" s="2569"/>
-      <c r="AA58" s="2570"/>
-      <c r="AB58" s="2571"/>
-      <c r="AC58" s="2572"/>
-      <c r="AD58" s="2573"/>
-      <c r="AE58" s="1267"/>
-      <c r="AF58" s="278"/>
-      <c r="AG58" s="2574"/>
-      <c r="AH58" s="2575"/>
-      <c r="AI58" s="2576"/>
-      <c r="AJ58" s="2577"/>
-      <c r="AK58" s="2578"/>
-      <c r="AL58" s="2579"/>
-      <c r="AM58" s="2580"/>
-      <c r="AN58" s="2581"/>
-      <c r="AO58" s="2582"/>
-      <c r="AP58" s="2583"/>
-      <c r="AQ58" s="2584"/>
-      <c r="AR58" s="2585"/>
-      <c r="AS58" s="2586"/>
-      <c r="AT58" s="2587"/>
-      <c r="AU58" s="2588"/>
-      <c r="AV58" s="2589"/>
-      <c r="AW58" s="2590"/>
+    <row r="58" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2603"/>
+      <c r="B58" s="2604"/>
+      <c r="C58" s="2605"/>
+      <c r="D58" s="1434"/>
+      <c r="E58" s="2606"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="2607"/>
+      <c r="H58" s="2608"/>
+      <c r="I58" s="2609"/>
+      <c r="J58" s="2610"/>
+      <c r="K58" s="2611"/>
+      <c r="L58" s="2612"/>
+      <c r="M58" s="2613"/>
+      <c r="N58" s="2614"/>
+      <c r="O58" s="2615"/>
+      <c r="P58" s="2616"/>
+      <c r="Q58" s="2617"/>
+      <c r="R58" s="2618"/>
+      <c r="S58" s="2619"/>
+      <c r="T58" s="2620"/>
+      <c r="U58" s="2621"/>
+      <c r="V58" s="2622"/>
+      <c r="W58" s="2623"/>
+      <c r="X58" s="2624"/>
+      <c r="Y58" s="2625"/>
+      <c r="Z58" s="2626"/>
+      <c r="AA58" s="2627"/>
+      <c r="AB58" s="2628"/>
+      <c r="AC58" s="2629"/>
+      <c r="AD58" s="2630"/>
+      <c r="AE58" s="1295"/>
+      <c r="AF58" s="283"/>
+      <c r="AG58" s="2631"/>
+      <c r="AH58" s="2632"/>
+      <c r="AI58" s="2633"/>
+      <c r="AJ58" s="2634"/>
+      <c r="AK58" s="2635"/>
+      <c r="AL58" s="2636"/>
+      <c r="AM58" s="2637"/>
+      <c r="AN58" s="2638"/>
+      <c r="AO58" s="2639"/>
+      <c r="AP58" s="2640"/>
+      <c r="AQ58" s="2641"/>
+      <c r="AR58" s="2642"/>
+      <c r="AS58" s="2643"/>
+      <c r="AT58" s="2644"/>
+      <c r="AU58" s="2645"/>
+      <c r="AV58" s="2646"/>
+      <c r="AW58" s="2647"/>
+      <c r="AX58" s="2648"/>
     </row>
-    <row r="59" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="278"/>
-      <c r="B59" s="2591"/>
-      <c r="C59" s="2592"/>
-      <c r="D59" s="253"/>
-      <c r="E59" s="2593"/>
-      <c r="F59" s="2225"/>
-      <c r="G59" s="2594"/>
-      <c r="H59" s="2595"/>
-      <c r="I59" s="2596"/>
-      <c r="J59" s="2597"/>
-      <c r="K59" s="2598"/>
-      <c r="L59" s="2599"/>
-      <c r="M59" s="2600"/>
-      <c r="N59" s="2601"/>
-      <c r="O59" s="2602"/>
-      <c r="P59" s="2603"/>
-      <c r="Q59" s="2604"/>
-      <c r="R59" s="2605"/>
-      <c r="S59" s="2606"/>
-      <c r="T59" s="2607"/>
-      <c r="U59" s="2608"/>
-      <c r="V59" s="2609"/>
-      <c r="W59" s="2610"/>
-      <c r="X59" s="2611"/>
-      <c r="Y59" s="2612"/>
-      <c r="Z59" s="2613"/>
-      <c r="AA59" s="2614"/>
-      <c r="AB59" s="2615"/>
-      <c r="AC59" s="2616"/>
-      <c r="AD59" s="2617"/>
-      <c r="AE59" s="336"/>
-      <c r="AF59" s="2618"/>
-      <c r="AG59" s="230"/>
-      <c r="AH59" s="2619"/>
-      <c r="AI59" s="2620"/>
-      <c r="AJ59" s="2621"/>
-      <c r="AK59" s="2622"/>
-      <c r="AL59" s="2623"/>
-      <c r="AM59" s="2624"/>
-      <c r="AN59" s="2625"/>
-      <c r="AO59" s="2626"/>
-      <c r="AP59" s="2627"/>
-      <c r="AQ59" s="2628"/>
-      <c r="AR59" s="1718"/>
+    <row r="59" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="283"/>
+      <c r="B59" s="2649"/>
+      <c r="C59" s="2650"/>
+      <c r="D59" s="258"/>
+      <c r="E59" s="2651"/>
+      <c r="F59" s="2274"/>
+      <c r="G59" s="2652"/>
+      <c r="H59" s="2653"/>
+      <c r="I59" s="2654"/>
+      <c r="J59" s="2655"/>
+      <c r="K59" s="2656"/>
+      <c r="L59" s="2657"/>
+      <c r="M59" s="2658"/>
+      <c r="N59" s="2659"/>
+      <c r="O59" s="2660"/>
+      <c r="P59" s="2661"/>
+      <c r="Q59" s="2662"/>
+      <c r="R59" s="2663"/>
+      <c r="S59" s="2664"/>
+      <c r="T59" s="2665"/>
+      <c r="U59" s="2666"/>
+      <c r="V59" s="2667"/>
+      <c r="W59" s="2668"/>
+      <c r="X59" s="2669"/>
+      <c r="Y59" s="2670"/>
+      <c r="Z59" s="2671"/>
+      <c r="AA59" s="2672"/>
+      <c r="AB59" s="2673"/>
+      <c r="AC59" s="2674"/>
+      <c r="AD59" s="2675"/>
+      <c r="AE59" s="343"/>
+      <c r="AF59" s="2676"/>
+      <c r="AG59" s="234"/>
+      <c r="AH59" s="2677"/>
+      <c r="AI59" s="2678"/>
+      <c r="AJ59" s="2679"/>
+      <c r="AK59" s="2680"/>
+      <c r="AL59" s="2681"/>
+      <c r="AM59" s="2682"/>
+      <c r="AN59" s="2683"/>
+      <c r="AO59" s="2684"/>
+      <c r="AP59" s="2685"/>
+      <c r="AQ59" s="2686"/>
+      <c r="AR59" s="1756"/>
       <c r="AS59" s="43"/>
-      <c r="AT59" s="2629"/>
-      <c r="AU59" s="2630"/>
-      <c r="AV59" s="2631"/>
-      <c r="AW59" s="2632"/>
+      <c r="AT59" s="2687"/>
+      <c r="AU59" s="2688"/>
+      <c r="AV59" s="2689"/>
+      <c r="AW59" s="2690"/>
+      <c r="AX59" s="2691"/>
     </row>
-    <row r="60" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2633"/>
-      <c r="B60" s="2634"/>
-      <c r="C60" s="2239"/>
-      <c r="D60" s="2635"/>
-      <c r="E60" s="2636"/>
-      <c r="F60" s="230"/>
-      <c r="G60" s="2637"/>
-      <c r="H60" s="2638"/>
-      <c r="I60" s="2639"/>
-      <c r="J60" s="2640"/>
-      <c r="K60" s="2641"/>
-      <c r="L60" s="2642"/>
-      <c r="M60" s="2643"/>
-      <c r="N60" s="2644"/>
-      <c r="O60" s="2645"/>
-      <c r="P60" s="2646"/>
-      <c r="Q60" s="2647"/>
-      <c r="R60" s="2648"/>
-      <c r="S60" s="2649"/>
-      <c r="T60" s="2650"/>
-      <c r="U60" s="2651"/>
-      <c r="V60" s="2652"/>
-      <c r="W60" s="2653"/>
-      <c r="X60" s="2654"/>
-      <c r="Y60" s="2655"/>
-      <c r="Z60" s="2656"/>
-      <c r="AA60" s="829"/>
-      <c r="AB60" s="2657"/>
-      <c r="AC60" s="2658"/>
-      <c r="AD60" s="2659"/>
-      <c r="AE60" s="244"/>
-      <c r="AF60" s="834"/>
-      <c r="AG60" s="2660"/>
-      <c r="AH60" s="2661"/>
-      <c r="AI60" s="2662"/>
-      <c r="AJ60" s="2663"/>
-      <c r="AK60" s="2664"/>
-      <c r="AL60" s="2665"/>
-      <c r="AM60" s="2666"/>
-      <c r="AN60" s="2667"/>
-      <c r="AO60" s="2668"/>
-      <c r="AP60" s="2669"/>
-      <c r="AQ60" s="2670"/>
-      <c r="AR60" s="2671"/>
-      <c r="AS60" s="2672"/>
-      <c r="AT60" s="2673"/>
-      <c r="AU60" s="277"/>
-      <c r="AV60" s="2674"/>
-      <c r="AW60" s="2675"/>
+    <row r="60" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2692"/>
+      <c r="B60" s="2693"/>
+      <c r="C60" s="2288"/>
+      <c r="D60" s="2694"/>
+      <c r="E60" s="2695"/>
+      <c r="F60" s="234"/>
+      <c r="G60" s="2696"/>
+      <c r="H60" s="2697"/>
+      <c r="I60" s="2698"/>
+      <c r="J60" s="2699"/>
+      <c r="K60" s="2700"/>
+      <c r="L60" s="2701"/>
+      <c r="M60" s="2702"/>
+      <c r="N60" s="2703"/>
+      <c r="O60" s="2704"/>
+      <c r="P60" s="2705"/>
+      <c r="Q60" s="2706"/>
+      <c r="R60" s="2707"/>
+      <c r="S60" s="2708"/>
+      <c r="T60" s="2709"/>
+      <c r="U60" s="2710"/>
+      <c r="V60" s="2711"/>
+      <c r="W60" s="2712"/>
+      <c r="X60" s="2713"/>
+      <c r="Y60" s="2714"/>
+      <c r="Z60" s="2715"/>
+      <c r="AA60" s="846"/>
+      <c r="AB60" s="2716"/>
+      <c r="AC60" s="2717"/>
+      <c r="AD60" s="2718"/>
+      <c r="AE60" s="249"/>
+      <c r="AF60" s="852"/>
+      <c r="AG60" s="2719"/>
+      <c r="AH60" s="2720"/>
+      <c r="AI60" s="2721"/>
+      <c r="AJ60" s="2722"/>
+      <c r="AK60" s="2723"/>
+      <c r="AL60" s="2724"/>
+      <c r="AM60" s="2725"/>
+      <c r="AN60" s="2726"/>
+      <c r="AO60" s="2727"/>
+      <c r="AP60" s="2728"/>
+      <c r="AQ60" s="2729"/>
+      <c r="AR60" s="2730"/>
+      <c r="AS60" s="2731"/>
+      <c r="AT60" s="2732"/>
+      <c r="AU60" s="282"/>
+      <c r="AV60" s="2733"/>
+      <c r="AW60" s="2734"/>
+      <c r="AX60" s="2735"/>
     </row>
-    <row r="61" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2676"/>
-      <c r="B61" s="2677"/>
-      <c r="C61" s="2678"/>
-      <c r="D61" s="757"/>
-      <c r="E61" s="2679"/>
-      <c r="F61" s="2405"/>
-      <c r="G61" s="1946"/>
-      <c r="H61" s="2680"/>
-      <c r="I61" s="2681"/>
-      <c r="J61" s="2682"/>
-      <c r="K61" s="2683"/>
-      <c r="L61" s="2684"/>
-      <c r="M61" s="2685"/>
-      <c r="N61" s="2686"/>
-      <c r="O61" s="2687"/>
-      <c r="P61" s="2688"/>
-      <c r="Q61" s="2689"/>
-      <c r="R61" s="2690"/>
-      <c r="S61" s="2691"/>
-      <c r="T61" s="2692"/>
-      <c r="U61" s="2693"/>
-      <c r="V61" s="2694"/>
-      <c r="W61" s="2695"/>
-      <c r="X61" s="2696"/>
-      <c r="Y61" s="2697"/>
-      <c r="Z61" s="2698"/>
-      <c r="AA61" s="2699"/>
-      <c r="AB61" s="2700"/>
-      <c r="AC61" s="2701"/>
-      <c r="AD61" s="2702"/>
-      <c r="AE61" s="2703"/>
-      <c r="AF61" s="2704"/>
-      <c r="AG61" s="2705"/>
-      <c r="AH61" s="2706"/>
-      <c r="AI61" s="2707"/>
-      <c r="AJ61" s="2708"/>
-      <c r="AK61" s="2709"/>
-      <c r="AL61" s="2710"/>
-      <c r="AM61" s="2711"/>
-      <c r="AN61" s="2712"/>
-      <c r="AO61" s="2713"/>
-      <c r="AP61" s="2714"/>
-      <c r="AQ61" s="252"/>
-      <c r="AR61" s="2715"/>
-      <c r="AS61" s="2716"/>
-      <c r="AT61" s="2717"/>
-      <c r="AU61" s="2718"/>
-      <c r="AV61" s="2719"/>
-      <c r="AW61" s="2720"/>
+    <row r="61" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2736"/>
+      <c r="B61" s="2737"/>
+      <c r="C61" s="2738"/>
+      <c r="D61" s="773"/>
+      <c r="E61" s="2739"/>
+      <c r="F61" s="2458"/>
+      <c r="G61" s="1989"/>
+      <c r="H61" s="2740"/>
+      <c r="I61" s="2741"/>
+      <c r="J61" s="2742"/>
+      <c r="K61" s="2743"/>
+      <c r="L61" s="2744"/>
+      <c r="M61" s="2745"/>
+      <c r="N61" s="2746"/>
+      <c r="O61" s="2747"/>
+      <c r="P61" s="2748"/>
+      <c r="Q61" s="2749"/>
+      <c r="R61" s="2750"/>
+      <c r="S61" s="2751"/>
+      <c r="T61" s="2752"/>
+      <c r="U61" s="2753"/>
+      <c r="V61" s="2754"/>
+      <c r="W61" s="2755"/>
+      <c r="X61" s="2756"/>
+      <c r="Y61" s="2757"/>
+      <c r="Z61" s="2758"/>
+      <c r="AA61" s="2759"/>
+      <c r="AB61" s="2760"/>
+      <c r="AC61" s="2761"/>
+      <c r="AD61" s="2762"/>
+      <c r="AE61" s="2763"/>
+      <c r="AF61" s="2764"/>
+      <c r="AG61" s="2765"/>
+      <c r="AH61" s="2766"/>
+      <c r="AI61" s="2767"/>
+      <c r="AJ61" s="2768"/>
+      <c r="AK61" s="2769"/>
+      <c r="AL61" s="2770"/>
+      <c r="AM61" s="2771"/>
+      <c r="AN61" s="2772"/>
+      <c r="AO61" s="2773"/>
+      <c r="AP61" s="2774"/>
+      <c r="AQ61" s="257"/>
+      <c r="AR61" s="2775"/>
+      <c r="AS61" s="2776"/>
+      <c r="AT61" s="2777"/>
+      <c r="AU61" s="2778"/>
+      <c r="AV61" s="2779"/>
+      <c r="AW61" s="2780"/>
+      <c r="AX61" s="2781"/>
     </row>
-    <row r="62" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2721"/>
-      <c r="B62" s="2722"/>
-      <c r="C62" s="2723"/>
-      <c r="D62" s="2724"/>
-      <c r="E62" s="2725"/>
-      <c r="F62" s="2726"/>
-      <c r="G62" s="2727"/>
-      <c r="H62" s="2728"/>
-      <c r="I62" s="2729"/>
-      <c r="J62" s="2730"/>
-      <c r="K62" s="2731"/>
-      <c r="L62" s="2732"/>
-      <c r="M62" s="2733"/>
-      <c r="N62" s="2734"/>
-      <c r="O62" s="2735"/>
-      <c r="P62" s="2736"/>
-      <c r="Q62" s="2737"/>
-      <c r="R62" s="2738"/>
-      <c r="S62" s="2739"/>
-      <c r="T62" s="2740"/>
-      <c r="U62" s="2741"/>
-      <c r="V62" s="2742"/>
-      <c r="W62" s="2743"/>
-      <c r="X62" s="2744"/>
-      <c r="Y62" s="2745"/>
-      <c r="Z62" s="2746"/>
-      <c r="AA62" s="2747"/>
-      <c r="AB62" s="2748"/>
-      <c r="AC62" s="2749"/>
-      <c r="AD62" s="2750"/>
-      <c r="AE62" s="2751"/>
-      <c r="AF62" s="2752"/>
-      <c r="AG62" s="2753"/>
-      <c r="AH62" s="2754"/>
-      <c r="AI62" s="2755"/>
-      <c r="AJ62" s="2756"/>
-      <c r="AK62" s="2757"/>
-      <c r="AL62" s="2758"/>
-      <c r="AM62" s="2759"/>
-      <c r="AN62" s="2760"/>
-      <c r="AO62" s="2761"/>
-      <c r="AP62" s="2762"/>
-      <c r="AQ62" s="2763"/>
-      <c r="AR62" s="1013"/>
-      <c r="AS62" s="2764"/>
-      <c r="AT62" s="2765"/>
-      <c r="AU62" s="2766"/>
-      <c r="AV62" s="2767"/>
-      <c r="AW62" s="2768"/>
+    <row r="62" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2782"/>
+      <c r="B62" s="2783"/>
+      <c r="C62" s="2784"/>
+      <c r="D62" s="2785"/>
+      <c r="E62" s="2786"/>
+      <c r="F62" s="2787"/>
+      <c r="G62" s="2788"/>
+      <c r="H62" s="2789"/>
+      <c r="I62" s="2790"/>
+      <c r="J62" s="2791"/>
+      <c r="K62" s="2792"/>
+      <c r="L62" s="2793"/>
+      <c r="M62" s="2794"/>
+      <c r="N62" s="2795"/>
+      <c r="O62" s="2796"/>
+      <c r="P62" s="2797"/>
+      <c r="Q62" s="2798"/>
+      <c r="R62" s="2799"/>
+      <c r="S62" s="2800"/>
+      <c r="T62" s="2801"/>
+      <c r="U62" s="2802"/>
+      <c r="V62" s="2803"/>
+      <c r="W62" s="2804"/>
+      <c r="X62" s="2805"/>
+      <c r="Y62" s="2806"/>
+      <c r="Z62" s="2807"/>
+      <c r="AA62" s="2808"/>
+      <c r="AB62" s="2809"/>
+      <c r="AC62" s="2810"/>
+      <c r="AD62" s="2811"/>
+      <c r="AE62" s="2812"/>
+      <c r="AF62" s="2813"/>
+      <c r="AG62" s="2814"/>
+      <c r="AH62" s="2815"/>
+      <c r="AI62" s="2816"/>
+      <c r="AJ62" s="2817"/>
+      <c r="AK62" s="2818"/>
+      <c r="AL62" s="2819"/>
+      <c r="AM62" s="2820"/>
+      <c r="AN62" s="2821"/>
+      <c r="AO62" s="2822"/>
+      <c r="AP62" s="2823"/>
+      <c r="AQ62" s="2824"/>
+      <c r="AR62" s="1035"/>
+      <c r="AS62" s="2825"/>
+      <c r="AT62" s="2826"/>
+      <c r="AU62" s="2827"/>
+      <c r="AV62" s="2828"/>
+      <c r="AW62" s="2829"/>
+      <c r="AX62" s="2830"/>
     </row>
-    <row r="63" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2769"/>
-      <c r="B63" s="2770"/>
-      <c r="C63" s="2771"/>
-      <c r="D63" s="2772"/>
-      <c r="E63" s="2773"/>
-      <c r="F63" s="2774"/>
-      <c r="G63" s="2775"/>
-      <c r="H63" s="2776"/>
-      <c r="I63" s="2777"/>
-      <c r="J63" s="2778"/>
-      <c r="K63" s="2779"/>
-      <c r="L63" s="2780"/>
-      <c r="M63" s="2781"/>
-      <c r="N63" s="2782"/>
-      <c r="O63" s="2783"/>
-      <c r="P63" s="2784"/>
-      <c r="Q63" s="2785"/>
-      <c r="R63" s="2786"/>
-      <c r="S63" s="2787"/>
-      <c r="T63" s="2788"/>
-      <c r="U63" s="2789"/>
-      <c r="V63" s="2790"/>
-      <c r="W63" s="2791"/>
-      <c r="X63" s="2792"/>
-      <c r="Y63" s="2793"/>
-      <c r="Z63" s="2794"/>
-      <c r="AA63" s="2795"/>
-      <c r="AB63" s="2796"/>
-      <c r="AC63" s="2797"/>
-      <c r="AD63" s="2798"/>
-      <c r="AE63" s="2799"/>
-      <c r="AF63" s="2800"/>
-      <c r="AG63" s="2801"/>
-      <c r="AH63" s="2802"/>
-      <c r="AI63" s="2803"/>
-      <c r="AJ63" s="2804"/>
-      <c r="AK63" s="2805"/>
-      <c r="AL63" s="2806"/>
-      <c r="AM63" s="2807"/>
-      <c r="AN63" s="2808"/>
-      <c r="AO63" s="2809"/>
-      <c r="AP63" s="2810"/>
-      <c r="AQ63" s="2811"/>
-      <c r="AR63" s="2812"/>
-      <c r="AS63" s="2813"/>
-      <c r="AT63" s="2814"/>
-      <c r="AU63" s="2815"/>
-      <c r="AV63" s="2816"/>
-      <c r="AW63" s="2074"/>
+    <row r="63" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2831"/>
+      <c r="B63" s="2832"/>
+      <c r="C63" s="2833"/>
+      <c r="D63" s="2834"/>
+      <c r="E63" s="2835"/>
+      <c r="F63" s="2836"/>
+      <c r="G63" s="2837"/>
+      <c r="H63" s="2838"/>
+      <c r="I63" s="2839"/>
+      <c r="J63" s="2840"/>
+      <c r="K63" s="2841"/>
+      <c r="L63" s="2842"/>
+      <c r="M63" s="2843"/>
+      <c r="N63" s="2844"/>
+      <c r="O63" s="2845"/>
+      <c r="P63" s="2846"/>
+      <c r="Q63" s="2847"/>
+      <c r="R63" s="2848"/>
+      <c r="S63" s="2849"/>
+      <c r="T63" s="2850"/>
+      <c r="U63" s="2851"/>
+      <c r="V63" s="2852"/>
+      <c r="W63" s="2853"/>
+      <c r="X63" s="2854"/>
+      <c r="Y63" s="2855"/>
+      <c r="Z63" s="2856"/>
+      <c r="AA63" s="2857"/>
+      <c r="AB63" s="2858"/>
+      <c r="AC63" s="2859"/>
+      <c r="AD63" s="2860"/>
+      <c r="AE63" s="2861"/>
+      <c r="AF63" s="2862"/>
+      <c r="AG63" s="2863"/>
+      <c r="AH63" s="2864"/>
+      <c r="AI63" s="2865"/>
+      <c r="AJ63" s="2866"/>
+      <c r="AK63" s="2867"/>
+      <c r="AL63" s="2868"/>
+      <c r="AM63" s="2869"/>
+      <c r="AN63" s="2870"/>
+      <c r="AO63" s="2871"/>
+      <c r="AP63" s="2872"/>
+      <c r="AQ63" s="2873"/>
+      <c r="AR63" s="2874"/>
+      <c r="AS63" s="2875"/>
+      <c r="AT63" s="2876"/>
+      <c r="AU63" s="2877"/>
+      <c r="AV63" s="2878"/>
+      <c r="AW63" s="2119"/>
+      <c r="AX63" s="2879"/>
     </row>
-    <row r="64" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2817"/>
-      <c r="B64" s="2818"/>
-      <c r="C64" s="2819"/>
-      <c r="D64" s="2820"/>
-      <c r="E64" s="1677"/>
-      <c r="F64" s="2821"/>
-      <c r="G64" s="2541"/>
-      <c r="H64" s="2822"/>
-      <c r="I64" s="2823"/>
-      <c r="J64" s="2824"/>
-      <c r="K64" s="2825"/>
-      <c r="L64" s="2826"/>
-      <c r="M64" s="2827"/>
-      <c r="N64" s="2828"/>
-      <c r="O64" s="2829"/>
-      <c r="P64" s="2830"/>
-      <c r="Q64" s="2831"/>
-      <c r="R64" s="2832"/>
-      <c r="S64" s="2833"/>
-      <c r="T64" s="2834"/>
-      <c r="U64" s="2835"/>
-      <c r="V64" s="2836"/>
-      <c r="W64" s="2837"/>
-      <c r="X64" s="2838"/>
-      <c r="Y64" s="2839"/>
-      <c r="Z64" s="2840"/>
-      <c r="AA64" s="2528"/>
-      <c r="AB64" s="2841"/>
-      <c r="AC64" s="2842"/>
-      <c r="AD64" s="2843"/>
-      <c r="AE64" s="2844"/>
-      <c r="AF64" s="2845"/>
-      <c r="AG64" s="2846"/>
-      <c r="AH64" s="2847"/>
-      <c r="AI64" s="2848"/>
-      <c r="AJ64" s="2849"/>
-      <c r="AK64" s="2850"/>
-      <c r="AL64" s="2851"/>
-      <c r="AM64" s="2852"/>
-      <c r="AN64" s="2853"/>
-      <c r="AO64" s="2854"/>
-      <c r="AP64" s="2855"/>
-      <c r="AQ64" s="2856"/>
-      <c r="AR64" s="2857"/>
-      <c r="AS64" s="2858"/>
-      <c r="AT64" s="2859"/>
-      <c r="AU64" s="2860"/>
-      <c r="AV64" s="2861"/>
-      <c r="AW64" s="2628"/>
+    <row r="64" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2880"/>
+      <c r="B64" s="2881"/>
+      <c r="C64" s="2882"/>
+      <c r="D64" s="2883"/>
+      <c r="E64" s="1714"/>
+      <c r="F64" s="2884"/>
+      <c r="G64" s="2597"/>
+      <c r="H64" s="2885"/>
+      <c r="I64" s="2886"/>
+      <c r="J64" s="2887"/>
+      <c r="K64" s="2888"/>
+      <c r="L64" s="2889"/>
+      <c r="M64" s="2890"/>
+      <c r="N64" s="2891"/>
+      <c r="O64" s="2892"/>
+      <c r="P64" s="2893"/>
+      <c r="Q64" s="2894"/>
+      <c r="R64" s="2895"/>
+      <c r="S64" s="2896"/>
+      <c r="T64" s="2897"/>
+      <c r="U64" s="2898"/>
+      <c r="V64" s="2899"/>
+      <c r="W64" s="2900"/>
+      <c r="X64" s="2901"/>
+      <c r="Y64" s="2902"/>
+      <c r="Z64" s="2903"/>
+      <c r="AA64" s="2584"/>
+      <c r="AB64" s="2904"/>
+      <c r="AC64" s="2905"/>
+      <c r="AD64" s="2906"/>
+      <c r="AE64" s="2907"/>
+      <c r="AF64" s="2908"/>
+      <c r="AG64" s="2909"/>
+      <c r="AH64" s="2910"/>
+      <c r="AI64" s="2911"/>
+      <c r="AJ64" s="2912"/>
+      <c r="AK64" s="2913"/>
+      <c r="AL64" s="2914"/>
+      <c r="AM64" s="2915"/>
+      <c r="AN64" s="2916"/>
+      <c r="AO64" s="2917"/>
+      <c r="AP64" s="2918"/>
+      <c r="AQ64" s="2919"/>
+      <c r="AR64" s="2920"/>
+      <c r="AS64" s="2921"/>
+      <c r="AT64" s="2922"/>
+      <c r="AU64" s="2923"/>
+      <c r="AV64" s="2924"/>
+      <c r="AW64" s="2686"/>
+      <c r="AX64" s="2925"/>
     </row>
-    <row r="65" spans="1:49" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2862"/>
-      <c r="B65" s="2863"/>
-      <c r="C65" s="2864"/>
-      <c r="D65" s="2865"/>
-      <c r="E65" s="2866"/>
-      <c r="F65" s="2867"/>
-      <c r="G65" s="2868"/>
-      <c r="H65" s="2869"/>
-      <c r="I65" s="2870"/>
-      <c r="J65" s="2871"/>
-      <c r="K65" s="2872"/>
-      <c r="L65" s="2873"/>
-      <c r="M65" s="2874"/>
-      <c r="N65" s="2875"/>
-      <c r="O65" s="2876"/>
-      <c r="P65" s="2877"/>
-      <c r="Q65" s="2878"/>
-      <c r="R65" s="2879"/>
-      <c r="S65" s="2880"/>
-      <c r="T65" s="2881"/>
-      <c r="U65" s="2882"/>
-      <c r="V65" s="2883"/>
-      <c r="W65" s="2884"/>
-      <c r="X65" s="2885"/>
-      <c r="Y65" s="2886"/>
-      <c r="Z65" s="2887"/>
-      <c r="AA65" s="2888"/>
-      <c r="AB65" s="2889"/>
-      <c r="AC65" s="2890"/>
-      <c r="AD65" s="2891"/>
-      <c r="AE65" s="2892"/>
-      <c r="AF65" s="2893"/>
-      <c r="AG65" s="2894"/>
-      <c r="AH65" s="2895"/>
-      <c r="AI65" s="2896"/>
-      <c r="AJ65" s="2897"/>
-      <c r="AK65" s="2898"/>
-      <c r="AL65" s="2899"/>
-      <c r="AM65" s="2900"/>
-      <c r="AN65" s="2901"/>
-      <c r="AO65" s="2902"/>
-      <c r="AP65" s="2474"/>
-      <c r="AQ65" s="2903"/>
-      <c r="AR65" s="2904"/>
-      <c r="AS65" s="2905"/>
-      <c r="AT65" s="2906"/>
-      <c r="AU65" s="2249"/>
-      <c r="AV65" s="2907"/>
-      <c r="AW65" s="2908"/>
+    <row r="65" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2926"/>
+      <c r="B65" s="2927"/>
+      <c r="C65" s="2928"/>
+      <c r="D65" s="2929"/>
+      <c r="E65" s="2930"/>
+      <c r="F65" s="2931"/>
+      <c r="G65" s="2932"/>
+      <c r="H65" s="2933"/>
+      <c r="I65" s="2934"/>
+      <c r="J65" s="2935"/>
+      <c r="K65" s="2936"/>
+      <c r="L65" s="2937"/>
+      <c r="M65" s="2938"/>
+      <c r="N65" s="2939"/>
+      <c r="O65" s="2940"/>
+      <c r="P65" s="2941"/>
+      <c r="Q65" s="2942"/>
+      <c r="R65" s="2943"/>
+      <c r="S65" s="2944"/>
+      <c r="T65" s="2945"/>
+      <c r="U65" s="2946"/>
+      <c r="V65" s="2947"/>
+      <c r="W65" s="2948"/>
+      <c r="X65" s="2949"/>
+      <c r="Y65" s="2950"/>
+      <c r="Z65" s="2951"/>
+      <c r="AA65" s="2952"/>
+      <c r="AB65" s="2953"/>
+      <c r="AC65" s="2954"/>
+      <c r="AD65" s="2955"/>
+      <c r="AE65" s="2956"/>
+      <c r="AF65" s="2957"/>
+      <c r="AG65" s="2958"/>
+      <c r="AH65" s="2959"/>
+      <c r="AI65" s="2960"/>
+      <c r="AJ65" s="2961"/>
+      <c r="AK65" s="2962"/>
+      <c r="AL65" s="2963"/>
+      <c r="AM65" s="2964"/>
+      <c r="AN65" s="2965"/>
+      <c r="AO65" s="2966"/>
+      <c r="AP65" s="2529"/>
+      <c r="AQ65" s="2967"/>
+      <c r="AR65" s="2968"/>
+      <c r="AS65" s="2969"/>
+      <c r="AT65" s="2970"/>
+      <c r="AU65" s="2298"/>
+      <c r="AV65" s="2971"/>
+      <c r="AW65" s="2972"/>
+      <c r="AX65" s="2973"/>
+    </row>
+    <row r="66" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2974"/>
+      <c r="B66" s="2975"/>
+      <c r="C66" s="2976"/>
+      <c r="D66" s="2977"/>
+      <c r="E66" s="257"/>
+      <c r="F66" s="2978"/>
+      <c r="G66" s="2979"/>
+      <c r="H66" s="2980"/>
+      <c r="I66" s="2981"/>
+      <c r="J66" s="2982"/>
+      <c r="K66" s="2983"/>
+      <c r="L66" s="2984"/>
+      <c r="M66" s="2985"/>
+      <c r="N66" s="2986"/>
+      <c r="O66" s="2987"/>
+      <c r="P66" s="2988"/>
+      <c r="Q66" s="2989"/>
+      <c r="R66" s="2990"/>
+      <c r="S66" s="2991"/>
+      <c r="T66" s="2992"/>
+      <c r="U66" s="2993"/>
+      <c r="V66" s="2994"/>
+      <c r="W66" s="2995"/>
+      <c r="X66" s="2996"/>
+      <c r="Y66" s="2997"/>
+      <c r="Z66" s="2998"/>
+      <c r="AA66" s="2999"/>
+      <c r="AB66" s="3000"/>
+      <c r="AC66" s="3001"/>
+      <c r="AD66" s="3002"/>
+      <c r="AE66" s="3003"/>
+      <c r="AF66" s="3004"/>
+      <c r="AG66" s="3005"/>
+      <c r="AH66" s="3006"/>
+      <c r="AI66" s="3007"/>
+      <c r="AJ66" s="3008"/>
+      <c r="AK66" s="3009"/>
+      <c r="AL66" s="3010"/>
+      <c r="AM66" s="3011"/>
+      <c r="AN66" s="3012"/>
+      <c r="AO66" s="3013"/>
+      <c r="AP66" s="3014"/>
+      <c r="AQ66" s="3015"/>
+      <c r="AR66" s="2439"/>
+      <c r="AS66" s="3016"/>
+      <c r="AT66" s="3017"/>
+      <c r="AU66" s="1112"/>
+      <c r="AV66" s="3018"/>
+      <c r="AW66" s="1514"/>
+      <c r="AX66" s="3019"/>
+    </row>
+    <row r="67" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3020"/>
+      <c r="B67" s="3021"/>
+      <c r="C67" s="3022"/>
+      <c r="D67" s="3023"/>
+      <c r="E67" s="2565"/>
+      <c r="F67" s="3024"/>
+      <c r="G67" s="3025"/>
+      <c r="H67" s="3026"/>
+      <c r="I67" s="3027"/>
+      <c r="J67" s="3028"/>
+      <c r="K67" s="3029"/>
+      <c r="L67" s="3030"/>
+      <c r="M67" s="3031"/>
+      <c r="N67" s="3032"/>
+      <c r="O67" s="3033"/>
+      <c r="P67" s="3034"/>
+      <c r="Q67" s="3035"/>
+      <c r="R67" s="3036"/>
+      <c r="S67" s="3037"/>
+      <c r="T67" s="3038"/>
+      <c r="U67" s="3039"/>
+      <c r="V67" s="3040"/>
+      <c r="W67" s="3041"/>
+      <c r="X67" s="2211"/>
+      <c r="Y67" s="3042"/>
+      <c r="Z67" s="3043"/>
+      <c r="AA67" s="3044"/>
+      <c r="AB67" s="903"/>
+      <c r="AC67" s="3045"/>
+      <c r="AD67" s="3046"/>
+      <c r="AE67" s="3047"/>
+      <c r="AF67" s="3048"/>
+      <c r="AG67" s="3049"/>
+      <c r="AH67" s="3050"/>
+      <c r="AI67" s="3051"/>
+      <c r="AJ67" s="3052"/>
+      <c r="AK67" s="3053"/>
+      <c r="AL67" s="3054"/>
+      <c r="AM67" s="3055"/>
+      <c r="AN67" s="3056"/>
+      <c r="AO67" s="3057"/>
+      <c r="AP67" s="530"/>
+      <c r="AQ67" s="3058"/>
+      <c r="AR67" s="3015"/>
+      <c r="AS67" s="2487"/>
+      <c r="AT67" s="3059"/>
+      <c r="AU67" s="3060"/>
+      <c r="AV67" s="3061"/>
+      <c r="AW67" s="3062"/>
+      <c r="AX67" s="3063"/>
+    </row>
+    <row r="68" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3064"/>
+      <c r="B68" s="3065"/>
+      <c r="C68" s="3066"/>
+      <c r="D68" s="3067"/>
+      <c r="E68" s="3068"/>
+      <c r="F68" s="3069"/>
+      <c r="G68" s="3070"/>
+      <c r="H68" s="3071"/>
+      <c r="I68" s="3072"/>
+      <c r="J68" s="3073"/>
+      <c r="K68" s="3074"/>
+      <c r="L68" s="3075"/>
+      <c r="M68" s="3076"/>
+      <c r="N68" s="3077"/>
+      <c r="O68" s="3078"/>
+      <c r="P68" s="3079"/>
+      <c r="Q68" s="3080"/>
+      <c r="R68" s="3081"/>
+      <c r="S68" s="3082"/>
+      <c r="T68" s="3083"/>
+      <c r="U68" s="3084"/>
+      <c r="V68" s="3085"/>
+      <c r="W68" s="3086"/>
+      <c r="X68" s="3087"/>
+      <c r="Y68" s="3088"/>
+      <c r="Z68" s="3089"/>
+      <c r="AA68" s="3090"/>
+      <c r="AB68" s="3091"/>
+      <c r="AC68" s="3092"/>
+      <c r="AD68" s="3093"/>
+      <c r="AE68" s="3094"/>
+      <c r="AF68" s="3095"/>
+      <c r="AG68" s="3096"/>
+      <c r="AH68" s="3097"/>
+      <c r="AI68" s="3098"/>
+      <c r="AJ68" s="3099"/>
+      <c r="AK68" s="3100"/>
+      <c r="AL68" s="3101"/>
+      <c r="AM68" s="3102"/>
+      <c r="AN68" s="3103"/>
+      <c r="AO68" s="3104"/>
+      <c r="AP68" s="3105"/>
+      <c r="AQ68" s="1351"/>
+      <c r="AR68" s="3106"/>
+      <c r="AS68" s="3107"/>
+      <c r="AT68" s="3108"/>
+      <c r="AU68" s="3109"/>
+      <c r="AV68" s="3110"/>
+      <c r="AW68" s="3111"/>
+      <c r="AX68" s="3112"/>
+    </row>
+    <row r="69" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3113"/>
+      <c r="B69" s="3114"/>
+      <c r="C69" s="3115"/>
+      <c r="D69" s="3116"/>
+      <c r="E69" s="3117"/>
+      <c r="F69" s="3118"/>
+      <c r="G69" s="3119"/>
+      <c r="H69" s="3120"/>
+      <c r="I69" s="3121"/>
+      <c r="J69" s="3122"/>
+      <c r="K69" s="3123"/>
+      <c r="L69" s="3124"/>
+      <c r="M69" s="3125"/>
+      <c r="N69" s="3126"/>
+      <c r="O69" s="3127"/>
+      <c r="P69" s="3128"/>
+      <c r="Q69" s="3129"/>
+      <c r="R69" s="3130"/>
+      <c r="S69" s="3131"/>
+      <c r="T69" s="3132"/>
+      <c r="U69" s="3133"/>
+      <c r="V69" s="3134"/>
+      <c r="W69" s="3135"/>
+      <c r="X69" s="3136"/>
+      <c r="Y69" s="3137"/>
+      <c r="Z69" s="3138"/>
+      <c r="AA69" s="3139"/>
+      <c r="AB69" s="3140"/>
+      <c r="AC69" s="3141"/>
+      <c r="AD69" s="3142"/>
+      <c r="AE69" s="3143"/>
+      <c r="AF69" s="3144"/>
+      <c r="AG69" s="3145"/>
+      <c r="AH69" s="3146"/>
+      <c r="AI69" s="3147"/>
+      <c r="AJ69" s="3148"/>
+      <c r="AK69" s="3149"/>
+      <c r="AL69" s="3150"/>
+      <c r="AM69" s="3151"/>
+      <c r="AN69" s="3152"/>
+      <c r="AO69" s="3153"/>
+      <c r="AP69" s="3154"/>
+      <c r="AQ69" s="3155"/>
+      <c r="AR69" s="3156"/>
+      <c r="AS69" s="3157"/>
+      <c r="AT69" s="3158"/>
+      <c r="AU69" s="3159"/>
+      <c r="AV69" s="3160"/>
+      <c r="AW69" s="3161"/>
+      <c r="AX69" s="3162"/>
+    </row>
+    <row r="70" spans="1:50" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3163"/>
+      <c r="B70" s="3164"/>
+      <c r="C70" s="3165"/>
+      <c r="D70" s="3166"/>
+      <c r="E70" s="3167"/>
+      <c r="F70" s="3168"/>
+      <c r="G70" s="3169"/>
+      <c r="H70" s="3170"/>
+      <c r="I70" s="3171"/>
+      <c r="J70" s="3172"/>
+      <c r="K70" s="3173"/>
+      <c r="L70" s="3174"/>
+      <c r="M70" s="3175"/>
+      <c r="N70" s="3176"/>
+      <c r="O70" s="3177"/>
+      <c r="P70" s="3178"/>
+      <c r="Q70" s="3179"/>
+      <c r="R70" s="3180"/>
+      <c r="S70" s="3181"/>
+      <c r="T70" s="3182"/>
+      <c r="U70" s="3183"/>
+      <c r="V70" s="3184"/>
+      <c r="W70" s="3185"/>
+      <c r="X70" s="3186"/>
+      <c r="Y70" s="3187"/>
+      <c r="Z70" s="3188"/>
+      <c r="AA70" s="3189"/>
+      <c r="AB70" s="3190"/>
+      <c r="AC70" s="3191"/>
+      <c r="AD70" s="3192"/>
+      <c r="AE70" s="3193"/>
+      <c r="AF70" s="3194"/>
+      <c r="AG70" s="3195"/>
+      <c r="AH70" s="3196"/>
+      <c r="AI70" s="3197"/>
+      <c r="AJ70" s="3198"/>
+      <c r="AK70" s="3199"/>
+      <c r="AL70" s="3200"/>
+      <c r="AM70" s="3201"/>
+      <c r="AN70" s="3202"/>
+      <c r="AO70" s="3203"/>
+      <c r="AP70" s="3204"/>
+      <c r="AQ70" s="3205"/>
+      <c r="AR70" s="3206"/>
+      <c r="AS70" s="3207"/>
+      <c r="AT70" s="3208"/>
+      <c r="AU70" s="3209"/>
+      <c r="AV70" s="3210"/>
+      <c r="AW70" s="3211"/>
+      <c r="AX70" s="3212"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
